--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -13,13 +13,11 @@
     <sheet name="Selected" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Accuracy">'General Settings'!$D$23</definedName>
+    <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$J$16</definedName>
-    <definedName name="Calendar" localSheetId="1">'General Settings'!$J$18</definedName>
-    <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Currency" localSheetId="1">'General Settings'!$J$14</definedName>
-    <definedName name="Currency">'General Settings'!$D$4</definedName>
-    <definedName name="DayCounter">'General Settings'!$D$19</definedName>
+    <definedName name="Calendar">'General Settings'!$D$14</definedName>
+    <definedName name="Currency">'General Settings'!$J$14</definedName>
+    <definedName name="DayCounter">'General Settings'!$D$15</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!$J$20</definedName>
     <definedName name="Discounting2">'General Settings'!$J$21</definedName>
@@ -27,33 +25,29 @@
     <definedName name="FamilyName">'General Settings'!$J$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$9</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
-    <definedName name="GENERAL_SETTINGS">'General Settings'!$H$12</definedName>
-    <definedName name="IborType">'General Settings'!$D$7</definedName>
-    <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
-    <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
+    <definedName name="IborType">'General Settings'!$D$6</definedName>
+    <definedName name="IndexTenor">'General Settings'!$D$5</definedName>
+    <definedName name="InterpolatorID">'General Settings'!$D$21</definedName>
     <definedName name="MinDistance">RateHelpers!$F$2:$F$12</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$J$17</definedName>
-    <definedName name="Months">'General Settings'!$D$5</definedName>
-    <definedName name="NDays">'General Settings'!$D$17</definedName>
+    <definedName name="Months">'General Settings'!$D$4</definedName>
+    <definedName name="NDays">'General Settings'!$D$13</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="1">'General Settings'!$J$6</definedName>
-    <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
-    <definedName name="Permanent" localSheetId="1">'General Settings'!$J$5</definedName>
-    <definedName name="Permanent">'General Settings'!$D$10</definedName>
+    <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
+    <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$19</definedName>
-    <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
+    <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$A$2:$A$12</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$12</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$E$2:$E$12</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$J$8</definedName>
     <definedName name="Serialize">'General Settings'!$J$7</definedName>
-    <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
-    <definedName name="TraitsID">'General Settings'!$D$24</definedName>
-    <definedName name="Trigger" localSheetId="1">'General Settings'!$J$4</definedName>
-    <definedName name="Trigger">'General Settings'!$D$11</definedName>
-    <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
+    <definedName name="SwapFixedFreq">'General Settings'!$D$7</definedName>
+    <definedName name="TraitsID">'General Settings'!$D$20</definedName>
+    <definedName name="Trigger">'General Settings'!$J$4</definedName>
+    <definedName name="YieldCurve">'General Settings'!$D$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -65,20 +59,7 @@
     <author>Ferdinando Ametrano</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>TRUE if the object must be permanent (i.e. resistant to garbage collection). Default is FALSE.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -528,17 +509,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="11">
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="173" formatCode="General_)"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="171" formatCode="General_)"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1162,14 +1143,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="18" fillId="9" borderId="0">
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="18" fillId="9" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1185,21 +1166,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1184,7 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,16 +1196,16 @@
     <xf numFmtId="11" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,10 +1217,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1239,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1271,9 +1247,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1291,20 +1267,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,40 +1291,40 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1361,7 +1334,7 @@
     <xf numFmtId="15" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="13" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="13" fillId="6" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1380,7 +1353,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1395,7 +1368,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1410,7 +1383,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1440,6 +1413,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,23 +1452,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
@@ -1813,19 +1790,19 @@
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="H2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="H2" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1835,10 +1812,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="90"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1863,22 +1840,22 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="137">
+        <v>1</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="78">
+      <c r="J4" s="74">
         <v>41598.708865740744</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1903,22 +1880,23 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f>_xll.qlPeriodEquivalent(D4&amp;"M")</f>
+        <v>1M</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="87" t="s">
+      <c r="H5" s="84"/>
+      <c r="I5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="78" t="b">
+      <c r="J5" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="86"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1943,23 +1921,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
-        <v>1M</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="87" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="78" t="b">
+      <c r="J6" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="86"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1984,22 +1961,22 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="87" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="78" t="b">
+      <c r="J7" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2023,24 +2000,25 @@
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>43</v>
+      <c r="C8" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
+        <v>HKD_YC1MRH</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="87" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="89" t="e">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",#REF!),FIND("[",CELL("filename",#REF!),1)-1),"\XLS\","\XML\")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="86"/>
+      <c r="J8" s="85" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="K8" s="82"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2064,24 +2042,19 @@
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
-        <v>HKD_YC1MRH</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="87" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="81" t="b">
+      <c r="J9" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="86"/>
+      <c r="K9" s="82"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2105,19 +2078,20 @@
     <row r="10" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10" t="b">
-        <v>1</v>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>_HKDYC1M#0006</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="83"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2141,11 +2115,12 @@
     <row r="11" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12">
-        <v>41598.713495370372</v>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <v/>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -2178,20 +2153,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="b">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
+        <v>_HKDYC1M</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2215,15 +2191,19 @@
     <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="77"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2247,24 +2227,23 @@
     <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="17" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC1M#0016</v>
+      <c r="C14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="79" t="s">
+      <c r="H14" s="76"/>
+      <c r="I14" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2289,23 +2268,20 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="19" t="str">
-        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
-        <v/>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J15" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="77"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2329,24 +2305,27 @@
     <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
+      <c r="C16" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="20" t="str">
-        <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
-        <v>_HKDYC1M</v>
-      </c>
-      <c r="E16" s="4"/>
+        <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
+        <v>HKDTOY_SYNTH1M_Quote</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
+        <v>HKDTOY2_SYNTH1M_Quote</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="79" t="s">
+      <c r="H16" s="76"/>
+      <c r="I16" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="77"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2370,23 +2349,27 @@
     <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="63">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="C17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21">
+        <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
+        <v>41639</v>
+      </c>
+      <c r="E17" s="22">
+        <f>DATE(YEAR(D17+1),12,31)</f>
+        <v>42004</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="79" t="s">
+      <c r="H17" s="76"/>
+      <c r="I17" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="77"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2410,23 +2393,27 @@
     <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="C18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="23" t="e">
+        <f>_xll.qlQuoteValue(D16,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="24" t="e">
+        <f>_xll.qlQuoteValue(E16,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="79" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="81" t="s">
+      <c r="J18" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2450,21 +2437,21 @@
     <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="22"/>
+      <c r="C19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79" t="s">
+      <c r="H19" s="76"/>
+      <c r="I19" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2488,28 +2475,24 @@
     <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="23" t="str">
-        <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
-        <v>HKDTOY_SYNTH1M_Quote</v>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
-        <v>HKDTOY2_SYNTH1M_Quote</v>
-      </c>
+      <c r="C20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="79" t="s">
+      <c r="H20" s="76"/>
+      <c r="I20" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="78" t="str">
+      <c r="J20" s="74" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
         <v>HkdYC</v>
       </c>
-      <c r="K20" s="77"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2533,28 +2516,24 @@
     <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="24">
-        <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
-        <v>41639</v>
-      </c>
-      <c r="E21" s="25">
-        <f>DATE(YEAR(D21+1),12,31)</f>
-        <v>42004</v>
-      </c>
+      <c r="C21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="H21" s="76"/>
+      <c r="I21" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="78" t="str">
+      <c r="J21" s="74" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
         <v>HkdYCSTD</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="73"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2578,23 +2557,15 @@
     <row r="22" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="26" t="e">
-        <f>_xll.qlQuoteValue(D20,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" s="27" t="e">
-        <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="74"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2618,10 +2589,14 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="28"/>
+      <c r="C23" s="56">
+        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
+        <v>41598</v>
+      </c>
+      <c r="D23" s="28">
+        <f>MAX(_xll.ohPack(Selected!I1:I13))</f>
+        <v>1</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
@@ -2652,11 +2627,13 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>36</v>
+      <c r="C24" s="57">
+        <f>MAX(_xll.ohPack(Selected!H2:H13))</f>
+        <v>41967</v>
+      </c>
+      <c r="D24" s="10">
+        <f>MIN(_xll.ohPack(Selected!I1:I13))</f>
+        <v>0.99718199621706238</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
@@ -2688,11 +2665,12 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>61</v>
+      <c r="C25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="30" t="str">
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <v/>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
@@ -2721,13 +2699,15 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="121">
+        <v>0.99718199600000001</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2755,17 +2735,11 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="59">
-        <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41598</v>
-      </c>
-      <c r="D27" s="31">
-        <f>MAX(_xll.ohPack(Selected!I1:I13))</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2793,17 +2767,11 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="60">
-        <f>MAX(_xll.ohPack(Selected!H2:H13))</f>
-        <v>41967</v>
-      </c>
-      <c r="D28" s="10">
-        <f>MIN(_xll.ohPack(Selected!I1:I13))</f>
-        <v>0.99718199621706238</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2831,16 +2799,11 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="33" t="str">
-        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v/>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2866,15 +2829,13 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="125">
-        <v>0.99718199600000001</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3990,11 +3951,6 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4022,11 +3978,6 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4054,11 +4005,6 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4086,11 +4032,6 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4123,21 +4064,18 @@
     <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
       <formula1>"Discount,ZeroYield,ForwardRate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>"1D,1W,1M,2M,3M,6M,1Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"EUR,USD,GBP,JPY,CHF,HKD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14">
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
@@ -4164,703 +4102,703 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="92" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="92" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="92" customWidth="1"/>
-    <col min="14" max="15" width="2.7109375" style="92" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="2.7109375" style="88" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="88" customWidth="1"/>
+    <col min="14" max="15" width="2.7109375" style="88" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="88" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="88" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="124"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="121"/>
+      <c r="A1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="117"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="101" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="101" t="str">
+      <c r="K2" s="97" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
         <v>HKD_YC1MRH</v>
       </c>
-      <c r="L2" s="101" t="e">
+      <c r="L2" s="97" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="98"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="94"/>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="120" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="119" t="str">
+      <c r="K3" s="115" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="118" t="e">
+      <c r="L3" s="114">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" s="104" t="str">
+        <v>12</v>
+      </c>
+      <c r="M3" s="100" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="98"/>
-      <c r="P3" s="117" t="s">
+      <c r="N3" s="94"/>
+      <c r="P3" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="117" t="s">
+      <c r="R3" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="117" t="s">
+      <c r="S3" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="122" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="116" t="str">
+      <c r="A4" s="108"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="112" t="str">
         <f>$K$2&amp;"_x"&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>HKD_YC1MRH_xAM1H_Hibor1M</v>
       </c>
-      <c r="L4" s="115" t="str">
+      <c r="L4" s="111" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0004</v>
-      </c>
-      <c r="M4" s="114" t="str">
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0006</v>
+      </c>
+      <c r="M4" s="110" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="98"/>
-      <c r="P4" s="113">
+      <c r="N4" s="94"/>
+      <c r="P4" s="109">
         <v>2</v>
       </c>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="113" t="b">
+      <c r="S4" s="109" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="135" t="s">
+      <c r="T4" s="123" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="98"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="94"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="106">
         <v>2</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="109" t="str">
+      <c r="H6" s="105" t="str">
         <f t="shared" ref="H6:H16" si="0">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="103">
         <v>0</v>
       </c>
-      <c r="J6" s="106" t="str">
+      <c r="J6" s="102" t="str">
         <f t="shared" ref="J6:J16" si="1">Currency&amp;$E6&amp;$C6&amp;QuoteSuffix</f>
         <v>HKDAM1H2M_Quote</v>
       </c>
-      <c r="K6" s="106" t="str">
+      <c r="K6" s="102" t="str">
         <f t="shared" ref="K6:K16" si="2">$K$2&amp;"_"&amp;$E6&amp;$C6</f>
         <v>HKD_YC1MRH_AM1H2M</v>
       </c>
-      <c r="L6" s="105" t="str">
+      <c r="L6" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0004</v>
-      </c>
-      <c r="M6" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H2M#0006</v>
+      </c>
+      <c r="M6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="98"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="103"/>
-      <c r="B7" s="110" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="106">
         <v>3</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="108" t="str">
+      <c r="H7" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="103">
         <v>0</v>
       </c>
-      <c r="J7" s="106" t="str">
+      <c r="J7" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H3M_Quote</v>
       </c>
-      <c r="K7" s="106" t="str">
+      <c r="K7" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H3M</v>
       </c>
-      <c r="L7" s="105" t="str">
+      <c r="L7" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0004</v>
-      </c>
-      <c r="M7" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H3M#0006</v>
+      </c>
+      <c r="M7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="98"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="106">
         <v>4</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="108" t="str">
+      <c r="H8" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="103">
         <v>0</v>
       </c>
-      <c r="J8" s="106" t="str">
+      <c r="J8" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H4M_Quote</v>
       </c>
-      <c r="K8" s="106" t="str">
+      <c r="K8" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H4M</v>
       </c>
-      <c r="L8" s="105" t="str">
+      <c r="L8" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0004</v>
-      </c>
-      <c r="M8" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H4M#0006</v>
+      </c>
+      <c r="M8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="98"/>
+      <c r="N8" s="94"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="110" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="106">
         <v>5</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="108" t="str">
+      <c r="H9" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="103">
         <v>0</v>
       </c>
-      <c r="J9" s="106" t="str">
+      <c r="J9" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H5M_Quote</v>
       </c>
-      <c r="K9" s="106" t="str">
+      <c r="K9" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H5M</v>
       </c>
-      <c r="L9" s="105" t="str">
+      <c r="L9" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0004</v>
-      </c>
-      <c r="M9" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H5M#0006</v>
+      </c>
+      <c r="M9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="98"/>
+      <c r="N9" s="94"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="110" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="106">
         <v>6</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="108" t="str">
+      <c r="H10" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="103">
         <v>0</v>
       </c>
-      <c r="J10" s="106" t="str">
+      <c r="J10" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H6M_Quote</v>
       </c>
-      <c r="K10" s="106" t="str">
+      <c r="K10" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H6M</v>
       </c>
-      <c r="L10" s="105" t="str">
+      <c r="L10" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0004</v>
-      </c>
-      <c r="M10" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H6M#0006</v>
+      </c>
+      <c r="M10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="98"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="110" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="106">
         <v>7</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="108" t="str">
+      <c r="H11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="103">
         <v>0</v>
       </c>
-      <c r="J11" s="106" t="str">
+      <c r="J11" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H7M_Quote</v>
       </c>
-      <c r="K11" s="106" t="str">
+      <c r="K11" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H7M</v>
       </c>
-      <c r="L11" s="105" t="str">
+      <c r="L11" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0004</v>
-      </c>
-      <c r="M11" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H7M#0006</v>
+      </c>
+      <c r="M11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="98"/>
+      <c r="N11" s="94"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="110" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="106">
         <v>8</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="108" t="str">
+      <c r="H12" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="103">
         <v>0</v>
       </c>
-      <c r="J12" s="106" t="str">
+      <c r="J12" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H8M_Quote</v>
       </c>
-      <c r="K12" s="106" t="str">
+      <c r="K12" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H8M</v>
       </c>
-      <c r="L12" s="105" t="str">
+      <c r="L12" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0004</v>
-      </c>
-      <c r="M12" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H8M#0006</v>
+      </c>
+      <c r="M12" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="98"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="106">
         <v>9</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="108" t="str">
+      <c r="H13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="103">
         <v>0</v>
       </c>
-      <c r="J13" s="106" t="str">
+      <c r="J13" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H9M_Quote</v>
       </c>
-      <c r="K13" s="106" t="str">
+      <c r="K13" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H9M</v>
       </c>
-      <c r="L13" s="105" t="str">
+      <c r="L13" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0004</v>
-      </c>
-      <c r="M13" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H9M#0006</v>
+      </c>
+      <c r="M13" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="98"/>
+      <c r="N13" s="94"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="110" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="106">
         <v>10</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="108" t="str">
+      <c r="H14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="103">
         <v>0</v>
       </c>
-      <c r="J14" s="106" t="str">
+      <c r="J14" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H10M_Quote</v>
       </c>
-      <c r="K14" s="106" t="str">
+      <c r="K14" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H10M</v>
       </c>
-      <c r="L14" s="105" t="str">
+      <c r="L14" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0004</v>
-      </c>
-      <c r="M14" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H10M#0006</v>
+      </c>
+      <c r="M14" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="98"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="106">
         <v>11</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="108" t="str">
+      <c r="H15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="103">
         <v>0</v>
       </c>
-      <c r="J15" s="106" t="str">
+      <c r="J15" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H11M_Quote</v>
       </c>
-      <c r="K15" s="106" t="str">
+      <c r="K15" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H11M</v>
       </c>
-      <c r="L15" s="105" t="str">
+      <c r="L15" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0004</v>
-      </c>
-      <c r="M15" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H11M#0006</v>
+      </c>
+      <c r="M15" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="98"/>
+      <c r="N15" s="94"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="110" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="106">
         <v>12</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="108" t="str">
+      <c r="H16" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="103">
         <v>0</v>
       </c>
-      <c r="J16" s="106" t="str">
+      <c r="J16" s="102" t="str">
         <f t="shared" si="1"/>
         <v>HKDAM1H1Y_Quote</v>
       </c>
-      <c r="K16" s="106" t="str">
+      <c r="K16" s="102" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YC1MRH_AM1H1Y</v>
       </c>
-      <c r="L16" s="105" t="str">
+      <c r="L16" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0004</v>
-      </c>
-      <c r="M16" s="104" t="str">
+        <v>HKD_YC1MRH_AM1H1Y#0006</v>
+      </c>
+      <c r="M16" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="98"/>
+      <c r="N16" s="94"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="98"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="94"/>
     </row>
     <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="94"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="90"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -4895,431 +4833,431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="24.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="str">
+      <c r="A2" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K6</f>
         <v>HKD_YC1MRH_AM1H2M</v>
       </c>
-      <c r="B2" s="66" t="e">
+      <c r="B2" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="62">
         <f>_xll.qlSwapRateHelperSpread($A2,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="67" t="b">
+      <c r="D2" s="63" t="b">
         <f>IF(ISERROR(B2),FALSE,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="63">
         <v>50</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="63">
         <v>1</v>
       </c>
-      <c r="G2" s="68">
+      <c r="G2" s="64">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H2" s="65">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
         <v>41661</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="34">
         <v>10</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="136" t="str">
+      <c r="A3" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K7</f>
         <v>HKD_YC1MRH_AM1H3M</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="62">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="62">
         <f>_xll.qlSwapRateHelperSpread($A3,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="67" t="b">
+      <c r="D3" s="63" t="b">
         <f t="shared" ref="D3:D12" si="0">IF(ISERROR(B3),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="63">
         <v>50</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="63">
         <v>1</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="64">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="65">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
         <v>41694</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="34">
         <v>20</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="136" t="str">
+      <c r="A4" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K8</f>
         <v>HKD_YC1MRH_AM1H4M</v>
       </c>
-      <c r="B4" s="66" t="e">
+      <c r="B4" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="62">
         <f>_xll.qlSwapRateHelperSpread($A4,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="67" t="b">
+      <c r="D4" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="63">
         <v>50</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="63">
         <v>1</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="64">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="65">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
         <v>41722</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <v>30</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="136" t="str">
+      <c r="A5" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K9</f>
         <v>HKD_YC1MRH_AM1H5M</v>
       </c>
-      <c r="B5" s="66" t="e">
+      <c r="B5" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="62">
         <f>_xll.qlSwapRateHelperSpread($A5,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="67" t="b">
+      <c r="D5" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="63">
         <v>50</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="63">
         <v>1</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="64">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="65">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
         <v>41751</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <v>40</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="136" t="str">
+      <c r="A6" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K10</f>
         <v>HKD_YC1MRH_AM1H6M</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="62">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="62">
         <f>_xll.qlSwapRateHelperSpread($A6,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="67" t="b">
+      <c r="D6" s="63" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="63">
         <v>50</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="63">
         <v>1</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="64">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="65">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
         <v>41781</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <v>50</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="136" t="str">
+      <c r="A7" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K11</f>
         <v>HKD_YC1MRH_AM1H7M</v>
       </c>
-      <c r="B7" s="66" t="e">
+      <c r="B7" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="62">
         <f>_xll.qlSwapRateHelperSpread($A7,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="67" t="b">
+      <c r="D7" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="63">
         <v>50</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="63">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="64">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="65">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
         <v>41813</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <v>60</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="136" t="str">
+      <c r="A8" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K12</f>
         <v>HKD_YC1MRH_AM1H8M</v>
       </c>
-      <c r="B8" s="66" t="e">
+      <c r="B8" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="62">
         <f>_xll.qlSwapRateHelperSpread($A8,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="67" t="b">
+      <c r="D8" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="63">
         <v>50</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="63">
         <v>1</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="64">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="65">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
         <v>41842</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>70</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="136" t="str">
+      <c r="A9" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K13</f>
         <v>HKD_YC1MRH_AM1H9M</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="62">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="62">
         <f>_xll.qlSwapRateHelperSpread($A9,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="67" t="b">
+      <c r="D9" s="63" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="63">
         <v>50</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="63">
         <v>1</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="64">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="65">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
         <v>41873</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="136" t="str">
+      <c r="A10" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K14</f>
         <v>HKD_YC1MRH_AM1H10M</v>
       </c>
-      <c r="B10" s="66" t="e">
+      <c r="B10" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="62">
         <f>_xll.qlSwapRateHelperSpread($A10,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="67" t="b">
+      <c r="D10" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="63">
         <v>50</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="63">
         <v>1</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="64">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="65">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
         <v>41904</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="136" t="str">
+      <c r="A11" s="124" t="str">
         <f>HKD_YCRH_Swaps_1M!K15</f>
         <v>HKD_YC1MRH_AM1H11M</v>
       </c>
-      <c r="B11" s="66" t="e">
+      <c r="B11" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="62">
         <f>_xll.qlSwapRateHelperSpread($A11,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="67" t="b">
+      <c r="D11" s="63" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="63">
         <v>50</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="63">
         <v>1</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="64">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="65">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
         <v>41934</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="137" t="str">
+      <c r="A12" s="125" t="str">
         <f>HKD_YCRH_Swaps_1M!K16</f>
         <v>HKD_YC1MRH_AM1H1Y</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="66">
         <f>_xll.qlRateHelperQuoteValue($A12,Trigger)</f>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="66">
         <f>_xll.qlSwapRateHelperSpread($A12,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="71" t="b">
+      <c r="D12" s="67" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="67">
         <v>50</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="67">
         <v>1</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="68">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
         <v>41600</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="69">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
         <v>41967</v>
       </c>
@@ -5344,412 +5282,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="58" customWidth="1"/>
-    <col min="6" max="6" width="8" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="37"/>
-    <col min="12" max="12" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="36.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="55" customWidth="1"/>
+    <col min="6" max="6" width="8" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="34"/>
+    <col min="12" max="12" width="12" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="136"/>
+      <c r="D1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="41">
+      <c r="I1" s="38">
         <f t="array" ref="I1:I13">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>1</v>
       </c>
-      <c r="L1" s="41">
+      <c r="L1" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="40">
         <v>8</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="44" t="str">
+      <c r="D2" s="41" t="str">
         <f t="array" ref="D2:D13">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>HKD_YC1MRH_AM1H3M</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="42">
         <f>_xll.qlRateHelperRate($D2)</f>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
         <v>41600</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="44">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
         <v>41694</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="38">
         <v>0.99944888117593667</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="34">
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="38">
         <v>0.99944888117593667</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <v>0</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="44" t="str">
+      <c r="D3" s="41" t="str">
         <v>HKD_YC1MRH_AM1H6M</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="42">
         <f>_xll.qlRateHelperRate($D3)</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
         <v>41600</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="44">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41781</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="38">
         <v>0.99880069538760774</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="34">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="38">
         <v>0.99880069538760774</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="44" t="str">
+      <c r="D4" s="41" t="str">
         <v>HKD_YC1MRH_AM1H9M</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="42">
         <f>_xll.qlRateHelperRate($D4)</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
         <v>41600</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="44">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>41873</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="38">
         <v>0.99804854241953556</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="34">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="38">
         <v>0.99804854241953556</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="44" t="str">
+      <c r="D5" s="41" t="str">
         <v>HKD_YC1MRH_AM1H1Y</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="42">
         <f>_xll.qlRateHelperRate($D5)</f>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
         <v>41600</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="44">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
         <v>41967</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="38">
         <v>0.99718199621706238</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="34">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="38">
         <v>0.99718199621706238</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="51" t="str">
+      <c r="B6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="D6" s="44" t="e">
+      <c r="D6" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" s="45" t="e">
+      <c r="E6" s="42" t="e">
         <f>_xll.qlRateHelperRate($D6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>--</v>
       </c>
-      <c r="G6" s="46" t="e">
+      <c r="G6" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="47" t="e">
+      <c r="H6" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="41" t="e">
+      <c r="I6" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="str">
+      <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D13),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0018</v>
-      </c>
-      <c r="B7" s="53" t="str">
+        <v>HKD_YC1MRH_RateHelpersSelected#0006</v>
+      </c>
+      <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="D7" s="44" t="e">
+      <c r="D7" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E7" s="45" t="e">
+      <c r="E7" s="42" t="e">
         <f>_xll.qlRateHelperRate($D7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="45" t="str">
+      <c r="F7" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>--</v>
       </c>
-      <c r="G7" s="46" t="e">
+      <c r="G7" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H7" s="47" t="e">
+      <c r="H7" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="41" t="e">
+      <c r="I7" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="44" t="e">
+      <c r="D8" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E8" s="45" t="e">
+      <c r="E8" s="42" t="e">
         <f>_xll.qlRateHelperRate($D8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="45" t="str">
+      <c r="F8" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>--</v>
       </c>
-      <c r="G8" s="46" t="e">
+      <c r="G8" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="47" t="e">
+      <c r="H8" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="41" t="e">
+      <c r="I8" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="44" t="e">
+      <c r="D9" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E9" s="45" t="e">
+      <c r="E9" s="42" t="e">
         <f>_xll.qlRateHelperRate($D9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="45" t="str">
+      <c r="F9" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>--</v>
       </c>
-      <c r="G9" s="46" t="e">
+      <c r="G9" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="47" t="e">
+      <c r="H9" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="41" t="e">
+      <c r="I9" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="44" t="e">
+      <c r="D10" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E10" s="45" t="e">
+      <c r="E10" s="42" t="e">
         <f>_xll.qlRateHelperRate($D10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="45" t="str">
+      <c r="F10" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>--</v>
       </c>
-      <c r="G10" s="46" t="e">
+      <c r="G10" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="47" t="e">
+      <c r="H10" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I10" s="41" t="e">
+      <c r="I10" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="44" t="e">
+      <c r="D11" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E11" s="45" t="e">
+      <c r="E11" s="42" t="e">
         <f>_xll.qlRateHelperRate($D11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="45" t="str">
+      <c r="F11" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>--</v>
       </c>
-      <c r="G11" s="46" t="e">
+      <c r="G11" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="47" t="e">
+      <c r="H11" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="41" t="e">
+      <c r="I11" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="44" t="e">
+      <c r="D12" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E12" s="45" t="e">
+      <c r="E12" s="42" t="e">
         <f>_xll.qlRateHelperRate($D12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="45" t="str">
+      <c r="F12" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>--</v>
       </c>
-      <c r="G12" s="46" t="e">
+      <c r="G12" s="43" t="e">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H12" s="47" t="e">
+      <c r="H12" s="44" t="e">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I12" s="41" t="e">
+      <c r="I12" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="54" t="e">
+      <c r="D13" s="51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E13" s="55" t="e">
+      <c r="E13" s="52" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="55" t="str">
+      <c r="F13" s="52" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>--</v>
       </c>
-      <c r="G13" s="56" t="e">
+      <c r="G13" s="53" t="e">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="57" t="e">
+      <c r="H13" s="54" t="e">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="41" t="e">
+      <c r="I13" s="38" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="138"/>
-      <c r="I15" s="139"/>
+      <c r="D15" s="126"/>
+      <c r="I15" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18765" yWindow="-15" windowWidth="18825" windowHeight="11460"/>
+    <workbookView xWindow="18765" yWindow="-15" windowWidth="18825" windowHeight="11460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -502,6 +502,27 @@
   </si>
   <si>
     <t>1M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H2M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H4M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H5M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H7M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H8M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H10M</t>
+  </si>
+  <si>
+    <t>HKD_YC1MRH_AM1H11M</t>
   </si>
 </sst>
 </file>
@@ -1430,6 +1451,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1452,10 +1477,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
@@ -1768,7 +1789,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1790,19 +1811,19 @@
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="H2" s="132" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="H2" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1842,7 +1863,7 @@
       <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="129">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
@@ -1853,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="74">
-        <v>41598.708865740744</v>
+        <v>41598.736087962963</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="1"/>
@@ -2000,7 +2021,7 @@
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="130" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="11" t="str">
@@ -2083,7 +2104,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC1M#0006</v>
+        <v>_HKDYC1M#0002</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2162,12 +2183,12 @@
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4096,6 +4117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4234,7 +4256,7 @@
       </c>
       <c r="L4" s="111" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0006</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0001</v>
       </c>
       <c r="M4" s="110" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -4310,7 +4332,7 @@
       </c>
       <c r="L6" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0006</v>
+        <v>HKD_YC1MRH_AM1H2M#0001</v>
       </c>
       <c r="M6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -4355,7 +4377,7 @@
       </c>
       <c r="L7" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0006</v>
+        <v>HKD_YC1MRH_AM1H3M#0001</v>
       </c>
       <c r="M7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -4400,7 +4422,7 @@
       </c>
       <c r="L8" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0006</v>
+        <v>HKD_YC1MRH_AM1H4M#0001</v>
       </c>
       <c r="M8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -4445,7 +4467,7 @@
       </c>
       <c r="L9" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0006</v>
+        <v>HKD_YC1MRH_AM1H5M#0001</v>
       </c>
       <c r="M9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -4490,7 +4512,7 @@
       </c>
       <c r="L10" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0006</v>
+        <v>HKD_YC1MRH_AM1H6M#0001</v>
       </c>
       <c r="M10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -4535,7 +4557,7 @@
       </c>
       <c r="L11" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0006</v>
+        <v>HKD_YC1MRH_AM1H7M#0001</v>
       </c>
       <c r="M11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -4580,7 +4602,7 @@
       </c>
       <c r="L12" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0006</v>
+        <v>HKD_YC1MRH_AM1H8M#0001</v>
       </c>
       <c r="M12" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -4625,7 +4647,7 @@
       </c>
       <c r="L13" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0006</v>
+        <v>HKD_YC1MRH_AM1H9M#0001</v>
       </c>
       <c r="M13" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -4670,7 +4692,7 @@
       </c>
       <c r="L14" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0006</v>
+        <v>HKD_YC1MRH_AM1H10M#0001</v>
       </c>
       <c r="M14" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -4715,7 +4737,7 @@
       </c>
       <c r="L15" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0006</v>
+        <v>HKD_YC1MRH_AM1H11M#0001</v>
       </c>
       <c r="M15" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -4760,7 +4782,7 @@
       </c>
       <c r="L16" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0006</v>
+        <v>HKD_YC1MRH_AM1H1Y#0001</v>
       </c>
       <c r="M16" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -4829,7 +4851,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4869,9 +4891,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K6</f>
-        <v>HKD_YC1MRH_AM1H2M</v>
+      <c r="A2" s="124" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
@@ -4907,9 +4928,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K7</f>
-        <v>HKD_YC1MRH_AM1H3M</v>
+      <c r="A3" s="124" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="62">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
@@ -4945,9 +4965,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K8</f>
-        <v>HKD_YC1MRH_AM1H4M</v>
+      <c r="A4" s="124" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
@@ -4983,9 +5002,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K9</f>
-        <v>HKD_YC1MRH_AM1H5M</v>
+      <c r="A5" s="124" t="s">
+        <v>102</v>
       </c>
       <c r="B5" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
@@ -5021,9 +5039,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K10</f>
-        <v>HKD_YC1MRH_AM1H6M</v>
+      <c r="A6" s="124" t="s">
+        <v>63</v>
       </c>
       <c r="B6" s="62">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
@@ -5059,9 +5076,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K11</f>
-        <v>HKD_YC1MRH_AM1H7M</v>
+      <c r="A7" s="124" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
@@ -5097,9 +5113,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K12</f>
-        <v>HKD_YC1MRH_AM1H8M</v>
+      <c r="A8" s="124" t="s">
+        <v>104</v>
       </c>
       <c r="B8" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
@@ -5135,9 +5150,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K13</f>
-        <v>HKD_YC1MRH_AM1H9M</v>
+      <c r="A9" s="124" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="62">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
@@ -5167,9 +5181,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K14</f>
-        <v>HKD_YC1MRH_AM1H10M</v>
+      <c r="A10" s="124" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
@@ -5199,9 +5212,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!K15</f>
-        <v>HKD_YC1MRH_AM1H11M</v>
+      <c r="A11" s="124" t="s">
+        <v>106</v>
       </c>
       <c r="B11" s="62" t="e">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
@@ -5231,9 +5243,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="125" t="str">
-        <f>HKD_YCRH_Swaps_1M!K16</f>
-        <v>HKD_YC1MRH_AM1H1Y</v>
+      <c r="A12" s="125" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="66">
         <f>_xll.qlRateHelperQuoteValue($A12,Trigger)</f>
@@ -5296,10 +5307,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="138"/>
       <c r="D1" s="35" t="s">
         <v>20</v>
       </c>
@@ -5512,7 +5523,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D13),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0006</v>
+        <v>HKD_YC1MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>

--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18765" yWindow="-15" windowWidth="18825" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="18765" yWindow="-15" windowWidth="18825" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
     <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$19</definedName>
+    <definedName name="RateHelperConstructors" localSheetId="1">HKD_YCRH_Swaps_1M!$L$6:$L$16</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$A$2:$A$12</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$12</definedName>
@@ -1789,7 +1790,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1874,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="74">
-        <v>41598.736087962963</v>
+        <v>41599.409618055557</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="1"/>
@@ -2104,7 +2105,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC1M#0002</v>
+        <v>_HKDYC1M#0001</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2612,7 +2613,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="56">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41598</v>
+        <v>41599</v>
       </c>
       <c r="D23" s="28">
         <f>MAX(_xll.ohPack(Selected!I1:I13))</f>
@@ -2650,11 +2651,11 @@
       <c r="B24" s="2"/>
       <c r="C24" s="57">
         <f>MAX(_xll.ohPack(Selected!H2:H13))</f>
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="D24" s="10">
         <f>MIN(_xll.ohPack(Selected!I1:I13))</f>
-        <v>0.99718199621706238</v>
+        <v>0.99718723822049571</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
@@ -4120,7 +4121,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4256,7 +4259,7 @@
       </c>
       <c r="L4" s="111" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0001</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0000</v>
       </c>
       <c r="M4" s="110" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="L6" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0001</v>
+        <v>HKD_YC1MRH_AM1H2M#0000</v>
       </c>
       <c r="M6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="L7" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0001</v>
+        <v>HKD_YC1MRH_AM1H3M#0000</v>
       </c>
       <c r="M7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -4422,7 +4425,7 @@
       </c>
       <c r="L8" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0001</v>
+        <v>HKD_YC1MRH_AM1H4M#0000</v>
       </c>
       <c r="M8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -4467,7 +4470,7 @@
       </c>
       <c r="L9" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0001</v>
+        <v>HKD_YC1MRH_AM1H5M#0000</v>
       </c>
       <c r="M9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -4512,7 +4515,7 @@
       </c>
       <c r="L10" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0001</v>
+        <v>HKD_YC1MRH_AM1H6M#0000</v>
       </c>
       <c r="M10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -4557,7 +4560,7 @@
       </c>
       <c r="L11" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0001</v>
+        <v>HKD_YC1MRH_AM1H7M#0000</v>
       </c>
       <c r="M11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="L12" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0001</v>
+        <v>HKD_YC1MRH_AM1H8M#0000</v>
       </c>
       <c r="M12" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -4647,7 +4650,7 @@
       </c>
       <c r="L13" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0001</v>
+        <v>HKD_YC1MRH_AM1H9M#0000</v>
       </c>
       <c r="M13" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -4692,7 +4695,7 @@
       </c>
       <c r="L14" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0001</v>
+        <v>HKD_YC1MRH_AM1H10M#0000</v>
       </c>
       <c r="M14" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="L15" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0001</v>
+        <v>HKD_YC1MRH_AM1H11M#0000</v>
       </c>
       <c r="M15" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="L16" s="101" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0001</v>
+        <v>HKD_YC1MRH_AM1H1Y#0000</v>
       </c>
       <c r="M16" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -4851,7 +4854,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4914,11 +4917,11 @@
       </c>
       <c r="G2" s="64">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H2" s="65">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>41661</v>
+        <v>41666</v>
       </c>
       <c r="I2" s="34">
         <v>10</v>
@@ -4951,11 +4954,11 @@
       </c>
       <c r="G3" s="64">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H3" s="65">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="I3" s="34">
         <v>20</v>
@@ -4988,11 +4991,11 @@
       </c>
       <c r="G4" s="64">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H4" s="65">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="I4" s="34">
         <v>30</v>
@@ -5025,11 +5028,11 @@
       </c>
       <c r="G5" s="64">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H5" s="65">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>41751</v>
+        <v>41754</v>
       </c>
       <c r="I5" s="34">
         <v>40</v>
@@ -5062,11 +5065,11 @@
       </c>
       <c r="G6" s="64">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H6" s="65">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="I6" s="34">
         <v>50</v>
@@ -5099,11 +5102,11 @@
       </c>
       <c r="G7" s="64">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H7" s="65">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41813</v>
+        <v>41815</v>
       </c>
       <c r="I7" s="34">
         <v>60</v>
@@ -5136,11 +5139,11 @@
       </c>
       <c r="G8" s="64">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H8" s="65">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>41842</v>
+        <v>41845</v>
       </c>
       <c r="I8" s="34">
         <v>70</v>
@@ -5173,11 +5176,11 @@
       </c>
       <c r="G9" s="64">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H9" s="65">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>41873</v>
+        <v>41876</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5204,11 +5207,11 @@
       </c>
       <c r="G10" s="64">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H10" s="65">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>41904</v>
+        <v>41907</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5235,11 +5238,11 @@
       </c>
       <c r="G11" s="64">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H11" s="65">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>41934</v>
+        <v>41939</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5266,11 +5269,11 @@
       </c>
       <c r="G12" s="68">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H12" s="69">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>41967</v>
+        <v>41968</v>
       </c>
     </row>
   </sheetData>
@@ -5343,7 +5346,7 @@
         <v>62</v>
       </c>
       <c r="D2" s="41" t="str">
-        <f t="array" ref="D2:D13">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
+        <f t="array" ref="D2:D13">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(HKD_YCRH_Swaps_1M!RateHelperConstructors))</f>
         <v>HKD_YC1MRH_AM1H3M</v>
       </c>
       <c r="E2" s="42">
@@ -5356,14 +5359,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H2" s="44">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="I2" s="38">
-        <v>0.99944888117593667</v>
+        <v>0.99944973191562592</v>
       </c>
       <c r="K2" s="34">
         <v>2.1000000000000003E-3</v>
@@ -5395,14 +5398,14 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H3" s="44">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41781</v>
+        <v>41785</v>
       </c>
       <c r="I3" s="38">
-        <v>0.99880069538760774</v>
+        <v>0.99878357775957516</v>
       </c>
       <c r="K3" s="34">
         <v>2.3999999999999998E-3</v>
@@ -5434,14 +5437,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H4" s="44">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41873</v>
+        <v>41876</v>
       </c>
       <c r="I4" s="38">
-        <v>0.99804854241953556</v>
+        <v>0.99803828918481163</v>
       </c>
       <c r="K4" s="34">
         <v>2.5999999999999999E-3</v>
@@ -5473,14 +5476,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="H5" s="44">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="I5" s="38">
-        <v>0.99718199621706238</v>
+        <v>0.99718723822049571</v>
       </c>
       <c r="K5" s="34">
         <v>2.8000000000000004E-3</v>
@@ -5523,7 +5526,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D13),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0002</v>
+        <v>HKD_YC1MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>

--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="74">
-        <v>41599.449282407404</v>
+        <v>41599.508287037039</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="1"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D18),NA(),D16:E16),IF(ISERROR(D18),NA(),D17:E17),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC1M#0001</v>
+        <v>_HKDYC1M#0000</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2941,9 +2941,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
-      <c r="D26" s="121">
-        <v>0.99718199600000001</v>
-      </c>
+      <c r="D26" s="121"/>
       <c r="E26" s="32"/>
       <c r="F26" s="33"/>
       <c r="G26" s="1"/>
@@ -12804,7 +12802,7 @@
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0001</v>
+        <v>HKD_YC1MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>

--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7575" windowHeight="7620"/>
+    <workbookView minimized="1" xWindow="10125" yWindow="-15" windowWidth="5070" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -2003,8 +2003,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2089,9 +2089,7 @@
       <c r="I4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="73">
-        <v>41599.618668981479</v>
-      </c>
+      <c r="J4" s="73"/>
       <c r="K4" s="81"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2320,7 +2318,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYC1M#0003</v>
+        <v>_HKDYC1M#0002</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2792,7 +2790,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="56">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="D22" s="28">
         <f>MAX(_xll.ohPack(Selected!I1:I13))</f>
@@ -2830,11 +2828,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="57">
         <f>MAX(_xll.ohPack(Selected!H2:H13))</f>
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="D23" s="10">
         <f>MIN(_xll.ohPack(Selected!I1:I13))</f>
-        <v>0.99718723822049571</v>
+        <v>0.99708725368914641</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -2903,8 +2901,14 @@
     <row r="25" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="120"/>
+      <c r="C25" s="120" t="str">
+        <f>UPPER(Currency)&amp;IndexTenor</f>
+        <v>HKD1M</v>
+      </c>
+      <c r="D25" s="120" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C25,YieldCurve)</f>
+        <v>1</v>
+      </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33"/>
       <c r="G25" s="1"/>
@@ -4537,7 +4541,7 @@
       </c>
       <c r="L6" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0003</v>
+        <v>HKD_YC1MRH_AM1H2M#0002</v>
       </c>
       <c r="M6" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -4582,7 +4586,7 @@
       </c>
       <c r="L7" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0003</v>
+        <v>HKD_YC1MRH_AM1H3M#0002</v>
       </c>
       <c r="M7" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="L8" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0003</v>
+        <v>HKD_YC1MRH_AM1H4M#0002</v>
       </c>
       <c r="M8" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -4672,7 +4676,7 @@
       </c>
       <c r="L9" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0003</v>
+        <v>HKD_YC1MRH_AM1H5M#0002</v>
       </c>
       <c r="M9" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -4717,7 +4721,7 @@
       </c>
       <c r="L10" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0003</v>
+        <v>HKD_YC1MRH_AM1H6M#0002</v>
       </c>
       <c r="M10" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -4762,7 +4766,7 @@
       </c>
       <c r="L11" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0003</v>
+        <v>HKD_YC1MRH_AM1H7M#0002</v>
       </c>
       <c r="M11" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -4807,7 +4811,7 @@
       </c>
       <c r="L12" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0003</v>
+        <v>HKD_YC1MRH_AM1H8M#0002</v>
       </c>
       <c r="M12" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -4852,7 +4856,7 @@
       </c>
       <c r="L13" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0003</v>
+        <v>HKD_YC1MRH_AM1H9M#0002</v>
       </c>
       <c r="M13" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -4897,7 +4901,7 @@
       </c>
       <c r="L14" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0003</v>
+        <v>HKD_YC1MRH_AM1H10M#0002</v>
       </c>
       <c r="M14" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -4942,7 +4946,7 @@
       </c>
       <c r="L15" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0003</v>
+        <v>HKD_YC1MRH_AM1H11M#0002</v>
       </c>
       <c r="M15" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="L16" s="100" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0003</v>
+        <v>HKD_YC1MRH_AM1H1Y#0002</v>
       </c>
       <c r="M16" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -5053,6 +5057,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8861,7 +8866,7 @@
       </c>
       <c r="K96" s="63">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L96" s="64">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
@@ -8908,11 +8913,11 @@
       </c>
       <c r="K97" s="63">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L97" s="64">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="N97" s="136"/>
     </row>
@@ -8952,11 +8957,11 @@
       </c>
       <c r="K98" s="63">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L98" s="64">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>41723</v>
+        <v>41724</v>
       </c>
       <c r="N98" s="136"/>
     </row>
@@ -8996,11 +9001,11 @@
       </c>
       <c r="K99" s="63">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L99" s="64">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>41754</v>
+        <v>41757</v>
       </c>
       <c r="N99" s="136" t="e">
         <f t="shared" ref="N99:N142" si="9">IF(G99=G136,F99-F136,"--")</f>
@@ -9025,7 +9030,7 @@
       </c>
       <c r="F100" s="61">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G100" s="61">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -9043,7 +9048,7 @@
       </c>
       <c r="K100" s="63">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L100" s="64">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
@@ -9090,11 +9095,11 @@
       </c>
       <c r="K101" s="63">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L101" s="64">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>41815</v>
+        <v>41816</v>
       </c>
       <c r="N101" s="136" t="e">
         <f t="shared" si="9"/>
@@ -9137,11 +9142,11 @@
       </c>
       <c r="K102" s="63">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L102" s="64">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>41845</v>
+        <v>41848</v>
       </c>
       <c r="N102" s="136" t="e">
         <f t="shared" si="9"/>
@@ -9166,7 +9171,7 @@
       </c>
       <c r="F103" s="61">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G103" s="61">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -9184,11 +9189,11 @@
       </c>
       <c r="K103" s="63">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L103" s="64">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>41876</v>
+        <v>41877</v>
       </c>
       <c r="N103" s="136" t="e">
         <f t="shared" si="9"/>
@@ -9231,11 +9236,11 @@
       </c>
       <c r="K104" s="63">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L104" s="64">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>41907</v>
+        <v>41908</v>
       </c>
       <c r="N104" s="136" t="e">
         <f t="shared" si="9"/>
@@ -9278,7 +9283,7 @@
       </c>
       <c r="K105" s="63">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L105" s="64">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
@@ -9307,7 +9312,7 @@
       </c>
       <c r="F106" s="61">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>2.9000000000000002E-3</v>
       </c>
       <c r="G106" s="61">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -9325,11 +9330,11 @@
       </c>
       <c r="K106" s="63">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="L106" s="64">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="N106" s="136" t="e">
         <f t="shared" si="9"/>
@@ -12595,6 +12600,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12658,14 +12664,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="H2" s="44">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41695</v>
+        <v>41696</v>
       </c>
       <c r="I2" s="38">
-        <v>0.99944973191562592</v>
+        <v>0.99944806257782604</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12680,7 +12686,7 @@
       </c>
       <c r="E3" s="42">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.3999999999999998E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F3" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -12688,14 +12694,14 @@
       </c>
       <c r="G3" s="43">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="H3" s="44">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41785</v>
       </c>
       <c r="I3" s="38">
-        <v>0.99878357775957516</v>
+        <v>0.99883872536124463</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -12710,7 +12716,7 @@
       </c>
       <c r="E4" s="42">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F4" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -12718,14 +12724,14 @@
       </c>
       <c r="G4" s="43">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="H4" s="44">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41876</v>
+        <v>41877</v>
       </c>
       <c r="I4" s="38">
-        <v>0.99803828918481163</v>
+        <v>0.99788898114345748</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -12740,7 +12746,7 @@
       </c>
       <c r="E5" s="42">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>2.9000000000000002E-3</v>
       </c>
       <c r="F5" s="42">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -12748,14 +12754,14 @@
       </c>
       <c r="G5" s="43">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="H5" s="44">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="I5" s="38">
-        <v>0.99718723822049571</v>
+        <v>0.99708725368914641</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -12792,7 +12798,7 @@
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0003</v>
+        <v>HKD_YC1MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>

--- a/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YC1MBootstrapping.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="-15" yWindow="-15" windowWidth="19080" windowHeight="11445" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19080" windowHeight="11445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="HKD_YCRH_Swaps_1M" sheetId="6" r:id="rId2"/>
+    <sheet name="Swaps" sheetId="6" r:id="rId2"/>
     <sheet name="RateHelpers" sheetId="7" r:id="rId3"/>
     <sheet name="Selected" sheetId="8" r:id="rId4"/>
     <sheet name="Charts" sheetId="9" r:id="rId5"/>
@@ -22,7 +22,7 @@
     <definedName name="DepoInclusionCriteria" localSheetId="3">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!$J$20</definedName>
     <definedName name="Discounting2">'General Settings'!$J$21</definedName>
-    <definedName name="DiscountingCurve" localSheetId="1">HKD_YCRH_Swaps_1M!$L$2</definedName>
+    <definedName name="DiscountingCurve" localSheetId="1">Swaps!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$J$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$9</definedName>
     <definedName name="FrontFuturesRollingDays" localSheetId="3">Selected!$B$4</definedName>
@@ -38,7 +38,7 @@
     <definedName name="ObjectOverwrite">'General Settings'!$J$6</definedName>
     <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$19</definedName>
-    <definedName name="RateHelperConstructors" localSheetId="1">HKD_YCRH_Swaps_1M!$L$6:$L$16</definedName>
+    <definedName name="RateHelperConstructors" localSheetId="1">Swaps!$L$6:$L$16</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$50</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$I$2:$I$50</definedName>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -588,9 +588,6 @@
   </si>
   <si>
     <t>HkdHibor1MLastFixing</t>
-  </si>
-  <si>
-    <t>-1D</t>
   </si>
   <si>
     <t>fixing date</t>
@@ -1649,6 +1646,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2624,661 +2622,661 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="308"/>
                 <c:pt idx="0">
-                  <c:v>2.1356999987037595E-3</c:v>
+                  <c:v>2.1125932976221702E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1327927337125886E-3</c:v>
+                  <c:v>2.1113272721521338E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1322694448906027E-3</c:v>
+                  <c:v>2.1110885349731601E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1317250702697936E-3</c:v>
+                  <c:v>2.1108403500697159E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1272866503547188E-3</c:v>
+                  <c:v>2.1089252334532066E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1257226554032855E-3</c:v>
+                  <c:v>2.1082591437159687E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1223048006803764E-3</c:v>
+                  <c:v>2.1068548888558691E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1215786015104168E-3</c:v>
+                  <c:v>2.1065329513866513E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1208325349206876E-3</c:v>
+                  <c:v>2.1062026820092747E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1157283548888274E-3</c:v>
+                  <c:v>2.1040963716973736E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1139978691562329E-3</c:v>
+                  <c:v>2.1033915108154898E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1105338400805073E-3</c:v>
+                  <c:v>2.102042274314138E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1096616897233259E-3</c:v>
+                  <c:v>2.1016704778975548E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1087745639099846E-3</c:v>
+                  <c:v>2.1012936159153961E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1035866301443557E-3</c:v>
+                  <c:v>2.0992581926859355E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1018836555430193E-3</c:v>
+                  <c:v>2.0986019208846956E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0969091705932527E-3</c:v>
+                  <c:v>2.096724673323282E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.092219487157901E-3</c:v>
+                  <c:v>2.0950222175436339E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0907380248263818E-3</c:v>
+                  <c:v>2.0945018949045371E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0874119895227666E-3</c:v>
+                  <c:v>2.0933922173092812E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.086594362982233E-3</c:v>
+                  <c:v>2.0930993519745695E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0829671154274794E-3</c:v>
+                  <c:v>2.0919357836088246E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0818767507632227E-3</c:v>
+                  <c:v>2.0916010329316828E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0802025330201135E-3</c:v>
+                  <c:v>2.0911647841230382E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0795722748427614E-3</c:v>
+                  <c:v>2.0909560140397812E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0789618100997536E-3</c:v>
+                  <c:v>2.0907560972110457E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0765810991361174E-3</c:v>
+                  <c:v>2.0901501359082259E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0759062464684622E-3</c:v>
+                  <c:v>2.0900012542276578E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0750629938067048E-3</c:v>
+                  <c:v>2.0899367292971944E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0746405220278819E-3</c:v>
+                  <c:v>2.0898209012727362E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.074237841274534E-3</c:v>
+                  <c:v>2.0897139254313821E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0731036651346832E-3</c:v>
+                  <c:v>2.0896655709927931E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.072844323961666E-3</c:v>
+                  <c:v>2.0897025582591253E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0728320687485144E-3</c:v>
+                  <c:v>2.0900097720514634E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0726173665468195E-3</c:v>
+                  <c:v>2.0899868786130454E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0724224529980553E-3</c:v>
+                  <c:v>2.0899728362930932E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0725348108453822E-3</c:v>
+                  <c:v>2.0904820887030478E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0726909809735379E-3</c:v>
+                  <c:v>2.0907049449241234E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0726345710452287E-3</c:v>
+                  <c:v>2.0907528544917473E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0725979477381174E-3</c:v>
+                  <c:v>2.090809614265087E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0725811107203235E-3</c:v>
+                  <c:v>2.0908752240942591E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0736728694980711E-3</c:v>
+                  <c:v>2.0918225799781975E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0741566859317734E-3</c:v>
+                  <c:v>2.092192892461851E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0747069480516901E-3</c:v>
+                  <c:v>2.0925982931917814E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.075330743774782E-3</c:v>
+                  <c:v>2.0930473181591087E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0760351610266919E-3</c:v>
+                  <c:v>2.0935485033462698E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0787030212262342E-3</c:v>
+                  <c:v>2.0954503801292757E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0798008038816879E-3</c:v>
+                  <c:v>2.0962455661098695E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0810146477346992E-3</c:v>
+                  <c:v>2.0971355922832658E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0823516407311726E-3</c:v>
+                  <c:v>2.0981289946550574E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.083818870828591E-3</c:v>
+                  <c:v>2.0992343092366256E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0890728633592343E-3</c:v>
+                  <c:v>2.1033070864030184E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0911319215481472E-3</c:v>
+                  <c:v>2.1049454100301374E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0933566567209378E-3</c:v>
+                  <c:v>2.1067383260194622E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0957541568958744E-3</c:v>
+                  <c:v>2.1086943704200023E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0983315100883294E-3</c:v>
+                  <c:v>2.1108220792981358E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1072135681676762E-3</c:v>
+                  <c:v>2.1183205536847477E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1105812139023323E-3</c:v>
+                  <c:v>2.1212202814177967E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1141641529658279E-3</c:v>
+                  <c:v>2.1243343541745203E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1179694734748439E-3</c:v>
+                  <c:v>2.1276713081110261E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1303974630813806E-3</c:v>
+                  <c:v>2.1389922348737864E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.1451069058327087E-3</c:v>
+                  <c:v>2.1523627650243244E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1505161049593532E-3</c:v>
+                  <c:v>2.1573391781827588E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1634958802865391E-3</c:v>
+                  <c:v>2.1695179554834325E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1658503186835348E-3</c:v>
+                  <c:v>2.1716456427261013E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1682906714906671E-3</c:v>
+                  <c:v>2.1738618270525276E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1883857001033539E-3</c:v>
+                  <c:v>2.1927745980323474E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1955997032308354E-3</c:v>
+                  <c:v>2.1996099952211853E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2121896849357941E-3</c:v>
+                  <c:v>2.2155073072737891E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2154462406549086E-3</c:v>
+                  <c:v>2.2185642175524475E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.2187887000026871E-3</c:v>
+                  <c:v>2.2217096138502537E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2442981887123158E-3</c:v>
+                  <c:v>2.2461993837242038E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2749926498661288E-3</c:v>
+                  <c:v>2.2760289553093015E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2791083215130646E-3</c:v>
+                  <c:v>2.2799707927777979E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.283309887116097E-3</c:v>
+                  <c:v>2.2840011063837789E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.2875973450163165E-3</c:v>
+                  <c:v>2.2881198944347397E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.312844551605867E-3</c:v>
+                  <c:v>2.3126372992069324E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.323668238194338E-3</c:v>
+                  <c:v>2.3231907386034672E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.3474793179783901E-3</c:v>
+                  <c:v>2.3465258135391466E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.3525398872493303E-3</c:v>
+                  <c:v>2.3514409432010344E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.3576863367717167E-3</c:v>
+                  <c:v>2.3564445350193574E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.3871442872266022E-3</c:v>
+                  <c:v>2.3852991174578104E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4066535870589842E-3</c:v>
+                  <c:v>2.4045010746127425E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.4124012753194242E-3</c:v>
+                  <c:v>2.4101239729733548E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4400380673271493E-3</c:v>
+                  <c:v>2.43739954872077E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4460863920538678E-3</c:v>
+                  <c:v>2.4433321160341739E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.4800560130443148E-3</c:v>
+                  <c:v>2.4768338280625564E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4943604990051256E-3</c:v>
+                  <c:v>2.4909725573999397E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5089228331895974E-3</c:v>
+                  <c:v>2.5053768749618475E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.5401708588482924E-3</c:v>
+                  <c:v>2.5363720267189069E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.5471209710496846E-3</c:v>
+                  <c:v>2.5432334803343259E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.5856022604202984E-3</c:v>
+                  <c:v>2.5813823197815555E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.6017117039543645E-3</c:v>
+                  <c:v>2.5973801871142697E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.6180790025307861E-3</c:v>
+                  <c:v>2.613643649638786E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.6529385944773498E-3</c:v>
+                  <c:v>2.6483587158802543E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.7216978093721478E-3</c:v>
+                  <c:v>2.7168019846740927E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.7398701233186293E-3</c:v>
+                  <c:v>2.7349246443334105E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.778341648863418E-3</c:v>
+                  <c:v>2.7733599994194877E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.7870950415583959E-3</c:v>
+                  <c:v>2.7820789266374745E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.8345996741547439E-3</c:v>
+                  <c:v>2.8295220299412822E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.8543191889709814E-3</c:v>
+                  <c:v>2.8492383331932825E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.8742965748902449E-3</c:v>
+                  <c:v>2.869220248130004E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.9260353054109734E-3</c:v>
+                  <c:v>2.9210238004338763E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.9893477353339845E-3</c:v>
+                  <c:v>2.9844529016101553E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.0108623270217534E-3</c:v>
+                  <c:v>3.0060203977165479E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.0553730370976996E-3</c:v>
+                  <c:v>3.0506916888994201E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.0658056061159955E-3</c:v>
+                  <c:v>3.0611408705078294E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.0763215144410131E-3</c:v>
+                  <c:v>3.0716759376544249E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.1426799127771115E-3</c:v>
+                  <c:v>3.1382805431797471E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.1648938891907482E-3</c:v>
+                  <c:v>3.1605861998364225E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.2092996796703492E-3</c:v>
+                  <c:v>3.2052091368709825E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.2203684313214173E-3</c:v>
+                  <c:v>3.2163178971515716E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.2315034003742439E-3</c:v>
+                  <c:v>3.2274951823216182E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.2975903521197249E-3</c:v>
+                  <c:v>3.2939116465479485E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.3193978918430725E-3</c:v>
+                  <c:v>3.3158342318538188E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.3613196103598358E-3</c:v>
+                  <c:v>3.3579965095437651E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.3725700217433069E-3</c:v>
+                  <c:v>3.3693039901205174E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.3838402130361282E-3</c:v>
+                  <c:v>3.380632910733066E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.4463381308645936E-3</c:v>
+                  <c:v>3.4434974125288711E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.4666333554562866E-3</c:v>
+                  <c:v>3.4639156364439068E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.5041607410879133E-3</c:v>
+                  <c:v>3.5016803758267183E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.5149110880178941E-3</c:v>
+                  <c:v>3.5124953501069339E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.5255908051541117E-3</c:v>
+                  <c:v>3.5232400944647827E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.5732812675082588E-3</c:v>
+                  <c:v>3.5712345529560117E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.5911827087857784E-3</c:v>
+                  <c:v>3.5892525906036088E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.608642406075206E-3</c:v>
+                  <c:v>3.606826875017751E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.6399903710802872E-3</c:v>
+                  <c:v>3.6383875715435485E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.6492544109179375E-3</c:v>
+                  <c:v>3.6477114339102694E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.6893146678342132E-3</c:v>
+                  <c:v>3.6880419329823706E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.7041238629493454E-3</c:v>
+                  <c:v>3.7029536593177945E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.7184913017789629E-3</c:v>
+                  <c:v>3.7174216199791594E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.7436567915982016E-3</c:v>
+                  <c:v>3.742771723913331E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.7513736345537365E-3</c:v>
+                  <c:v>3.7505413497470716E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.7837020985401022E-3</c:v>
+                  <c:v>3.7831048845116495E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.7954189684754245E-3</c:v>
+                  <c:v>3.7949102196043567E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.8066940721781517E-3</c:v>
+                  <c:v>3.806271778965161E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.8256765485068789E-3</c:v>
+                  <c:v>3.8254107491041134E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.8318463542417981E-3</c:v>
+                  <c:v>3.8316262982350836E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.8564430559827243E-3</c:v>
+                  <c:v>3.856422897995075E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.8650675382137329E-3</c:v>
+                  <c:v>3.8651217785668308E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.8732502466316174E-3</c:v>
+                  <c:v>3.8733768757234963E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.8860491749822743E-3</c:v>
+                  <c:v>3.8863041746287422E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.8906721262798793E-3</c:v>
+                  <c:v>3.8909658302576484E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.9092564702055436E-3</c:v>
+                  <c:v>3.9097402124071085E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.9215506975853404E-3</c:v>
+                  <c:v>3.9221956859865469E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.9247743274008207E-3</c:v>
+                  <c:v>3.9254516523199931E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.9278506263076916E-3</c:v>
+                  <c:v>3.9285596171328803E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.9371574982318622E-3</c:v>
+                  <c:v>3.9380143234549643E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.9393762163051418E-3</c:v>
+                  <c:v>3.9402783001819151E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.9401746226919165E-3</c:v>
+                  <c:v>3.9411504969066868E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.9418517853571575E-3</c:v>
+                  <c:v>3.9428529583508329E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.9433816493356626E-3</c:v>
+                  <c:v>3.9444074506398133E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.9434109979377416E-3</c:v>
+                  <c:v>3.9445424287655505E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.9425372063685701E-3</c:v>
+                  <c:v>3.9436998274810708E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.9371505280980188E-3</c:v>
+                  <c:v>3.9383588076853781E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.9372814516413362E-3</c:v>
+                  <c:v>3.9385079932293537E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.9372651097214018E-3</c:v>
+                  <c:v>3.9385092429922519E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.9280169348445268E-3</c:v>
+                  <c:v>3.9293244921739263E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.9240506384486196E-3</c:v>
+                  <c:v>3.925375317547327E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.9124784315552382E-3</c:v>
+                  <c:v>3.9138206347750174E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.9110633522742785E-3</c:v>
+                  <c:v>3.9124167817962408E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.9095010411958498E-3</c:v>
+                  <c:v>3.9108650268623061E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.8909753938312017E-3</c:v>
+                  <c:v>3.8923605979734521E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.8839166144779844E-3</c:v>
+                  <c:v>3.885304871879386E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.866158477876087E-3</c:v>
+                  <c:v>3.8675361228653186E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8785837675573147E-3</c:v>
+                  <c:v>3.8799830875731137E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.8600895968423574E-3</c:v>
+                  <c:v>3.8614749553725438E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.8323130929807103E-3</c:v>
+                  <c:v>3.8336775687470991E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.8222248398972658E-3</c:v>
+                  <c:v>3.8235785475593614E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.7988634385173257E-3</c:v>
+                  <c:v>3.8001806822185458E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.7943780843913144E-3</c:v>
+                  <c:v>3.7956925689313845E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.7897469203040579E-3</c:v>
+                  <c:v>3.7910579811752873E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.754366872219922E-3</c:v>
+                  <c:v>3.7556214106123035E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.7420214076170966E-3</c:v>
+                  <c:v>3.743254385711845E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.7154163526550398E-3</c:v>
+                  <c:v>3.7165962701971285E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.709578386484752E-3</c:v>
+                  <c:v>3.7107492684605031E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.7036070725686926E-3</c:v>
+                  <c:v>3.7047683033845343E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.6635434285843763E-3</c:v>
+                  <c:v>3.6646239505647607E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.6499151674020528E-3</c:v>
+                  <c:v>3.6509671589817789E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.62222179495805E-3</c:v>
+                  <c:v>3.623212583191527E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.6154031703349021E-3</c:v>
+                  <c:v>3.6163801057570097E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.6084876410199277E-3</c:v>
+                  <c:v>3.6094502510147608E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.5666635907155037E-3</c:v>
+                  <c:v>3.5675327715094735E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.5527269211665935E-3</c:v>
+                  <c:v>3.553564423408631E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.525687278423176E-3</c:v>
+                  <c:v>3.526462267247032E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.5184600938773999E-3</c:v>
+                  <c:v>3.5192186567898145E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.5047704115488687E-3</c:v>
+                  <c:v>3.5054972956279767E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.4705479831383694E-3</c:v>
+                  <c:v>3.4711952510847431E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.4634320917139583E-3</c:v>
+                  <c:v>3.4640627693465209E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.4502455185080327E-3</c:v>
+                  <c:v>3.4508453826174921E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.4253309148954414E-3</c:v>
+                  <c:v>3.4258724953330558E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.4185031924593274E-3</c:v>
+                  <c:v>3.4190288508273796E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.386932700453686E-3</c:v>
+                  <c:v>3.3873846197618094E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.3747941426184314E-3</c:v>
+                  <c:v>3.375217697516697E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.3628302521426052E-3</c:v>
+                  <c:v>3.3632258508016952E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.3403594216501256E-3</c:v>
+                  <c:v>3.340702447245103E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.3341438332562356E-3</c:v>
+                  <c:v>3.3344723673803703E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.3056307923166051E-3</c:v>
+                  <c:v>3.3058927323589655E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.2947148954208067E-3</c:v>
+                  <c:v>3.2949513282318765E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.2839736624291627E-3</c:v>
+                  <c:v>3.284184996174222E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.2639467487141985E-3</c:v>
+                  <c:v>3.2641112203235165E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.2583431853146798E-3</c:v>
+                  <c:v>3.2584945957176408E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.2328874401644043E-3</c:v>
+                  <c:v>3.2329794009073138E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.2231941811720066E-3</c:v>
+                  <c:v>3.2232634917649383E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.2136755830067072E-3</c:v>
+                  <c:v>3.2137226515960293E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.1960927241353118E-3</c:v>
+                  <c:v>3.1960986418156159E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.1911010833865225E-3</c:v>
+                  <c:v>3.1910953698224206E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.1687024905251437E-3</c:v>
+                  <c:v>3.1686444712244097E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.1565195804586946E-3</c:v>
+                  <c:v>3.1564330609813772E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.1367971952222726E-3</c:v>
+                  <c:v>3.1366645583083899E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.1324173808904144E-3</c:v>
+                  <c:v>3.1322745424179309E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.1098871085057504E-3</c:v>
+                  <c:v>3.1096916242280962E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.1027263332865868E-3</c:v>
+                  <c:v>3.102514116661776E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.0898863905735579E-3</c:v>
+                  <c:v>3.0896441060940419E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.0860600285374448E-3</c:v>
+                  <c:v>3.0858088357487573E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.0822919498908795E-3</c:v>
+                  <c:v>3.0820319849778426E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.063429473610684E-3</c:v>
+                  <c:v>3.0631254335026837E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.0574912928864463E-3</c:v>
+                  <c:v>3.0571733772813145E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.0470958104367846E-3</c:v>
+                  <c:v>3.0467535390206594E-3</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>0</c:v>
@@ -3560,11 +3558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430523136"/>
-        <c:axId val="430524672"/>
+        <c:axId val="476180864"/>
+        <c:axId val="476182400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430523136"/>
+        <c:axId val="476180864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,13 +3582,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430524672"/>
+        <c:crossAx val="476182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="365.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430524672"/>
+        <c:axId val="476182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3602,7 +3600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430523136"/>
+        <c:crossAx val="476180864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4345,661 +4343,661 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="219"/>
                 <c:pt idx="0">
-                  <c:v>2.1356999987037595E-3</c:v>
+                  <c:v>2.1125932976221702E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1327927337125886E-3</c:v>
+                  <c:v>2.1113272721521338E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1322694448906027E-3</c:v>
+                  <c:v>2.1110885349731601E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1317250702697936E-3</c:v>
+                  <c:v>2.1108403500697159E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1272866503547188E-3</c:v>
+                  <c:v>2.1089252334532066E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1257226554032855E-3</c:v>
+                  <c:v>2.1082591437159687E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1223048006803764E-3</c:v>
+                  <c:v>2.1068548888558691E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1215786015104168E-3</c:v>
+                  <c:v>2.1065329513866513E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1208325349206876E-3</c:v>
+                  <c:v>2.1062026820092747E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1157283548888274E-3</c:v>
+                  <c:v>2.1040963716973736E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1139978691562329E-3</c:v>
+                  <c:v>2.1033915108154898E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1105338400805073E-3</c:v>
+                  <c:v>2.102042274314138E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1096616897233259E-3</c:v>
+                  <c:v>2.1016704778975548E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1087745639099846E-3</c:v>
+                  <c:v>2.1012936159153961E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1035866301443557E-3</c:v>
+                  <c:v>2.0992581926859355E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1018836555430193E-3</c:v>
+                  <c:v>2.0986019208846956E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0969091705932527E-3</c:v>
+                  <c:v>2.096724673323282E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.092219487157901E-3</c:v>
+                  <c:v>2.0950222175436339E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0907380248263818E-3</c:v>
+                  <c:v>2.0945018949045371E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0874119895227666E-3</c:v>
+                  <c:v>2.0933922173092812E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.086594362982233E-3</c:v>
+                  <c:v>2.0930993519745695E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0829671154274794E-3</c:v>
+                  <c:v>2.0919357836088246E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0818767507632227E-3</c:v>
+                  <c:v>2.0916010329316828E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0802025330201135E-3</c:v>
+                  <c:v>2.0911647841230382E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0795722748427614E-3</c:v>
+                  <c:v>2.0909560140397812E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0789618100997536E-3</c:v>
+                  <c:v>2.0907560972110457E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0765810991361174E-3</c:v>
+                  <c:v>2.0901501359082259E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0759062464684622E-3</c:v>
+                  <c:v>2.0900012542276578E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0750629938067048E-3</c:v>
+                  <c:v>2.0899367292971944E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0746405220278819E-3</c:v>
+                  <c:v>2.0898209012727362E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.074237841274534E-3</c:v>
+                  <c:v>2.0897139254313821E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0731036651346832E-3</c:v>
+                  <c:v>2.0896655709927931E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.072844323961666E-3</c:v>
+                  <c:v>2.0897025582591253E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0728320687485144E-3</c:v>
+                  <c:v>2.0900097720514634E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0726173665468195E-3</c:v>
+                  <c:v>2.0899868786130454E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0724224529980553E-3</c:v>
+                  <c:v>2.0899728362930932E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0725348108453822E-3</c:v>
+                  <c:v>2.0904820887030478E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0726909809735379E-3</c:v>
+                  <c:v>2.0907049449241234E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0726345710452287E-3</c:v>
+                  <c:v>2.0907528544917473E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0725979477381174E-3</c:v>
+                  <c:v>2.090809614265087E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0725811107203235E-3</c:v>
+                  <c:v>2.0908752240942591E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0736728694980711E-3</c:v>
+                  <c:v>2.0918225799781975E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0741566859317734E-3</c:v>
+                  <c:v>2.092192892461851E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0747069480516901E-3</c:v>
+                  <c:v>2.0925982931917814E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.075330743774782E-3</c:v>
+                  <c:v>2.0930473181591087E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0760351610266919E-3</c:v>
+                  <c:v>2.0935485033462698E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0787030212262342E-3</c:v>
+                  <c:v>2.0954503801292757E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0798008038816879E-3</c:v>
+                  <c:v>2.0962455661098695E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0810146477346992E-3</c:v>
+                  <c:v>2.0971355922832658E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0823516407311726E-3</c:v>
+                  <c:v>2.0981289946550574E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.083818870828591E-3</c:v>
+                  <c:v>2.0992343092366256E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0890728633592343E-3</c:v>
+                  <c:v>2.1033070864030184E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0911319215481472E-3</c:v>
+                  <c:v>2.1049454100301374E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0933566567209378E-3</c:v>
+                  <c:v>2.1067383260194622E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0957541568958744E-3</c:v>
+                  <c:v>2.1086943704200023E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0983315100883294E-3</c:v>
+                  <c:v>2.1108220792981358E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1072135681676762E-3</c:v>
+                  <c:v>2.1183205536847477E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1105812139023323E-3</c:v>
+                  <c:v>2.1212202814177967E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1141641529658279E-3</c:v>
+                  <c:v>2.1243343541745203E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1179694734748439E-3</c:v>
+                  <c:v>2.1276713081110261E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.1303974630813806E-3</c:v>
+                  <c:v>2.1389922348737864E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.1451069058327087E-3</c:v>
+                  <c:v>2.1523627650243244E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1505161049593532E-3</c:v>
+                  <c:v>2.1573391781827588E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1634958802865391E-3</c:v>
+                  <c:v>2.1695179554834325E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1658503186835348E-3</c:v>
+                  <c:v>2.1716456427261013E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1682906714906671E-3</c:v>
+                  <c:v>2.1738618270525276E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1883857001033539E-3</c:v>
+                  <c:v>2.1927745980323474E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1955997032308354E-3</c:v>
+                  <c:v>2.1996099952211853E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2121896849357941E-3</c:v>
+                  <c:v>2.2155073072737891E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2154462406549086E-3</c:v>
+                  <c:v>2.2185642175524475E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.2187887000026871E-3</c:v>
+                  <c:v>2.2217096138502537E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2442981887123158E-3</c:v>
+                  <c:v>2.2461993837242038E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2749926498661288E-3</c:v>
+                  <c:v>2.2760289553093015E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.2791083215130646E-3</c:v>
+                  <c:v>2.2799707927777979E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.283309887116097E-3</c:v>
+                  <c:v>2.2840011063837789E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.2875973450163165E-3</c:v>
+                  <c:v>2.2881198944347397E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.312844551605867E-3</c:v>
+                  <c:v>2.3126372992069324E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.323668238194338E-3</c:v>
+                  <c:v>2.3231907386034672E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.3474793179783901E-3</c:v>
+                  <c:v>2.3465258135391466E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.3525398872493303E-3</c:v>
+                  <c:v>2.3514409432010344E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.3576863367717167E-3</c:v>
+                  <c:v>2.3564445350193574E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.3871442872266022E-3</c:v>
+                  <c:v>2.3852991174578104E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4066535870589842E-3</c:v>
+                  <c:v>2.4045010746127425E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.4124012753194242E-3</c:v>
+                  <c:v>2.4101239729733548E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4400380673271493E-3</c:v>
+                  <c:v>2.43739954872077E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4460863920538678E-3</c:v>
+                  <c:v>2.4433321160341739E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.4800560130443148E-3</c:v>
+                  <c:v>2.4768338280625564E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4943604990051256E-3</c:v>
+                  <c:v>2.4909725573999397E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5089228331895974E-3</c:v>
+                  <c:v>2.5053768749618475E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.5401708588482924E-3</c:v>
+                  <c:v>2.5363720267189069E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.5471209710496846E-3</c:v>
+                  <c:v>2.5432334803343259E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.5856022604202984E-3</c:v>
+                  <c:v>2.5813823197815555E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.6017117039543645E-3</c:v>
+                  <c:v>2.5973801871142697E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.6180790025307861E-3</c:v>
+                  <c:v>2.613643649638786E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.6529385944773498E-3</c:v>
+                  <c:v>2.6483587158802543E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.7216978093721478E-3</c:v>
+                  <c:v>2.7168019846740927E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.7398701233186293E-3</c:v>
+                  <c:v>2.7349246443334105E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.778341648863418E-3</c:v>
+                  <c:v>2.7733599994194877E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.7870950415583959E-3</c:v>
+                  <c:v>2.7820789266374745E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.8345996741547439E-3</c:v>
+                  <c:v>2.8295220299412822E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.8543191889709814E-3</c:v>
+                  <c:v>2.8492383331932825E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.8742965748902449E-3</c:v>
+                  <c:v>2.869220248130004E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.9260353054109734E-3</c:v>
+                  <c:v>2.9210238004338763E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.9893477353339845E-3</c:v>
+                  <c:v>2.9844529016101553E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.0108623270217534E-3</c:v>
+                  <c:v>3.0060203977165479E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.0553730370976996E-3</c:v>
+                  <c:v>3.0506916888994201E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.0658056061159955E-3</c:v>
+                  <c:v>3.0611408705078294E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.0763215144410131E-3</c:v>
+                  <c:v>3.0716759376544249E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.1426799127771115E-3</c:v>
+                  <c:v>3.1382805431797471E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.1648938891907482E-3</c:v>
+                  <c:v>3.1605861998364225E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.2092996796703492E-3</c:v>
+                  <c:v>3.2052091368709825E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.2203684313214173E-3</c:v>
+                  <c:v>3.2163178971515716E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.2315034003742439E-3</c:v>
+                  <c:v>3.2274951823216182E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.2975903521197249E-3</c:v>
+                  <c:v>3.2939116465479485E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.3193978918430725E-3</c:v>
+                  <c:v>3.3158342318538188E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.3613196103598358E-3</c:v>
+                  <c:v>3.3579965095437651E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.3725700217433069E-3</c:v>
+                  <c:v>3.3693039901205174E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.3838402130361282E-3</c:v>
+                  <c:v>3.380632910733066E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.4463381308645936E-3</c:v>
+                  <c:v>3.4434974125288711E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.4666333554562866E-3</c:v>
+                  <c:v>3.4639156364439068E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.5041607410879133E-3</c:v>
+                  <c:v>3.5016803758267183E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.5149110880178941E-3</c:v>
+                  <c:v>3.5124953501069339E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.5255908051541117E-3</c:v>
+                  <c:v>3.5232400944647827E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.5732812675082588E-3</c:v>
+                  <c:v>3.5712345529560117E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.5911827087857784E-3</c:v>
+                  <c:v>3.5892525906036088E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.608642406075206E-3</c:v>
+                  <c:v>3.606826875017751E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.6399903710802872E-3</c:v>
+                  <c:v>3.6383875715435485E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.6492544109179375E-3</c:v>
+                  <c:v>3.6477114339102694E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.6893146678342132E-3</c:v>
+                  <c:v>3.6880419329823706E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.7041238629493454E-3</c:v>
+                  <c:v>3.7029536593177945E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.7184913017789629E-3</c:v>
+                  <c:v>3.7174216199791594E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.7436567915982016E-3</c:v>
+                  <c:v>3.742771723913331E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.7513736345537365E-3</c:v>
+                  <c:v>3.7505413497470716E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.7837020985401022E-3</c:v>
+                  <c:v>3.7831048845116495E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.7954189684754245E-3</c:v>
+                  <c:v>3.7949102196043567E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.8066940721781517E-3</c:v>
+                  <c:v>3.806271778965161E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.8256765485068789E-3</c:v>
+                  <c:v>3.8254107491041134E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.8318463542417981E-3</c:v>
+                  <c:v>3.8316262982350836E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.8564430559827243E-3</c:v>
+                  <c:v>3.856422897995075E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.8650675382137329E-3</c:v>
+                  <c:v>3.8651217785668308E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.8732502466316174E-3</c:v>
+                  <c:v>3.8733768757234963E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.8860491749822743E-3</c:v>
+                  <c:v>3.8863041746287422E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.8906721262798793E-3</c:v>
+                  <c:v>3.8909658302576484E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.9092564702055436E-3</c:v>
+                  <c:v>3.9097402124071085E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.9215506975853404E-3</c:v>
+                  <c:v>3.9221956859865469E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.9247743274008207E-3</c:v>
+                  <c:v>3.9254516523199931E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.9278506263076916E-3</c:v>
+                  <c:v>3.9285596171328803E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.9371574982318622E-3</c:v>
+                  <c:v>3.9380143234549643E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.9393762163051418E-3</c:v>
+                  <c:v>3.9402783001819151E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.9401746226919165E-3</c:v>
+                  <c:v>3.9411504969066868E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.9418517853571575E-3</c:v>
+                  <c:v>3.9428529583508329E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.9433816493356626E-3</c:v>
+                  <c:v>3.9444074506398133E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.9434109979377416E-3</c:v>
+                  <c:v>3.9445424287655505E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.9425372063685701E-3</c:v>
+                  <c:v>3.9436998274810708E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.9371505280980188E-3</c:v>
+                  <c:v>3.9383588076853781E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.9372814516413362E-3</c:v>
+                  <c:v>3.9385079932293537E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.9372651097214018E-3</c:v>
+                  <c:v>3.9385092429922519E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.9280169348445268E-3</c:v>
+                  <c:v>3.9293244921739263E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.9240506384486196E-3</c:v>
+                  <c:v>3.925375317547327E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.9124784315552382E-3</c:v>
+                  <c:v>3.9138206347750174E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.9110633522742785E-3</c:v>
+                  <c:v>3.9124167817962408E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.9095010411958498E-3</c:v>
+                  <c:v>3.9108650268623061E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.8909753938312017E-3</c:v>
+                  <c:v>3.8923605979734521E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.8839166144779844E-3</c:v>
+                  <c:v>3.885304871879386E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.866158477876087E-3</c:v>
+                  <c:v>3.8675361228653186E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8785837675573147E-3</c:v>
+                  <c:v>3.8799830875731137E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.8600895968423574E-3</c:v>
+                  <c:v>3.8614749553725438E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.8323130929807103E-3</c:v>
+                  <c:v>3.8336775687470991E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.8222248398972658E-3</c:v>
+                  <c:v>3.8235785475593614E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.7988634385173257E-3</c:v>
+                  <c:v>3.8001806822185458E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.7943780843913144E-3</c:v>
+                  <c:v>3.7956925689313845E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.7897469203040579E-3</c:v>
+                  <c:v>3.7910579811752873E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.754366872219922E-3</c:v>
+                  <c:v>3.7556214106123035E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.7420214076170966E-3</c:v>
+                  <c:v>3.743254385711845E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.7154163526550398E-3</c:v>
+                  <c:v>3.7165962701971285E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.709578386484752E-3</c:v>
+                  <c:v>3.7107492684605031E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.7036070725686926E-3</c:v>
+                  <c:v>3.7047683033845343E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.6635434285843763E-3</c:v>
+                  <c:v>3.6646239505647607E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.6499151674020528E-3</c:v>
+                  <c:v>3.6509671589817789E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.62222179495805E-3</c:v>
+                  <c:v>3.623212583191527E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.6154031703349021E-3</c:v>
+                  <c:v>3.6163801057570097E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.6084876410199277E-3</c:v>
+                  <c:v>3.6094502510147608E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.5666635907155037E-3</c:v>
+                  <c:v>3.5675327715094735E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.5527269211665935E-3</c:v>
+                  <c:v>3.553564423408631E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.525687278423176E-3</c:v>
+                  <c:v>3.526462267247032E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.5184600938773999E-3</c:v>
+                  <c:v>3.5192186567898145E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.5047704115488687E-3</c:v>
+                  <c:v>3.5054972956279767E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.4705479831383694E-3</c:v>
+                  <c:v>3.4711952510847431E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.4634320917139583E-3</c:v>
+                  <c:v>3.4640627693465209E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.4502455185080327E-3</c:v>
+                  <c:v>3.4508453826174921E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.4253309148954414E-3</c:v>
+                  <c:v>3.4258724953330558E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.4185031924593274E-3</c:v>
+                  <c:v>3.4190288508273796E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.386932700453686E-3</c:v>
+                  <c:v>3.3873846197618094E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.3747941426184314E-3</c:v>
+                  <c:v>3.375217697516697E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.3628302521426052E-3</c:v>
+                  <c:v>3.3632258508016952E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.3403594216501256E-3</c:v>
+                  <c:v>3.340702447245103E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.3341438332562356E-3</c:v>
+                  <c:v>3.3344723673803703E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.3056307923166051E-3</c:v>
+                  <c:v>3.3058927323589655E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.2947148954208067E-3</c:v>
+                  <c:v>3.2949513282318765E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.2839736624291627E-3</c:v>
+                  <c:v>3.284184996174222E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.2639467487141985E-3</c:v>
+                  <c:v>3.2641112203235165E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.2583431853146798E-3</c:v>
+                  <c:v>3.2584945957176408E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.2328874401644043E-3</c:v>
+                  <c:v>3.2329794009073138E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.2231941811720066E-3</c:v>
+                  <c:v>3.2232634917649383E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.2136755830067072E-3</c:v>
+                  <c:v>3.2137226515960293E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.1960927241353118E-3</c:v>
+                  <c:v>3.1960986418156159E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.1911010833865225E-3</c:v>
+                  <c:v>3.1910953698224206E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.1687024905251437E-3</c:v>
+                  <c:v>3.1686444712244097E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.1565195804586946E-3</c:v>
+                  <c:v>3.1564330609813772E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.1367971952222726E-3</c:v>
+                  <c:v>3.1366645583083899E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.1324173808904144E-3</c:v>
+                  <c:v>3.1322745424179309E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.1098871085057504E-3</c:v>
+                  <c:v>3.1096916242280962E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.1027263332865868E-3</c:v>
+                  <c:v>3.102514116661776E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.0898863905735579E-3</c:v>
+                  <c:v>3.0896441060940419E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.0860600285374448E-3</c:v>
+                  <c:v>3.0858088357487573E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.0822919498908795E-3</c:v>
+                  <c:v>3.0820319849778426E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.063429473610684E-3</c:v>
+                  <c:v>3.0631254335026837E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.0574912928864463E-3</c:v>
+                  <c:v>3.0571733772813145E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.0470958104367846E-3</c:v>
+                  <c:v>3.0467535390206594E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,661 +5700,661 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="219"/>
                 <c:pt idx="0">
-                  <c:v>2.1494530482668583E-3</c:v>
+                  <c:v>2.1187183075244143E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1491362193093444E-3</c:v>
+                  <c:v>2.118574752435487E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1487560244792814E-3</c:v>
+                  <c:v>2.118402486377402E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1477970540062508E-3</c:v>
+                  <c:v>2.1179745406185724E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1466015875681865E-3</c:v>
+                  <c:v>2.1174263118861614E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1459045638616558E-3</c:v>
+                  <c:v>2.1171104908201954E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1451441742825761E-3</c:v>
+                  <c:v>2.1167659586229792E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1443204189930398E-3</c:v>
+                  <c:v>2.1163927154566053E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1424742647901951E-3</c:v>
+                  <c:v>2.1155627875472467E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1403917398388206E-3</c:v>
+                  <c:v>2.1146126326943016E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1392511555917704E-3</c:v>
+                  <c:v>2.1140958344390004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1380472054721711E-3</c:v>
+                  <c:v>2.1135503252145416E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1367798896421153E-3</c:v>
+                  <c:v>2.1129761049398788E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1340465157249078E-3</c:v>
+                  <c:v>2.1117441786437192E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1310769684879105E-3</c:v>
+                  <c:v>2.1103921137444193E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1278365957022594E-3</c:v>
+                  <c:v>2.1089304668982698E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1225138073777128E-3</c:v>
+                  <c:v>2.1065187140160519E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1186572736775489E-3</c:v>
+                  <c:v>2.1047647554417459E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1155901640218522E-3</c:v>
+                  <c:v>2.1034151714771632E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1123840606429578E-3</c:v>
+                  <c:v>2.1020973526297837E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1080602144659308E-3</c:v>
+                  <c:v>2.1004666216565644E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1038893947433746E-3</c:v>
+                  <c:v>2.0989002096871712E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1019089868901109E-3</c:v>
+                  <c:v>2.0981672943920504E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0999879276883959E-3</c:v>
+                  <c:v>2.0974609271839917E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0981262170571835E-3</c:v>
+                  <c:v>2.0967811081440413E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0946126449313449E-3</c:v>
+                  <c:v>2.0955219944677568E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0912728612909603E-3</c:v>
+                  <c:v>2.0943273133411378E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0897078940795843E-3</c:v>
+                  <c:v>2.093780235141729E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0882022754387108E-3</c:v>
+                  <c:v>2.0932597049483359E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0867560054493861E-3</c:v>
+                  <c:v>2.0927657229230512E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0840731938213492E-3</c:v>
+                  <c:v>2.0918782415372634E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0815644120075749E-3</c:v>
+                  <c:v>2.0910552763409029E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0804148853570403E-3</c:v>
+                  <c:v>2.0906940350751135E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0793247072770082E-3</c:v>
+                  <c:v>2.0903593418963862E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0782938778485249E-3</c:v>
+                  <c:v>2.0900511969668134E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0764418603795116E-3</c:v>
+                  <c:v>2.0895353627570223E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0747640466500794E-3</c:v>
+                  <c:v>2.0890840984433279E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.07402996047934E-3</c:v>
+                  <c:v>2.0889086941922042E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0733552230411956E-3</c:v>
+                  <c:v>2.0887598381091887E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0727398340925074E-3</c:v>
+                  <c:v>2.0886375301942817E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.071718644038508E-3</c:v>
+                  <c:v>2.0884933580730034E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0708717650563813E-3</c:v>
+                  <c:v>2.0884137797294589E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0705531194464832E-3</c:v>
+                  <c:v>2.0884242124930008E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.070293822488134E-3</c:v>
+                  <c:v>2.0884611934246511E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0700938741002872E-3</c:v>
+                  <c:v>2.0885247224433634E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0699035445011691E-3</c:v>
+                  <c:v>2.0887522274311752E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0698875672264805E-3</c:v>
+                  <c:v>2.0890443201992959E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0699843620153313E-3</c:v>
+                  <c:v>2.0892405899775035E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0701405056178235E-3</c:v>
+                  <c:v>2.0894634079238195E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0703559977908181E-3</c:v>
+                  <c:v>2.0897127740382437E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0709965615783865E-3</c:v>
+                  <c:v>2.0903119708315376E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0718114529172382E-3</c:v>
+                  <c:v>2.0909757198528389E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0723236883479768E-3</c:v>
+                  <c:v>2.091357826564666E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0728952724302641E-3</c:v>
+                  <c:v>2.0917664816066939E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0735262050830539E-3</c:v>
+                  <c:v>2.0922016846547375E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.074997695405238E-3</c:v>
+                  <c:v>2.0931725883551375E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0766434223717933E-3</c:v>
+                  <c:v>2.0942079786090417E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.077571098282327E-3</c:v>
+                  <c:v>2.0947759224165807E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0785581229254557E-3</c:v>
+                  <c:v>2.0953704144732743E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0796044961390869E-3</c:v>
+                  <c:v>2.0959914545359837E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0819069462518769E-3</c:v>
+                  <c:v>2.0973340800830207E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0844165474975807E-3</c:v>
+                  <c:v>2.0987809250416767E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0859580950893797E-3</c:v>
+                  <c:v>2.0997736764150066E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0877574223721052E-3</c:v>
+                  <c:v>2.1010319464265237E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0898145294268033E-3</c:v>
+                  <c:v>2.1025557351572743E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0948000316859767E-3</c:v>
+                  <c:v>2.1065005317692327E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1006207551221845E-3</c:v>
+                  <c:v>2.111306076624242E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1039667609557E-3</c:v>
+                  <c:v>2.1141574587080214E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1075705465611883E-3</c:v>
+                  <c:v>2.1172743594299881E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.1114321119386492E-3</c:v>
+                  <c:v>2.1206567788711883E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.1200268222047276E-3</c:v>
+                  <c:v>2.1283190902547195E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.1294561714113591E-3</c:v>
+                  <c:v>2.1368416437472781E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.13460663572973E-3</c:v>
+                  <c:v>2.1415516568656923E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1400148799821661E-3</c:v>
+                  <c:v>2.1465271886222936E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.1456809041686675E-3</c:v>
+                  <c:v>2.1517682391791748E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1578849758082295E-3</c:v>
+                  <c:v>2.1631482224560017E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.1709227992017244E-3</c:v>
+                  <c:v>2.1753876291663587E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1778777227343671E-3</c:v>
+                  <c:v>2.181956273724639E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1850904262010751E-3</c:v>
+                  <c:v>2.188790437083199E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1925609096018484E-3</c:v>
+                  <c:v>2.1958901193230851E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.2083745041941625E-3</c:v>
+                  <c:v>2.210987939530451E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.225020643031872E-3</c:v>
+                  <c:v>2.2269440370148441E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2337800263461105E-3</c:v>
+                  <c:v>2.2353713137424069E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.2427971897565069E-3</c:v>
+                  <c:v>2.2440641094323421E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2520721332630611E-3</c:v>
+                  <c:v>2.2530224240846497E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.2714954231395361E-3</c:v>
+                  <c:v>2.2718382568768609E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.2917497083319027E-3</c:v>
+                  <c:v>2.291510872722835E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.3023135524002925E-3</c:v>
+                  <c:v>2.3017967825111896E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.3131351767269326E-3</c:v>
+                  <c:v>2.3123482115050553E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.3242145813118231E-3</c:v>
+                  <c:v>2.3231651594612934E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3472477522575494E-3</c:v>
+                  <c:v>2.3456991939193226E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3711100020717968E-3</c:v>
+                  <c:v>2.3690881432603117E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3834783080289856E-3</c:v>
+                  <c:v>2.3812326872441059E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.3961043943254712E-3</c:v>
+                  <c:v>2.3936427505144575E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.4358196259277598E-3</c:v>
+                  <c:v>2.4327640037637988E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.477274301579957E-3</c:v>
+                  <c:v>2.4736790364510153E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.491704851305121E-3</c:v>
+                  <c:v>2.4879477353756396E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5063931815316742E-3</c:v>
+                  <c:v>2.5024819538299603E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.536646739428698E-3</c:v>
+                  <c:v>2.5324530262390197E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5677243091537516E-3</c:v>
+                  <c:v>2.5632740233494378E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.5837015429408527E-3</c:v>
+                  <c:v>2.5791358397764252E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.6081922736093111E-3</c:v>
+                  <c:v>2.6034688887865975E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.6502934564565099E-3</c:v>
+                  <c:v>2.6453459814094566E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.6849783430005214E-3</c:v>
+                  <c:v>2.6798826536489351E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.7027600429718746E-3</c:v>
+                  <c:v>2.6976031088099539E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.7207995240119409E-3</c:v>
+                  <c:v>2.7155890839059005E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.7390967861207205E-3</c:v>
+                  <c:v>2.7338405790178211E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.7765717016333311E-3</c:v>
+                  <c:v>2.7712496761704104E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.81486364613448E-3</c:v>
+                  <c:v>2.8095017602736139E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.8344498141541496E-3</c:v>
+                  <c:v>2.8290808560327285E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.8542937635667176E-3</c:v>
+                  <c:v>2.8489254719699098E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.8743954942911376E-3</c:v>
+                  <c:v>2.8690356082472501E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.9154815143476549E-3</c:v>
+                  <c:v>2.9101641508559135E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.9573802319282638E-3</c:v>
+                  <c:v>2.9521313571634344E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.9787708701844995E-3</c:v>
+                  <c:v>2.9735690955468019E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.000419289995726E-3</c:v>
+                  <c:v>2.9952723545134674E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.0223254915240361E-3</c:v>
+                  <c:v>3.0172411340634309E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.0670229378241638E-3</c:v>
+                  <c:v>3.0620894500684357E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.1125281153754347E-3</c:v>
+                  <c:v>3.1077714594740513E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.1357232258943935E-3</c:v>
+                  <c:v>3.1310678427509675E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.1591761184546208E-3</c:v>
+                  <c:v>3.1546297470974594E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.1828867930561167E-3</c:v>
+                  <c:v>3.178457172270388E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.2311960192588089E-3</c:v>
+                  <c:v>3.2270256225708231E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.2801907417123743E-3</c:v>
+                  <c:v>3.2763038885175177E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.3044909031954006E-3</c:v>
+                  <c:v>3.3007497473858116E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.3283494229086052E-3</c:v>
+                  <c:v>3.3247519555090754E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.3517663008519882E-3</c:v>
+                  <c:v>3.3483105127252166E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.397159534227479E-3</c:v>
+                  <c:v>3.393980348736318E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.4410173925769616E-3</c:v>
+                  <c:v>3.4381082312218147E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.462226060131357E-3</c:v>
+                  <c:v>3.4594485327676949E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.4829930854296531E-3</c:v>
+                  <c:v>3.4803451830822674E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.5033184683908036E-3</c:v>
+                  <c:v>3.5007981818413469E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.5425314738860942E-3</c:v>
+                  <c:v>3.5402596782052602E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.5802035746756999E-3</c:v>
+                  <c:v>3.5781736611606441E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.5983207446543819E-3</c:v>
+                  <c:v>3.5964084016559816E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.6159962717285943E-3</c:v>
+                  <c:v>3.6141994902716412E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.6332301559793834E-3</c:v>
+                  <c:v>3.6315469270076228E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.666262606437654E-3</c:v>
+                  <c:v>3.66479975608125E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.6977492632084275E-3</c:v>
+                  <c:v>3.6965001532907049E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.7127749322884984E-3</c:v>
+                  <c:v>3.7116293294936487E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.7273589580588684E-3</c:v>
+                  <c:v>3.7263148533306367E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.7415013406005837E-3</c:v>
+                  <c:v>3.7405567248827154E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.7683528659104852E-3</c:v>
+                  <c:v>3.7676005156091676E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.799641296851064E-3</c:v>
+                  <c:v>3.7991192625197456E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.8170811247262293E-3</c:v>
+                  <c:v>3.8166912520787299E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.8281320030464361E-3</c:v>
+                  <c:v>3.827827555934471E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.848802197814472E-3</c:v>
+                  <c:v>3.8486619016775418E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.8679190798263097E-3</c:v>
+                  <c:v>3.8679362437266107E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.8767617396529008E-3</c:v>
+                  <c:v>3.8768542835643238E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.8851627556835133E-3</c:v>
+                  <c:v>3.8853286705498036E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.8931221278371009E-3</c:v>
+                  <c:v>3.8933594046020037E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.9076105591950849E-3</c:v>
+                  <c:v>3.9079838708725818E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.9205431776001554E-3</c:v>
+                  <c:v>3.9210458112348689E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.9262943302875719E-3</c:v>
+                  <c:v>3.926858280377532E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.9316038388548247E-3</c:v>
+                  <c:v>3.9322270964248229E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.9364717034640062E-3</c:v>
+                  <c:v>3.9371522592956953E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.9447779186874143E-3</c:v>
+                  <c:v>3.9455663913430996E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.951526721428511E-3</c:v>
+                  <c:v>3.952416379825463E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.9541863657610588E-3</c:v>
+                  <c:v>3.9551232770573819E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.9564043659734427E-3</c:v>
+                  <c:v>3.9573865211939285E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.9581807221467091E-3</c:v>
+                  <c:v>3.9592061119919641E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.9603042564621367E-3</c:v>
+                  <c:v>3.9614094429896163E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.9608697055570907E-3</c:v>
+                  <c:v>3.962047943744107E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.9604378411295382E-3</c:v>
+                  <c:v>3.9616492686600502E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.9595643326628682E-3</c:v>
+                  <c:v>3.9608069403995749E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.9582491799949882E-3</c:v>
+                  <c:v>3.9595209589626812E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.9541895642255156E-3</c:v>
+                  <c:v>3.9555130173022741E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.9485721284460151E-3</c:v>
+                  <c:v>3.9499405012888289E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.945048755420455E-3</c:v>
+                  <c:v>3.946436254050889E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.941083738274731E-3</c:v>
+                  <c:v>3.9424883535554844E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.9366770770898896E-3</c:v>
+                  <c:v>3.9380967999647076E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.9264338452734329E-3</c:v>
+                  <c:v>3.9278771174148614E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.9146339923645801E-3</c:v>
+                  <c:v>3.9160940547289247E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.9080191111462437E-3</c:v>
+                  <c:v>3.9094842358233794E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.9009625862129749E-3</c:v>
+                  <c:v>3.9024307637414157E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.8934644172405886E-3</c:v>
+                  <c:v>3.8949336388882649E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.8770371143833273E-3</c:v>
+                  <c:v>3.8785017581858634E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.8590553031481178E-3</c:v>
+                  <c:v>3.8605086099807728E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.8493489151147919E-3</c:v>
+                  <c:v>3.8507932205422701E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.8392008834475799E-3</c:v>
+                  <c:v>3.8406341784136266E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.8286112081464818E-3</c:v>
+                  <c:v>3.8300314834327498E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.8059993978952402E-3</c:v>
+                  <c:v>3.8073869660633832E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.7818360708463672E-3</c:v>
+                  <c:v>3.7831841770130659E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.7690381777000237E-3</c:v>
+                  <c:v>3.7703632189056702E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.7557986411629329E-3</c:v>
+                  <c:v>3.7570986082702262E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.7421174612350949E-3</c:v>
+                  <c:v>3.7433903452688266E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.7133207337658462E-3</c:v>
+                  <c:v>3.7145327791661877E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.6829763090751033E-3</c:v>
+                  <c:v>3.6841207696036715E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.6671896218209987E-3</c:v>
+                  <c:v>3.6682973567137012E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.6514748353422277E-3</c:v>
+                  <c:v>3.6525458496239338E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.6359346582126584E-3</c:v>
+                  <c:v>3.6369693600324382E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.6054719492306657E-3</c:v>
+                  <c:v>3.6064354050750298E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.5755200432674439E-3</c:v>
+                  <c:v>3.5764135750282477E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.5608529128028366E-3</c:v>
+                  <c:v>3.5617121721176481E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.5463603916874309E-3</c:v>
+                  <c:v>3.5471857864621814E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.5320424797591343E-3</c:v>
+                  <c:v>3.5328344180618476E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.504022324812099E-3</c:v>
+                  <c:v>3.5047487241753514E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.4765169242412242E-3</c:v>
+                  <c:v>3.477179116849749E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.4630720583295194E-3</c:v>
+                  <c:v>3.4637028344008947E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.4498018015238774E-3</c:v>
+                  <c:v>3.4504015692071732E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.4367061538242982E-3</c:v>
+                  <c:v>3.4372753211064921E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.4111287669824635E-3</c:v>
+                  <c:v>3.4116381029825065E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.3860696537624246E-3</c:v>
+                  <c:v>3.3865204995531251E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.373847051431067E-3</c:v>
+                  <c:v>3.3742693367555532E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.3617990580436796E-3</c:v>
+                  <c:v>3.3621931909699754E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.3499256736813088E-3</c:v>
+                  <c:v>3.3502920622774379E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.3267912561555741E-3</c:v>
+                  <c:v>3.3271035217482168E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.3041782255904817E-3</c:v>
+                  <c:v>3.304437716816766E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.2877798278352355E-3</c:v>
+                  <c:v>3.2880009685692935E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.2717010330896024E-3</c:v>
+                  <c:v>3.2718846354151676E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.2510097745822959E-3</c:v>
+                  <c:v>3.2511449626423015E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.2308426338090168E-3</c:v>
+                  <c:v>3.2309307628863859E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.2210645560448725E-3</c:v>
+                  <c:v>3.221129836797898E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.2114610870626059E-3</c:v>
+                  <c:v>3.2115039275593116E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.2020322267811707E-3</c:v>
+                  <c:v>3.2020530350085341E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.1837843062154651E-3</c:v>
+                  <c:v>3.1837624095635659E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.1660628733121143E-3</c:v>
+                  <c:v>3.1659996325750228E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.1575070567779751E-3</c:v>
+                  <c:v>3.1574238237874752E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.1491258489446672E-3</c:v>
+                  <c:v>3.1490230316877366E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,11 +6369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430537344"/>
-        <c:axId val="430563712"/>
+        <c:axId val="462702848"/>
+        <c:axId val="462729216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430537344"/>
+        <c:axId val="462702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,12 +6393,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430563712"/>
+        <c:crossAx val="462729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430563712"/>
+        <c:axId val="462729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0000000000000009E-3"/>
@@ -6412,7 +6410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430537344"/>
+        <c:crossAx val="462702848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6889,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="73">
-        <v>41606.781863425924</v>
+        <v>41607.530057870368</v>
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="1"/>
@@ -7052,7 +7050,7 @@
       </c>
       <c r="J8" s="84" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
+        <v>N:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K8" s="81"/>
       <c r="L8" s="1"/>
@@ -7119,7 +7117,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYC1M#0000</v>
+        <v>HKDYC1M#0002</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -7633,7 +7631,7 @@
       </c>
       <c r="D23" s="10">
         <f>MIN(_xll.ohPack(Selected!I1:I13))</f>
-        <v>0.99709066378167588</v>
+        <v>0.99709102007597772</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -9124,8 +9122,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9226,7 +9224,7 @@
       </c>
       <c r="M3" s="99" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YC1MRH_Swaps.xml</v>
       </c>
       <c r="N3" s="93"/>
       <c r="P3" s="111" t="s">
@@ -9267,7 +9265,7 @@
       </c>
       <c r="N4" s="93"/>
       <c r="P4" s="108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="108" t="s">
         <v>73</v>
@@ -9309,8 +9307,8 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
-      <c r="B6" s="105" t="s">
-        <v>128</v>
+      <c r="B6" s="105">
+        <v>1</v>
       </c>
       <c r="C6" s="105" t="s">
         <v>54</v>
@@ -9343,8 +9341,8 @@
         <v>HKD_YC1MRH_AM1H2M</v>
       </c>
       <c r="L6" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0000</v>
+        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>HKD_YC1MRH_AM1H2M#0002</v>
       </c>
       <c r="M6" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -9354,8 +9352,8 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="98"/>
-      <c r="B7" s="105" t="s">
-        <v>128</v>
+      <c r="B7" s="105">
+        <v>1</v>
       </c>
       <c r="C7" s="105" t="s">
         <v>53</v>
@@ -9388,7 +9386,7 @@
         <v>HKD_YC1MRH_AM1H3M</v>
       </c>
       <c r="L7" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H3M#0000</v>
       </c>
       <c r="M7" s="99" t="str">
@@ -9399,8 +9397,8 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="98"/>
-      <c r="B8" s="105" t="s">
-        <v>128</v>
+      <c r="B8" s="105">
+        <v>1</v>
       </c>
       <c r="C8" s="105" t="s">
         <v>52</v>
@@ -9433,7 +9431,7 @@
         <v>HKD_YC1MRH_AM1H4M</v>
       </c>
       <c r="L8" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H4M#0000</v>
       </c>
       <c r="M8" s="99" t="str">
@@ -9444,8 +9442,8 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
-      <c r="B9" s="105" t="s">
-        <v>128</v>
+      <c r="B9" s="105">
+        <v>1</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>51</v>
@@ -9478,7 +9476,7 @@
         <v>HKD_YC1MRH_AM1H5M</v>
       </c>
       <c r="L9" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H5M#0000</v>
       </c>
       <c r="M9" s="99" t="str">
@@ -9489,8 +9487,8 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="98"/>
-      <c r="B10" s="105" t="s">
-        <v>128</v>
+      <c r="B10" s="105">
+        <v>1</v>
       </c>
       <c r="C10" s="105" t="s">
         <v>50</v>
@@ -9523,7 +9521,7 @@
         <v>HKD_YC1MRH_AM1H6M</v>
       </c>
       <c r="L10" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H6M#0000</v>
       </c>
       <c r="M10" s="99" t="str">
@@ -9534,8 +9532,8 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
-      <c r="B11" s="105" t="s">
-        <v>128</v>
+      <c r="B11" s="105">
+        <v>1</v>
       </c>
       <c r="C11" s="105" t="s">
         <v>49</v>
@@ -9568,7 +9566,7 @@
         <v>HKD_YC1MRH_AM1H7M</v>
       </c>
       <c r="L11" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H7M#0000</v>
       </c>
       <c r="M11" s="99" t="str">
@@ -9579,8 +9577,8 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="98"/>
-      <c r="B12" s="105" t="s">
-        <v>128</v>
+      <c r="B12" s="105">
+        <v>1</v>
       </c>
       <c r="C12" s="105" t="s">
         <v>48</v>
@@ -9613,7 +9611,7 @@
         <v>HKD_YC1MRH_AM1H8M</v>
       </c>
       <c r="L12" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H8M#0000</v>
       </c>
       <c r="M12" s="99" t="str">
@@ -9624,8 +9622,8 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="98"/>
-      <c r="B13" s="105" t="s">
-        <v>128</v>
+      <c r="B13" s="105">
+        <v>1</v>
       </c>
       <c r="C13" s="105" t="s">
         <v>47</v>
@@ -9658,7 +9656,7 @@
         <v>HKD_YC1MRH_AM1H9M</v>
       </c>
       <c r="L13" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H9M#0000</v>
       </c>
       <c r="M13" s="99" t="str">
@@ -9669,8 +9667,8 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="98"/>
-      <c r="B14" s="105" t="s">
-        <v>128</v>
+      <c r="B14" s="105">
+        <v>1</v>
       </c>
       <c r="C14" s="105" t="s">
         <v>46</v>
@@ -9703,7 +9701,7 @@
         <v>HKD_YC1MRH_AM1H10M</v>
       </c>
       <c r="L14" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H10M#0000</v>
       </c>
       <c r="M14" s="99" t="str">
@@ -9714,8 +9712,8 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="98"/>
-      <c r="B15" s="105" t="s">
-        <v>128</v>
+      <c r="B15" s="105">
+        <v>1</v>
       </c>
       <c r="C15" s="105" t="s">
         <v>45</v>
@@ -9748,7 +9746,7 @@
         <v>HKD_YC1MRH_AM1H11M</v>
       </c>
       <c r="L15" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H11M#0000</v>
       </c>
       <c r="M15" s="99" t="str">
@@ -9759,8 +9757,8 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
-      <c r="B16" s="105" t="s">
-        <v>128</v>
+      <c r="B16" s="105">
+        <v>1</v>
       </c>
       <c r="C16" s="105" t="s">
         <v>24</v>
@@ -9793,7 +9791,7 @@
         <v>HKD_YC1MRH_AM1H1Y</v>
       </c>
       <c r="L16" s="100" t="str">
-        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YC1MRH_AM1H1Y#0000</v>
       </c>
       <c r="M16" s="99" t="str">
@@ -9926,7 +9924,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="133" t="str">
-        <f>HKD_YCRH_Swaps_1M!L5</f>
+        <f>Swaps!L5</f>
         <v>HkdHibor1MLastFixing#0000</v>
       </c>
       <c r="F2" s="133" t="str">
@@ -9935,7 +9933,7 @@
       </c>
       <c r="G2" s="134">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>2.1356999999999999E-3</v>
+        <v>2.1142999999999999E-3</v>
       </c>
       <c r="H2" s="134"/>
       <c r="I2" s="135" t="b">
@@ -9950,11 +9948,11 @@
       </c>
       <c r="L2" s="136">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="M2" s="137">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="N2" s="34">
         <v>70</v>
@@ -9976,8 +9974,8 @@
         <v>54</v>
       </c>
       <c r="E3" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L6</f>
-        <v>HKD_YC1MRH_AM1H2M#0000</v>
+        <f>Swaps!L6</f>
+        <v>HKD_YC1MRH_AM1H2M#0002</v>
       </c>
       <c r="F3" s="127" t="str">
         <f>_xll.qlRateHelperQuoteName(E3)</f>
@@ -10027,7 +10025,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L7</f>
+        <f>Swaps!L7</f>
         <v>HKD_YC1MRH_AM1H3M#0000</v>
       </c>
       <c r="F4" s="127" t="str">
@@ -10075,7 +10073,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L8</f>
+        <f>Swaps!L8</f>
         <v>HKD_YC1MRH_AM1H4M#0000</v>
       </c>
       <c r="F5" s="127" t="str">
@@ -10123,7 +10121,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L9</f>
+        <f>Swaps!L9</f>
         <v>HKD_YC1MRH_AM1H5M#0000</v>
       </c>
       <c r="F6" s="127" t="str">
@@ -10174,7 +10172,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L10</f>
+        <f>Swaps!L10</f>
         <v>HKD_YC1MRH_AM1H6M#0000</v>
       </c>
       <c r="F7" s="127" t="str">
@@ -10225,7 +10223,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L11</f>
+        <f>Swaps!L11</f>
         <v>HKD_YC1MRH_AM1H7M#0000</v>
       </c>
       <c r="F8" s="127" t="str">
@@ -10276,7 +10274,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L12</f>
+        <f>Swaps!L12</f>
         <v>HKD_YC1MRH_AM1H8M#0000</v>
       </c>
       <c r="F9" s="127" t="str">
@@ -10327,7 +10325,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L13</f>
+        <f>Swaps!L13</f>
         <v>HKD_YC1MRH_AM1H9M#0000</v>
       </c>
       <c r="F10" s="127" t="str">
@@ -10378,7 +10376,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L14</f>
+        <f>Swaps!L14</f>
         <v>HKD_YC1MRH_AM1H10M#0000</v>
       </c>
       <c r="F11" s="127" t="str">
@@ -10429,7 +10427,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="127" t="str">
-        <f>HKD_YCRH_Swaps_1M!L15</f>
+        <f>Swaps!L15</f>
         <v>HKD_YC1MRH_AM1H11M#0000</v>
       </c>
       <c r="F12" s="127" t="str">
@@ -10480,7 +10478,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="124" t="str">
-        <f>HKD_YCRH_Swaps_1M!L16</f>
+        <f>Swaps!L16</f>
         <v>HKD_YC1MRH_AM1H1Y#0000</v>
       </c>
       <c r="F13" s="124" t="str">
@@ -12273,7 +12271,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -12321,12 +12319,12 @@
         <v>8</v>
       </c>
       <c r="D2" s="41" t="str">
-        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(HKD_YCRH_Swaps_1M!RateHelperConstructors))</f>
+        <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),ISERROR(Swaps!RateHelperConstructors))</f>
         <v>HkdHibor1MLastFixing</v>
       </c>
       <c r="E2" s="42">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.1356999999999999E-3</v>
+        <v>2.1142999999999999E-3</v>
       </c>
       <c r="F2" s="42" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -12334,14 +12332,14 @@
       </c>
       <c r="G2" s="43">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H2" s="44">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="I2" s="38">
-        <v>0.99979508843842613</v>
+        <v>0.99981467106550947</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12371,7 +12369,7 @@
         <v>41701</v>
       </c>
       <c r="I3" s="38">
-        <v>0.99945894833657334</v>
+        <v>0.99945930547707429</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -12401,7 +12399,7 @@
         <v>41792</v>
       </c>
       <c r="I4" s="38">
-        <v>0.99883671150818742</v>
+        <v>0.99883706842617892</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -12431,7 +12429,7 @@
         <v>41884</v>
       </c>
       <c r="I5" s="38">
-        <v>0.99788475496962581</v>
+        <v>0.99788511154768389</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -12462,13 +12460,13 @@
         <v>41975</v>
       </c>
       <c r="I6" s="38">
-        <v>0.99709066378167588</v>
+        <v>0.99709102007597772</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_RateHelpersSelected#0000</v>
+        <v>HKD_YC1MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -15373,7 +15371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -15390,14 +15388,14 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="138" t="str">
         <f>_xll.qlIborIndex(,,IndexTenor,C3,Currency,Calendar,"f",TRUE,C4,YieldCurve,,D1)</f>
-        <v>obj_0011e#0000</v>
+        <v>obj_00113#0002</v>
       </c>
       <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="138" t="str">
         <f>_xll.qlOvernightIndex(,,C3,Currency,Calendar,C4,YieldCurve,,D1)</f>
-        <v>obj_0011f#0000</v>
+        <v>obj_00114#0002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -15412,17 +15410,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="138" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="138" t="s">
-        <v>130</v>
       </c>
       <c r="D5" s="138" t="str">
         <f>IndexTenor</f>
         <v>1M</v>
       </c>
       <c r="E5" s="138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -15436,16 +15434,16 @@
       </c>
       <c r="D6" s="141">
         <f>_xll.qlIndexFixing(C$1,$B6,TRUE,$D$1)</f>
-        <v>2.1356999987037595E-3</v>
+        <v>2.1125932976221702E-3</v>
       </c>
       <c r="E6" s="141">
         <f>_xll.qlIndexFixing(C$2,$B6,TRUE,$D$1)</f>
-        <v>2.1494530482668583E-3</v>
+        <v>2.1187183075244143E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="140">
         <f>_xll.qlCalendarAdvance(Calendar,B6,A7)</f>
@@ -15457,11 +15455,11 @@
       </c>
       <c r="D7" s="141">
         <f>_xll.qlIndexFixing(C$1,$B7,TRUE,$D$1)</f>
-        <v>2.1327927337125886E-3</v>
+        <v>2.1113272721521338E-3</v>
       </c>
       <c r="E7" s="141">
         <f>_xll.qlIndexFixing(C$2,$B7,TRUE,$D$1)</f>
-        <v>2.1491362193093444E-3</v>
+        <v>2.118574752435487E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -15479,11 +15477,11 @@
       </c>
       <c r="D8" s="141">
         <f>_xll.qlIndexFixing(C$1,$B8,TRUE,$D$1)</f>
-        <v>2.1322694448906027E-3</v>
+        <v>2.1110885349731601E-3</v>
       </c>
       <c r="E8" s="141">
         <f>_xll.qlIndexFixing(C$2,$B8,TRUE,$D$1)</f>
-        <v>2.1487560244792814E-3</v>
+        <v>2.118402486377402E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -15501,11 +15499,11 @@
       </c>
       <c r="D9" s="141">
         <f>_xll.qlIndexFixing(C$1,$B9,TRUE,$D$1)</f>
-        <v>2.1317250702697936E-3</v>
+        <v>2.1108403500697159E-3</v>
       </c>
       <c r="E9" s="141">
         <f>_xll.qlIndexFixing(C$2,$B9,TRUE,$D$1)</f>
-        <v>2.1477970540062508E-3</v>
+        <v>2.1179745406185724E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -15523,11 +15521,11 @@
       </c>
       <c r="D10" s="141">
         <f>_xll.qlIndexFixing(C$1,$B10,TRUE,$D$1)</f>
-        <v>2.1272866503547188E-3</v>
+        <v>2.1089252334532066E-3</v>
       </c>
       <c r="E10" s="141">
         <f>_xll.qlIndexFixing(C$2,$B10,TRUE,$D$1)</f>
-        <v>2.1466015875681865E-3</v>
+        <v>2.1174263118861614E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -15545,11 +15543,11 @@
       </c>
       <c r="D11" s="141">
         <f>_xll.qlIndexFixing(C$1,$B11,TRUE,$D$1)</f>
-        <v>2.1257226554032855E-3</v>
+        <v>2.1082591437159687E-3</v>
       </c>
       <c r="E11" s="141">
         <f>_xll.qlIndexFixing(C$2,$B11,TRUE,$D$1)</f>
-        <v>2.1459045638616558E-3</v>
+        <v>2.1171104908201954E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -15567,11 +15565,11 @@
       </c>
       <c r="D12" s="141">
         <f>_xll.qlIndexFixing(C$1,$B12,TRUE,$D$1)</f>
-        <v>2.1223048006803764E-3</v>
+        <v>2.1068548888558691E-3</v>
       </c>
       <c r="E12" s="141">
         <f>_xll.qlIndexFixing(C$2,$B12,TRUE,$D$1)</f>
-        <v>2.1451441742825761E-3</v>
+        <v>2.1167659586229792E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -15589,11 +15587,11 @@
       </c>
       <c r="D13" s="141">
         <f>_xll.qlIndexFixing(C$1,$B13,TRUE,$D$1)</f>
-        <v>2.1215786015104168E-3</v>
+        <v>2.1065329513866513E-3</v>
       </c>
       <c r="E13" s="141">
         <f>_xll.qlIndexFixing(C$2,$B13,TRUE,$D$1)</f>
-        <v>2.1443204189930398E-3</v>
+        <v>2.1163927154566053E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -15611,11 +15609,11 @@
       </c>
       <c r="D14" s="141">
         <f>_xll.qlIndexFixing(C$1,$B14,TRUE,$D$1)</f>
-        <v>2.1208325349206876E-3</v>
+        <v>2.1062026820092747E-3</v>
       </c>
       <c r="E14" s="141">
         <f>_xll.qlIndexFixing(C$2,$B14,TRUE,$D$1)</f>
-        <v>2.1424742647901951E-3</v>
+        <v>2.1155627875472467E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -15633,11 +15631,11 @@
       </c>
       <c r="D15" s="141">
         <f>_xll.qlIndexFixing(C$1,$B15,TRUE,$D$1)</f>
-        <v>2.1157283548888274E-3</v>
+        <v>2.1040963716973736E-3</v>
       </c>
       <c r="E15" s="141">
         <f>_xll.qlIndexFixing(C$2,$B15,TRUE,$D$1)</f>
-        <v>2.1403917398388206E-3</v>
+        <v>2.1146126326943016E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -15655,11 +15653,11 @@
       </c>
       <c r="D16" s="141">
         <f>_xll.qlIndexFixing(C$1,$B16,TRUE,$D$1)</f>
-        <v>2.1139978691562329E-3</v>
+        <v>2.1033915108154898E-3</v>
       </c>
       <c r="E16" s="141">
         <f>_xll.qlIndexFixing(C$2,$B16,TRUE,$D$1)</f>
-        <v>2.1392511555917704E-3</v>
+        <v>2.1140958344390004E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -15677,11 +15675,11 @@
       </c>
       <c r="D17" s="141">
         <f>_xll.qlIndexFixing(C$1,$B17,TRUE,$D$1)</f>
-        <v>2.1105338400805073E-3</v>
+        <v>2.102042274314138E-3</v>
       </c>
       <c r="E17" s="141">
         <f>_xll.qlIndexFixing(C$2,$B17,TRUE,$D$1)</f>
-        <v>2.1380472054721711E-3</v>
+        <v>2.1135503252145416E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -15699,11 +15697,11 @@
       </c>
       <c r="D18" s="141">
         <f>_xll.qlIndexFixing(C$1,$B18,TRUE,$D$1)</f>
-        <v>2.1096616897233259E-3</v>
+        <v>2.1016704778975548E-3</v>
       </c>
       <c r="E18" s="141">
         <f>_xll.qlIndexFixing(C$2,$B18,TRUE,$D$1)</f>
-        <v>2.1367798896421153E-3</v>
+        <v>2.1129761049398788E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -15721,11 +15719,11 @@
       </c>
       <c r="D19" s="141">
         <f>_xll.qlIndexFixing(C$1,$B19,TRUE,$D$1)</f>
-        <v>2.1087745639099846E-3</v>
+        <v>2.1012936159153961E-3</v>
       </c>
       <c r="E19" s="141">
         <f>_xll.qlIndexFixing(C$2,$B19,TRUE,$D$1)</f>
-        <v>2.1340465157249078E-3</v>
+        <v>2.1117441786437192E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -15743,11 +15741,11 @@
       </c>
       <c r="D20" s="141">
         <f>_xll.qlIndexFixing(C$1,$B20,TRUE,$D$1)</f>
-        <v>2.1035866301443557E-3</v>
+        <v>2.0992581926859355E-3</v>
       </c>
       <c r="E20" s="141">
         <f>_xll.qlIndexFixing(C$2,$B20,TRUE,$D$1)</f>
-        <v>2.1310769684879105E-3</v>
+        <v>2.1103921137444193E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -15765,11 +15763,11 @@
       </c>
       <c r="D21" s="141">
         <f>_xll.qlIndexFixing(C$1,$B21,TRUE,$D$1)</f>
-        <v>2.1018836555430193E-3</v>
+        <v>2.0986019208846956E-3</v>
       </c>
       <c r="E21" s="141">
         <f>_xll.qlIndexFixing(C$2,$B21,TRUE,$D$1)</f>
-        <v>2.1278365957022594E-3</v>
+        <v>2.1089304668982698E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -15787,11 +15785,11 @@
       </c>
       <c r="D22" s="141">
         <f>_xll.qlIndexFixing(C$1,$B22,TRUE,$D$1)</f>
-        <v>2.0969091705932527E-3</v>
+        <v>2.096724673323282E-3</v>
       </c>
       <c r="E22" s="141">
         <f>_xll.qlIndexFixing(C$2,$B22,TRUE,$D$1)</f>
-        <v>2.1225138073777128E-3</v>
+        <v>2.1065187140160519E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -15809,11 +15807,11 @@
       </c>
       <c r="D23" s="141">
         <f>_xll.qlIndexFixing(C$1,$B23,TRUE,$D$1)</f>
-        <v>2.092219487157901E-3</v>
+        <v>2.0950222175436339E-3</v>
       </c>
       <c r="E23" s="141">
         <f>_xll.qlIndexFixing(C$2,$B23,TRUE,$D$1)</f>
-        <v>2.1186572736775489E-3</v>
+        <v>2.1047647554417459E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -15831,11 +15829,11 @@
       </c>
       <c r="D24" s="141">
         <f>_xll.qlIndexFixing(C$1,$B24,TRUE,$D$1)</f>
-        <v>2.0907380248263818E-3</v>
+        <v>2.0945018949045371E-3</v>
       </c>
       <c r="E24" s="141">
         <f>_xll.qlIndexFixing(C$2,$B24,TRUE,$D$1)</f>
-        <v>2.1155901640218522E-3</v>
+        <v>2.1034151714771632E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -15853,11 +15851,11 @@
       </c>
       <c r="D25" s="141">
         <f>_xll.qlIndexFixing(C$1,$B25,TRUE,$D$1)</f>
-        <v>2.0874119895227666E-3</v>
+        <v>2.0933922173092812E-3</v>
       </c>
       <c r="E25" s="141">
         <f>_xll.qlIndexFixing(C$2,$B25,TRUE,$D$1)</f>
-        <v>2.1123840606429578E-3</v>
+        <v>2.1020973526297837E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -15875,11 +15873,11 @@
       </c>
       <c r="D26" s="141">
         <f>_xll.qlIndexFixing(C$1,$B26,TRUE,$D$1)</f>
-        <v>2.086594362982233E-3</v>
+        <v>2.0930993519745695E-3</v>
       </c>
       <c r="E26" s="141">
         <f>_xll.qlIndexFixing(C$2,$B26,TRUE,$D$1)</f>
-        <v>2.1080602144659308E-3</v>
+        <v>2.1004666216565644E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -15897,11 +15895,11 @@
       </c>
       <c r="D27" s="141">
         <f>_xll.qlIndexFixing(C$1,$B27,TRUE,$D$1)</f>
-        <v>2.0829671154274794E-3</v>
+        <v>2.0919357836088246E-3</v>
       </c>
       <c r="E27" s="141">
         <f>_xll.qlIndexFixing(C$2,$B27,TRUE,$D$1)</f>
-        <v>2.1038893947433746E-3</v>
+        <v>2.0989002096871712E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -15919,11 +15917,11 @@
       </c>
       <c r="D28" s="141">
         <f>_xll.qlIndexFixing(C$1,$B28,TRUE,$D$1)</f>
-        <v>2.0818767507632227E-3</v>
+        <v>2.0916010329316828E-3</v>
       </c>
       <c r="E28" s="141">
         <f>_xll.qlIndexFixing(C$2,$B28,TRUE,$D$1)</f>
-        <v>2.1019089868901109E-3</v>
+        <v>2.0981672943920504E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -15941,11 +15939,11 @@
       </c>
       <c r="D29" s="141">
         <f>_xll.qlIndexFixing(C$1,$B29,TRUE,$D$1)</f>
-        <v>2.0802025330201135E-3</v>
+        <v>2.0911647841230382E-3</v>
       </c>
       <c r="E29" s="141">
         <f>_xll.qlIndexFixing(C$2,$B29,TRUE,$D$1)</f>
-        <v>2.0999879276883959E-3</v>
+        <v>2.0974609271839917E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -15963,11 +15961,11 @@
       </c>
       <c r="D30" s="141">
         <f>_xll.qlIndexFixing(C$1,$B30,TRUE,$D$1)</f>
-        <v>2.0795722748427614E-3</v>
+        <v>2.0909560140397812E-3</v>
       </c>
       <c r="E30" s="141">
         <f>_xll.qlIndexFixing(C$2,$B30,TRUE,$D$1)</f>
-        <v>2.0981262170571835E-3</v>
+        <v>2.0967811081440413E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -15985,11 +15983,11 @@
       </c>
       <c r="D31" s="141">
         <f>_xll.qlIndexFixing(C$1,$B31,TRUE,$D$1)</f>
-        <v>2.0789618100997536E-3</v>
+        <v>2.0907560972110457E-3</v>
       </c>
       <c r="E31" s="141">
         <f>_xll.qlIndexFixing(C$2,$B31,TRUE,$D$1)</f>
-        <v>2.0946126449313449E-3</v>
+        <v>2.0955219944677568E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -16007,11 +16005,11 @@
       </c>
       <c r="D32" s="141">
         <f>_xll.qlIndexFixing(C$1,$B32,TRUE,$D$1)</f>
-        <v>2.0765810991361174E-3</v>
+        <v>2.0901501359082259E-3</v>
       </c>
       <c r="E32" s="141">
         <f>_xll.qlIndexFixing(C$2,$B32,TRUE,$D$1)</f>
-        <v>2.0912728612909603E-3</v>
+        <v>2.0943273133411378E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -16029,11 +16027,11 @@
       </c>
       <c r="D33" s="141">
         <f>_xll.qlIndexFixing(C$1,$B33,TRUE,$D$1)</f>
-        <v>2.0759062464684622E-3</v>
+        <v>2.0900012542276578E-3</v>
       </c>
       <c r="E33" s="141">
         <f>_xll.qlIndexFixing(C$2,$B33,TRUE,$D$1)</f>
-        <v>2.0897078940795843E-3</v>
+        <v>2.093780235141729E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -16051,11 +16049,11 @@
       </c>
       <c r="D34" s="141">
         <f>_xll.qlIndexFixing(C$1,$B34,TRUE,$D$1)</f>
-        <v>2.0750629938067048E-3</v>
+        <v>2.0899367292971944E-3</v>
       </c>
       <c r="E34" s="141">
         <f>_xll.qlIndexFixing(C$2,$B34,TRUE,$D$1)</f>
-        <v>2.0882022754387108E-3</v>
+        <v>2.0932597049483359E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -16073,11 +16071,11 @@
       </c>
       <c r="D35" s="141">
         <f>_xll.qlIndexFixing(C$1,$B35,TRUE,$D$1)</f>
-        <v>2.0746405220278819E-3</v>
+        <v>2.0898209012727362E-3</v>
       </c>
       <c r="E35" s="141">
         <f>_xll.qlIndexFixing(C$2,$B35,TRUE,$D$1)</f>
-        <v>2.0867560054493861E-3</v>
+        <v>2.0927657229230512E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -16095,11 +16093,11 @@
       </c>
       <c r="D36" s="141">
         <f>_xll.qlIndexFixing(C$1,$B36,TRUE,$D$1)</f>
-        <v>2.074237841274534E-3</v>
+        <v>2.0897139254313821E-3</v>
       </c>
       <c r="E36" s="141">
         <f>_xll.qlIndexFixing(C$2,$B36,TRUE,$D$1)</f>
-        <v>2.0840731938213492E-3</v>
+        <v>2.0918782415372634E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -16117,11 +16115,11 @@
       </c>
       <c r="D37" s="141">
         <f>_xll.qlIndexFixing(C$1,$B37,TRUE,$D$1)</f>
-        <v>2.0731036651346832E-3</v>
+        <v>2.0896655709927931E-3</v>
       </c>
       <c r="E37" s="141">
         <f>_xll.qlIndexFixing(C$2,$B37,TRUE,$D$1)</f>
-        <v>2.0815644120075749E-3</v>
+        <v>2.0910552763409029E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -16139,11 +16137,11 @@
       </c>
       <c r="D38" s="141">
         <f>_xll.qlIndexFixing(C$1,$B38,TRUE,$D$1)</f>
-        <v>2.072844323961666E-3</v>
+        <v>2.0897025582591253E-3</v>
       </c>
       <c r="E38" s="141">
         <f>_xll.qlIndexFixing(C$2,$B38,TRUE,$D$1)</f>
-        <v>2.0804148853570403E-3</v>
+        <v>2.0906940350751135E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -16161,11 +16159,11 @@
       </c>
       <c r="D39" s="141">
         <f>_xll.qlIndexFixing(C$1,$B39,TRUE,$D$1)</f>
-        <v>2.0728320687485144E-3</v>
+        <v>2.0900097720514634E-3</v>
       </c>
       <c r="E39" s="141">
         <f>_xll.qlIndexFixing(C$2,$B39,TRUE,$D$1)</f>
-        <v>2.0793247072770082E-3</v>
+        <v>2.0903593418963862E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -16183,11 +16181,11 @@
       </c>
       <c r="D40" s="141">
         <f>_xll.qlIndexFixing(C$1,$B40,TRUE,$D$1)</f>
-        <v>2.0726173665468195E-3</v>
+        <v>2.0899868786130454E-3</v>
       </c>
       <c r="E40" s="141">
         <f>_xll.qlIndexFixing(C$2,$B40,TRUE,$D$1)</f>
-        <v>2.0782938778485249E-3</v>
+        <v>2.0900511969668134E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -16205,11 +16203,11 @@
       </c>
       <c r="D41" s="141">
         <f>_xll.qlIndexFixing(C$1,$B41,TRUE,$D$1)</f>
-        <v>2.0724224529980553E-3</v>
+        <v>2.0899728362930932E-3</v>
       </c>
       <c r="E41" s="141">
         <f>_xll.qlIndexFixing(C$2,$B41,TRUE,$D$1)</f>
-        <v>2.0764418603795116E-3</v>
+        <v>2.0895353627570223E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -16227,11 +16225,11 @@
       </c>
       <c r="D42" s="141">
         <f>_xll.qlIndexFixing(C$1,$B42,TRUE,$D$1)</f>
-        <v>2.0725348108453822E-3</v>
+        <v>2.0904820887030478E-3</v>
       </c>
       <c r="E42" s="141">
         <f>_xll.qlIndexFixing(C$2,$B42,TRUE,$D$1)</f>
-        <v>2.0747640466500794E-3</v>
+        <v>2.0890840984433279E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -16249,11 +16247,11 @@
       </c>
       <c r="D43" s="141">
         <f>_xll.qlIndexFixing(C$1,$B43,TRUE,$D$1)</f>
-        <v>2.0726909809735379E-3</v>
+        <v>2.0907049449241234E-3</v>
       </c>
       <c r="E43" s="141">
         <f>_xll.qlIndexFixing(C$2,$B43,TRUE,$D$1)</f>
-        <v>2.07402996047934E-3</v>
+        <v>2.0889086941922042E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -16271,11 +16269,11 @@
       </c>
       <c r="D44" s="141">
         <f>_xll.qlIndexFixing(C$1,$B44,TRUE,$D$1)</f>
-        <v>2.0726345710452287E-3</v>
+        <v>2.0907528544917473E-3</v>
       </c>
       <c r="E44" s="141">
         <f>_xll.qlIndexFixing(C$2,$B44,TRUE,$D$1)</f>
-        <v>2.0733552230411956E-3</v>
+        <v>2.0887598381091887E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -16293,11 +16291,11 @@
       </c>
       <c r="D45" s="141">
         <f>_xll.qlIndexFixing(C$1,$B45,TRUE,$D$1)</f>
-        <v>2.0725979477381174E-3</v>
+        <v>2.090809614265087E-3</v>
       </c>
       <c r="E45" s="141">
         <f>_xll.qlIndexFixing(C$2,$B45,TRUE,$D$1)</f>
-        <v>2.0727398340925074E-3</v>
+        <v>2.0886375301942817E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -16315,11 +16313,11 @@
       </c>
       <c r="D46" s="141">
         <f>_xll.qlIndexFixing(C$1,$B46,TRUE,$D$1)</f>
-        <v>2.0725811107203235E-3</v>
+        <v>2.0908752240942591E-3</v>
       </c>
       <c r="E46" s="141">
         <f>_xll.qlIndexFixing(C$2,$B46,TRUE,$D$1)</f>
-        <v>2.071718644038508E-3</v>
+        <v>2.0884933580730034E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -16337,11 +16335,11 @@
       </c>
       <c r="D47" s="141">
         <f>_xll.qlIndexFixing(C$1,$B47,TRUE,$D$1)</f>
-        <v>2.0736728694980711E-3</v>
+        <v>2.0918225799781975E-3</v>
       </c>
       <c r="E47" s="141">
         <f>_xll.qlIndexFixing(C$2,$B47,TRUE,$D$1)</f>
-        <v>2.0708717650563813E-3</v>
+        <v>2.0884137797294589E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -16359,11 +16357,11 @@
       </c>
       <c r="D48" s="141">
         <f>_xll.qlIndexFixing(C$1,$B48,TRUE,$D$1)</f>
-        <v>2.0741566859317734E-3</v>
+        <v>2.092192892461851E-3</v>
       </c>
       <c r="E48" s="141">
         <f>_xll.qlIndexFixing(C$2,$B48,TRUE,$D$1)</f>
-        <v>2.0705531194464832E-3</v>
+        <v>2.0884242124930008E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -16381,11 +16379,11 @@
       </c>
       <c r="D49" s="141">
         <f>_xll.qlIndexFixing(C$1,$B49,TRUE,$D$1)</f>
-        <v>2.0747069480516901E-3</v>
+        <v>2.0925982931917814E-3</v>
       </c>
       <c r="E49" s="141">
         <f>_xll.qlIndexFixing(C$2,$B49,TRUE,$D$1)</f>
-        <v>2.070293822488134E-3</v>
+        <v>2.0884611934246511E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -16403,11 +16401,11 @@
       </c>
       <c r="D50" s="141">
         <f>_xll.qlIndexFixing(C$1,$B50,TRUE,$D$1)</f>
-        <v>2.075330743774782E-3</v>
+        <v>2.0930473181591087E-3</v>
       </c>
       <c r="E50" s="141">
         <f>_xll.qlIndexFixing(C$2,$B50,TRUE,$D$1)</f>
-        <v>2.0700938741002872E-3</v>
+        <v>2.0885247224433634E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -16425,11 +16423,11 @@
       </c>
       <c r="D51" s="141">
         <f>_xll.qlIndexFixing(C$1,$B51,TRUE,$D$1)</f>
-        <v>2.0760351610266919E-3</v>
+        <v>2.0935485033462698E-3</v>
       </c>
       <c r="E51" s="141">
         <f>_xll.qlIndexFixing(C$2,$B51,TRUE,$D$1)</f>
-        <v>2.0699035445011691E-3</v>
+        <v>2.0887522274311752E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -16447,11 +16445,11 @@
       </c>
       <c r="D52" s="141">
         <f>_xll.qlIndexFixing(C$1,$B52,TRUE,$D$1)</f>
-        <v>2.0787030212262342E-3</v>
+        <v>2.0954503801292757E-3</v>
       </c>
       <c r="E52" s="141">
         <f>_xll.qlIndexFixing(C$2,$B52,TRUE,$D$1)</f>
-        <v>2.0698875672264805E-3</v>
+        <v>2.0890443201992959E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -16469,11 +16467,11 @@
       </c>
       <c r="D53" s="141">
         <f>_xll.qlIndexFixing(C$1,$B53,TRUE,$D$1)</f>
-        <v>2.0798008038816879E-3</v>
+        <v>2.0962455661098695E-3</v>
       </c>
       <c r="E53" s="141">
         <f>_xll.qlIndexFixing(C$2,$B53,TRUE,$D$1)</f>
-        <v>2.0699843620153313E-3</v>
+        <v>2.0892405899775035E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -16491,11 +16489,11 @@
       </c>
       <c r="D54" s="141">
         <f>_xll.qlIndexFixing(C$1,$B54,TRUE,$D$1)</f>
-        <v>2.0810146477346992E-3</v>
+        <v>2.0971355922832658E-3</v>
       </c>
       <c r="E54" s="141">
         <f>_xll.qlIndexFixing(C$2,$B54,TRUE,$D$1)</f>
-        <v>2.0701405056178235E-3</v>
+        <v>2.0894634079238195E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -16513,11 +16511,11 @@
       </c>
       <c r="D55" s="141">
         <f>_xll.qlIndexFixing(C$1,$B55,TRUE,$D$1)</f>
-        <v>2.0823516407311726E-3</v>
+        <v>2.0981289946550574E-3</v>
       </c>
       <c r="E55" s="141">
         <f>_xll.qlIndexFixing(C$2,$B55,TRUE,$D$1)</f>
-        <v>2.0703559977908181E-3</v>
+        <v>2.0897127740382437E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -16535,11 +16533,11 @@
       </c>
       <c r="D56" s="141">
         <f>_xll.qlIndexFixing(C$1,$B56,TRUE,$D$1)</f>
-        <v>2.083818870828591E-3</v>
+        <v>2.0992343092366256E-3</v>
       </c>
       <c r="E56" s="141">
         <f>_xll.qlIndexFixing(C$2,$B56,TRUE,$D$1)</f>
-        <v>2.0709965615783865E-3</v>
+        <v>2.0903119708315376E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -16557,11 +16555,11 @@
       </c>
       <c r="D57" s="141">
         <f>_xll.qlIndexFixing(C$1,$B57,TRUE,$D$1)</f>
-        <v>2.0890728633592343E-3</v>
+        <v>2.1033070864030184E-3</v>
       </c>
       <c r="E57" s="141">
         <f>_xll.qlIndexFixing(C$2,$B57,TRUE,$D$1)</f>
-        <v>2.0718114529172382E-3</v>
+        <v>2.0909757198528389E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -16579,11 +16577,11 @@
       </c>
       <c r="D58" s="141">
         <f>_xll.qlIndexFixing(C$1,$B58,TRUE,$D$1)</f>
-        <v>2.0911319215481472E-3</v>
+        <v>2.1049454100301374E-3</v>
       </c>
       <c r="E58" s="141">
         <f>_xll.qlIndexFixing(C$2,$B58,TRUE,$D$1)</f>
-        <v>2.0723236883479768E-3</v>
+        <v>2.091357826564666E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -16601,11 +16599,11 @@
       </c>
       <c r="D59" s="141">
         <f>_xll.qlIndexFixing(C$1,$B59,TRUE,$D$1)</f>
-        <v>2.0933566567209378E-3</v>
+        <v>2.1067383260194622E-3</v>
       </c>
       <c r="E59" s="141">
         <f>_xll.qlIndexFixing(C$2,$B59,TRUE,$D$1)</f>
-        <v>2.0728952724302641E-3</v>
+        <v>2.0917664816066939E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -16623,11 +16621,11 @@
       </c>
       <c r="D60" s="141">
         <f>_xll.qlIndexFixing(C$1,$B60,TRUE,$D$1)</f>
-        <v>2.0957541568958744E-3</v>
+        <v>2.1086943704200023E-3</v>
       </c>
       <c r="E60" s="141">
         <f>_xll.qlIndexFixing(C$2,$B60,TRUE,$D$1)</f>
-        <v>2.0735262050830539E-3</v>
+        <v>2.0922016846547375E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -16645,11 +16643,11 @@
       </c>
       <c r="D61" s="141">
         <f>_xll.qlIndexFixing(C$1,$B61,TRUE,$D$1)</f>
-        <v>2.0983315100883294E-3</v>
+        <v>2.1108220792981358E-3</v>
       </c>
       <c r="E61" s="141">
         <f>_xll.qlIndexFixing(C$2,$B61,TRUE,$D$1)</f>
-        <v>2.074997695405238E-3</v>
+        <v>2.0931725883551375E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -16667,11 +16665,11 @@
       </c>
       <c r="D62" s="141">
         <f>_xll.qlIndexFixing(C$1,$B62,TRUE,$D$1)</f>
-        <v>2.1072135681676762E-3</v>
+        <v>2.1183205536847477E-3</v>
       </c>
       <c r="E62" s="141">
         <f>_xll.qlIndexFixing(C$2,$B62,TRUE,$D$1)</f>
-        <v>2.0766434223717933E-3</v>
+        <v>2.0942079786090417E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -16689,11 +16687,11 @@
       </c>
       <c r="D63" s="141">
         <f>_xll.qlIndexFixing(C$1,$B63,TRUE,$D$1)</f>
-        <v>2.1105812139023323E-3</v>
+        <v>2.1212202814177967E-3</v>
       </c>
       <c r="E63" s="141">
         <f>_xll.qlIndexFixing(C$2,$B63,TRUE,$D$1)</f>
-        <v>2.077571098282327E-3</v>
+        <v>2.0947759224165807E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -16711,11 +16709,11 @@
       </c>
       <c r="D64" s="141">
         <f>_xll.qlIndexFixing(C$1,$B64,TRUE,$D$1)</f>
-        <v>2.1141641529658279E-3</v>
+        <v>2.1243343541745203E-3</v>
       </c>
       <c r="E64" s="141">
         <f>_xll.qlIndexFixing(C$2,$B64,TRUE,$D$1)</f>
-        <v>2.0785581229254557E-3</v>
+        <v>2.0953704144732743E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -16733,11 +16731,11 @@
       </c>
       <c r="D65" s="141">
         <f>_xll.qlIndexFixing(C$1,$B65,TRUE,$D$1)</f>
-        <v>2.1179694734748439E-3</v>
+        <v>2.1276713081110261E-3</v>
       </c>
       <c r="E65" s="141">
         <f>_xll.qlIndexFixing(C$2,$B65,TRUE,$D$1)</f>
-        <v>2.0796044961390869E-3</v>
+        <v>2.0959914545359837E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -16755,11 +16753,11 @@
       </c>
       <c r="D66" s="141">
         <f>_xll.qlIndexFixing(C$1,$B66,TRUE,$D$1)</f>
-        <v>2.1303974630813806E-3</v>
+        <v>2.1389922348737864E-3</v>
       </c>
       <c r="E66" s="141">
         <f>_xll.qlIndexFixing(C$2,$B66,TRUE,$D$1)</f>
-        <v>2.0819069462518769E-3</v>
+        <v>2.0973340800830207E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -16777,11 +16775,11 @@
       </c>
       <c r="D67" s="141">
         <f>_xll.qlIndexFixing(C$1,$B67,TRUE,$D$1)</f>
-        <v>2.1451069058327087E-3</v>
+        <v>2.1523627650243244E-3</v>
       </c>
       <c r="E67" s="141">
         <f>_xll.qlIndexFixing(C$2,$B67,TRUE,$D$1)</f>
-        <v>2.0844165474975807E-3</v>
+        <v>2.0987809250416767E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -16799,11 +16797,11 @@
       </c>
       <c r="D68" s="141">
         <f>_xll.qlIndexFixing(C$1,$B68,TRUE,$D$1)</f>
-        <v>2.1505161049593532E-3</v>
+        <v>2.1573391781827588E-3</v>
       </c>
       <c r="E68" s="141">
         <f>_xll.qlIndexFixing(C$2,$B68,TRUE,$D$1)</f>
-        <v>2.0859580950893797E-3</v>
+        <v>2.0997736764150066E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -16821,11 +16819,11 @@
       </c>
       <c r="D69" s="141">
         <f>_xll.qlIndexFixing(C$1,$B69,TRUE,$D$1)</f>
-        <v>2.1634958802865391E-3</v>
+        <v>2.1695179554834325E-3</v>
       </c>
       <c r="E69" s="141">
         <f>_xll.qlIndexFixing(C$2,$B69,TRUE,$D$1)</f>
-        <v>2.0877574223721052E-3</v>
+        <v>2.1010319464265237E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -16843,11 +16841,11 @@
       </c>
       <c r="D70" s="141">
         <f>_xll.qlIndexFixing(C$1,$B70,TRUE,$D$1)</f>
-        <v>2.1658503186835348E-3</v>
+        <v>2.1716456427261013E-3</v>
       </c>
       <c r="E70" s="141">
         <f>_xll.qlIndexFixing(C$2,$B70,TRUE,$D$1)</f>
-        <v>2.0898145294268033E-3</v>
+        <v>2.1025557351572743E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -16865,11 +16863,11 @@
       </c>
       <c r="D71" s="141">
         <f>_xll.qlIndexFixing(C$1,$B71,TRUE,$D$1)</f>
-        <v>2.1682906714906671E-3</v>
+        <v>2.1738618270525276E-3</v>
       </c>
       <c r="E71" s="141">
         <f>_xll.qlIndexFixing(C$2,$B71,TRUE,$D$1)</f>
-        <v>2.0948000316859767E-3</v>
+        <v>2.1065005317692327E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -16887,11 +16885,11 @@
       </c>
       <c r="D72" s="141">
         <f>_xll.qlIndexFixing(C$1,$B72,TRUE,$D$1)</f>
-        <v>2.1883857001033539E-3</v>
+        <v>2.1927745980323474E-3</v>
       </c>
       <c r="E72" s="141">
         <f>_xll.qlIndexFixing(C$2,$B72,TRUE,$D$1)</f>
-        <v>2.1006207551221845E-3</v>
+        <v>2.111306076624242E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -16909,11 +16907,11 @@
       </c>
       <c r="D73" s="141">
         <f>_xll.qlIndexFixing(C$1,$B73,TRUE,$D$1)</f>
-        <v>2.1955997032308354E-3</v>
+        <v>2.1996099952211853E-3</v>
       </c>
       <c r="E73" s="141">
         <f>_xll.qlIndexFixing(C$2,$B73,TRUE,$D$1)</f>
-        <v>2.1039667609557E-3</v>
+        <v>2.1141574587080214E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -16931,11 +16929,11 @@
       </c>
       <c r="D74" s="141">
         <f>_xll.qlIndexFixing(C$1,$B74,TRUE,$D$1)</f>
-        <v>2.2121896849357941E-3</v>
+        <v>2.2155073072737891E-3</v>
       </c>
       <c r="E74" s="141">
         <f>_xll.qlIndexFixing(C$2,$B74,TRUE,$D$1)</f>
-        <v>2.1075705465611883E-3</v>
+        <v>2.1172743594299881E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -16953,11 +16951,11 @@
       </c>
       <c r="D75" s="141">
         <f>_xll.qlIndexFixing(C$1,$B75,TRUE,$D$1)</f>
-        <v>2.2154462406549086E-3</v>
+        <v>2.2185642175524475E-3</v>
       </c>
       <c r="E75" s="141">
         <f>_xll.qlIndexFixing(C$2,$B75,TRUE,$D$1)</f>
-        <v>2.1114321119386492E-3</v>
+        <v>2.1206567788711883E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -16975,11 +16973,11 @@
       </c>
       <c r="D76" s="141">
         <f>_xll.qlIndexFixing(C$1,$B76,TRUE,$D$1)</f>
-        <v>2.2187887000026871E-3</v>
+        <v>2.2217096138502537E-3</v>
       </c>
       <c r="E76" s="141">
         <f>_xll.qlIndexFixing(C$2,$B76,TRUE,$D$1)</f>
-        <v>2.1200268222047276E-3</v>
+        <v>2.1283190902547195E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -16997,11 +16995,11 @@
       </c>
       <c r="D77" s="141">
         <f>_xll.qlIndexFixing(C$1,$B77,TRUE,$D$1)</f>
-        <v>2.2442981887123158E-3</v>
+        <v>2.2461993837242038E-3</v>
       </c>
       <c r="E77" s="141">
         <f>_xll.qlIndexFixing(C$2,$B77,TRUE,$D$1)</f>
-        <v>2.1294561714113591E-3</v>
+        <v>2.1368416437472781E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -17019,11 +17017,11 @@
       </c>
       <c r="D78" s="141">
         <f>_xll.qlIndexFixing(C$1,$B78,TRUE,$D$1)</f>
-        <v>2.2749926498661288E-3</v>
+        <v>2.2760289553093015E-3</v>
       </c>
       <c r="E78" s="141">
         <f>_xll.qlIndexFixing(C$2,$B78,TRUE,$D$1)</f>
-        <v>2.13460663572973E-3</v>
+        <v>2.1415516568656923E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -17041,11 +17039,11 @@
       </c>
       <c r="D79" s="141">
         <f>_xll.qlIndexFixing(C$1,$B79,TRUE,$D$1)</f>
-        <v>2.2791083215130646E-3</v>
+        <v>2.2799707927777979E-3</v>
       </c>
       <c r="E79" s="141">
         <f>_xll.qlIndexFixing(C$2,$B79,TRUE,$D$1)</f>
-        <v>2.1400148799821661E-3</v>
+        <v>2.1465271886222936E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -17063,11 +17061,11 @@
       </c>
       <c r="D80" s="141">
         <f>_xll.qlIndexFixing(C$1,$B80,TRUE,$D$1)</f>
-        <v>2.283309887116097E-3</v>
+        <v>2.2840011063837789E-3</v>
       </c>
       <c r="E80" s="141">
         <f>_xll.qlIndexFixing(C$2,$B80,TRUE,$D$1)</f>
-        <v>2.1456809041686675E-3</v>
+        <v>2.1517682391791748E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -17085,11 +17083,11 @@
       </c>
       <c r="D81" s="141">
         <f>_xll.qlIndexFixing(C$1,$B81,TRUE,$D$1)</f>
-        <v>2.2875973450163165E-3</v>
+        <v>2.2881198944347397E-3</v>
       </c>
       <c r="E81" s="141">
         <f>_xll.qlIndexFixing(C$2,$B81,TRUE,$D$1)</f>
-        <v>2.1578849758082295E-3</v>
+        <v>2.1631482224560017E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -17107,11 +17105,11 @@
       </c>
       <c r="D82" s="141">
         <f>_xll.qlIndexFixing(C$1,$B82,TRUE,$D$1)</f>
-        <v>2.312844551605867E-3</v>
+        <v>2.3126372992069324E-3</v>
       </c>
       <c r="E82" s="141">
         <f>_xll.qlIndexFixing(C$2,$B82,TRUE,$D$1)</f>
-        <v>2.1709227992017244E-3</v>
+        <v>2.1753876291663587E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -17129,11 +17127,11 @@
       </c>
       <c r="D83" s="141">
         <f>_xll.qlIndexFixing(C$1,$B83,TRUE,$D$1)</f>
-        <v>2.323668238194338E-3</v>
+        <v>2.3231907386034672E-3</v>
       </c>
       <c r="E83" s="141">
         <f>_xll.qlIndexFixing(C$2,$B83,TRUE,$D$1)</f>
-        <v>2.1778777227343671E-3</v>
+        <v>2.181956273724639E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -17151,11 +17149,11 @@
       </c>
       <c r="D84" s="141">
         <f>_xll.qlIndexFixing(C$1,$B84,TRUE,$D$1)</f>
-        <v>2.3474793179783901E-3</v>
+        <v>2.3465258135391466E-3</v>
       </c>
       <c r="E84" s="141">
         <f>_xll.qlIndexFixing(C$2,$B84,TRUE,$D$1)</f>
-        <v>2.1850904262010751E-3</v>
+        <v>2.188790437083199E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -17173,11 +17171,11 @@
       </c>
       <c r="D85" s="141">
         <f>_xll.qlIndexFixing(C$1,$B85,TRUE,$D$1)</f>
-        <v>2.3525398872493303E-3</v>
+        <v>2.3514409432010344E-3</v>
       </c>
       <c r="E85" s="141">
         <f>_xll.qlIndexFixing(C$2,$B85,TRUE,$D$1)</f>
-        <v>2.1925609096018484E-3</v>
+        <v>2.1958901193230851E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -17195,11 +17193,11 @@
       </c>
       <c r="D86" s="141">
         <f>_xll.qlIndexFixing(C$1,$B86,TRUE,$D$1)</f>
-        <v>2.3576863367717167E-3</v>
+        <v>2.3564445350193574E-3</v>
       </c>
       <c r="E86" s="141">
         <f>_xll.qlIndexFixing(C$2,$B86,TRUE,$D$1)</f>
-        <v>2.2083745041941625E-3</v>
+        <v>2.210987939530451E-3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -17217,11 +17215,11 @@
       </c>
       <c r="D87" s="141">
         <f>_xll.qlIndexFixing(C$1,$B87,TRUE,$D$1)</f>
-        <v>2.3871442872266022E-3</v>
+        <v>2.3852991174578104E-3</v>
       </c>
       <c r="E87" s="141">
         <f>_xll.qlIndexFixing(C$2,$B87,TRUE,$D$1)</f>
-        <v>2.225020643031872E-3</v>
+        <v>2.2269440370148441E-3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -17239,11 +17237,11 @@
       </c>
       <c r="D88" s="141">
         <f>_xll.qlIndexFixing(C$1,$B88,TRUE,$D$1)</f>
-        <v>2.4066535870589842E-3</v>
+        <v>2.4045010746127425E-3</v>
       </c>
       <c r="E88" s="141">
         <f>_xll.qlIndexFixing(C$2,$B88,TRUE,$D$1)</f>
-        <v>2.2337800263461105E-3</v>
+        <v>2.2353713137424069E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -17261,11 +17259,11 @@
       </c>
       <c r="D89" s="141">
         <f>_xll.qlIndexFixing(C$1,$B89,TRUE,$D$1)</f>
-        <v>2.4124012753194242E-3</v>
+        <v>2.4101239729733548E-3</v>
       </c>
       <c r="E89" s="141">
         <f>_xll.qlIndexFixing(C$2,$B89,TRUE,$D$1)</f>
-        <v>2.2427971897565069E-3</v>
+        <v>2.2440641094323421E-3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -17283,11 +17281,11 @@
       </c>
       <c r="D90" s="141">
         <f>_xll.qlIndexFixing(C$1,$B90,TRUE,$D$1)</f>
-        <v>2.4400380673271493E-3</v>
+        <v>2.43739954872077E-3</v>
       </c>
       <c r="E90" s="141">
         <f>_xll.qlIndexFixing(C$2,$B90,TRUE,$D$1)</f>
-        <v>2.2520721332630611E-3</v>
+        <v>2.2530224240846497E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -17305,11 +17303,11 @@
       </c>
       <c r="D91" s="141">
         <f>_xll.qlIndexFixing(C$1,$B91,TRUE,$D$1)</f>
-        <v>2.4460863920538678E-3</v>
+        <v>2.4433321160341739E-3</v>
       </c>
       <c r="E91" s="141">
         <f>_xll.qlIndexFixing(C$2,$B91,TRUE,$D$1)</f>
-        <v>2.2714954231395361E-3</v>
+        <v>2.2718382568768609E-3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -17327,11 +17325,11 @@
       </c>
       <c r="D92" s="141">
         <f>_xll.qlIndexFixing(C$1,$B92,TRUE,$D$1)</f>
-        <v>2.4800560130443148E-3</v>
+        <v>2.4768338280625564E-3</v>
       </c>
       <c r="E92" s="141">
         <f>_xll.qlIndexFixing(C$2,$B92,TRUE,$D$1)</f>
-        <v>2.2917497083319027E-3</v>
+        <v>2.291510872722835E-3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -17349,11 +17347,11 @@
       </c>
       <c r="D93" s="141">
         <f>_xll.qlIndexFixing(C$1,$B93,TRUE,$D$1)</f>
-        <v>2.4943604990051256E-3</v>
+        <v>2.4909725573999397E-3</v>
       </c>
       <c r="E93" s="141">
         <f>_xll.qlIndexFixing(C$2,$B93,TRUE,$D$1)</f>
-        <v>2.3023135524002925E-3</v>
+        <v>2.3017967825111896E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -17371,11 +17369,11 @@
       </c>
       <c r="D94" s="141">
         <f>_xll.qlIndexFixing(C$1,$B94,TRUE,$D$1)</f>
-        <v>2.5089228331895974E-3</v>
+        <v>2.5053768749618475E-3</v>
       </c>
       <c r="E94" s="141">
         <f>_xll.qlIndexFixing(C$2,$B94,TRUE,$D$1)</f>
-        <v>2.3131351767269326E-3</v>
+        <v>2.3123482115050553E-3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -17393,11 +17391,11 @@
       </c>
       <c r="D95" s="141">
         <f>_xll.qlIndexFixing(C$1,$B95,TRUE,$D$1)</f>
-        <v>2.5401708588482924E-3</v>
+        <v>2.5363720267189069E-3</v>
       </c>
       <c r="E95" s="141">
         <f>_xll.qlIndexFixing(C$2,$B95,TRUE,$D$1)</f>
-        <v>2.3242145813118231E-3</v>
+        <v>2.3231651594612934E-3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -17415,11 +17413,11 @@
       </c>
       <c r="D96" s="141">
         <f>_xll.qlIndexFixing(C$1,$B96,TRUE,$D$1)</f>
-        <v>2.5471209710496846E-3</v>
+        <v>2.5432334803343259E-3</v>
       </c>
       <c r="E96" s="141">
         <f>_xll.qlIndexFixing(C$2,$B96,TRUE,$D$1)</f>
-        <v>2.3472477522575494E-3</v>
+        <v>2.3456991939193226E-3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -17437,11 +17435,11 @@
       </c>
       <c r="D97" s="141">
         <f>_xll.qlIndexFixing(C$1,$B97,TRUE,$D$1)</f>
-        <v>2.5856022604202984E-3</v>
+        <v>2.5813823197815555E-3</v>
       </c>
       <c r="E97" s="141">
         <f>_xll.qlIndexFixing(C$2,$B97,TRUE,$D$1)</f>
-        <v>2.3711100020717968E-3</v>
+        <v>2.3690881432603117E-3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -17459,11 +17457,11 @@
       </c>
       <c r="D98" s="141">
         <f>_xll.qlIndexFixing(C$1,$B98,TRUE,$D$1)</f>
-        <v>2.6017117039543645E-3</v>
+        <v>2.5973801871142697E-3</v>
       </c>
       <c r="E98" s="141">
         <f>_xll.qlIndexFixing(C$2,$B98,TRUE,$D$1)</f>
-        <v>2.3834783080289856E-3</v>
+        <v>2.3812326872441059E-3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -17481,11 +17479,11 @@
       </c>
       <c r="D99" s="141">
         <f>_xll.qlIndexFixing(C$1,$B99,TRUE,$D$1)</f>
-        <v>2.6180790025307861E-3</v>
+        <v>2.613643649638786E-3</v>
       </c>
       <c r="E99" s="141">
         <f>_xll.qlIndexFixing(C$2,$B99,TRUE,$D$1)</f>
-        <v>2.3961043943254712E-3</v>
+        <v>2.3936427505144575E-3</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -17503,11 +17501,11 @@
       </c>
       <c r="D100" s="141">
         <f>_xll.qlIndexFixing(C$1,$B100,TRUE,$D$1)</f>
-        <v>2.6529385944773498E-3</v>
+        <v>2.6483587158802543E-3</v>
       </c>
       <c r="E100" s="141">
         <f>_xll.qlIndexFixing(C$2,$B100,TRUE,$D$1)</f>
-        <v>2.4358196259277598E-3</v>
+        <v>2.4327640037637988E-3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -17525,11 +17523,11 @@
       </c>
       <c r="D101" s="141">
         <f>_xll.qlIndexFixing(C$1,$B101,TRUE,$D$1)</f>
-        <v>2.7216978093721478E-3</v>
+        <v>2.7168019846740927E-3</v>
       </c>
       <c r="E101" s="141">
         <f>_xll.qlIndexFixing(C$2,$B101,TRUE,$D$1)</f>
-        <v>2.477274301579957E-3</v>
+        <v>2.4736790364510153E-3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -17547,11 +17545,11 @@
       </c>
       <c r="D102" s="141">
         <f>_xll.qlIndexFixing(C$1,$B102,TRUE,$D$1)</f>
-        <v>2.7398701233186293E-3</v>
+        <v>2.7349246443334105E-3</v>
       </c>
       <c r="E102" s="141">
         <f>_xll.qlIndexFixing(C$2,$B102,TRUE,$D$1)</f>
-        <v>2.491704851305121E-3</v>
+        <v>2.4879477353756396E-3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -17569,11 +17567,11 @@
       </c>
       <c r="D103" s="141">
         <f>_xll.qlIndexFixing(C$1,$B103,TRUE,$D$1)</f>
-        <v>2.778341648863418E-3</v>
+        <v>2.7733599994194877E-3</v>
       </c>
       <c r="E103" s="141">
         <f>_xll.qlIndexFixing(C$2,$B103,TRUE,$D$1)</f>
-        <v>2.5063931815316742E-3</v>
+        <v>2.5024819538299603E-3</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -17591,11 +17589,11 @@
       </c>
       <c r="D104" s="141">
         <f>_xll.qlIndexFixing(C$1,$B104,TRUE,$D$1)</f>
-        <v>2.7870950415583959E-3</v>
+        <v>2.7820789266374745E-3</v>
       </c>
       <c r="E104" s="141">
         <f>_xll.qlIndexFixing(C$2,$B104,TRUE,$D$1)</f>
-        <v>2.536646739428698E-3</v>
+        <v>2.5324530262390197E-3</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -17613,11 +17611,11 @@
       </c>
       <c r="D105" s="141">
         <f>_xll.qlIndexFixing(C$1,$B105,TRUE,$D$1)</f>
-        <v>2.8345996741547439E-3</v>
+        <v>2.8295220299412822E-3</v>
       </c>
       <c r="E105" s="141">
         <f>_xll.qlIndexFixing(C$2,$B105,TRUE,$D$1)</f>
-        <v>2.5677243091537516E-3</v>
+        <v>2.5632740233494378E-3</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -17635,11 +17633,11 @@
       </c>
       <c r="D106" s="141">
         <f>_xll.qlIndexFixing(C$1,$B106,TRUE,$D$1)</f>
-        <v>2.8543191889709814E-3</v>
+        <v>2.8492383331932825E-3</v>
       </c>
       <c r="E106" s="141">
         <f>_xll.qlIndexFixing(C$2,$B106,TRUE,$D$1)</f>
-        <v>2.5837015429408527E-3</v>
+        <v>2.5791358397764252E-3</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -17657,11 +17655,11 @@
       </c>
       <c r="D107" s="141">
         <f>_xll.qlIndexFixing(C$1,$B107,TRUE,$D$1)</f>
-        <v>2.8742965748902449E-3</v>
+        <v>2.869220248130004E-3</v>
       </c>
       <c r="E107" s="141">
         <f>_xll.qlIndexFixing(C$2,$B107,TRUE,$D$1)</f>
-        <v>2.6081922736093111E-3</v>
+        <v>2.6034688887865975E-3</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -17679,11 +17677,11 @@
       </c>
       <c r="D108" s="141">
         <f>_xll.qlIndexFixing(C$1,$B108,TRUE,$D$1)</f>
-        <v>2.9260353054109734E-3</v>
+        <v>2.9210238004338763E-3</v>
       </c>
       <c r="E108" s="141">
         <f>_xll.qlIndexFixing(C$2,$B108,TRUE,$D$1)</f>
-        <v>2.6502934564565099E-3</v>
+        <v>2.6453459814094566E-3</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -17701,11 +17699,11 @@
       </c>
       <c r="D109" s="141">
         <f>_xll.qlIndexFixing(C$1,$B109,TRUE,$D$1)</f>
-        <v>2.9893477353339845E-3</v>
+        <v>2.9844529016101553E-3</v>
       </c>
       <c r="E109" s="141">
         <f>_xll.qlIndexFixing(C$2,$B109,TRUE,$D$1)</f>
-        <v>2.6849783430005214E-3</v>
+        <v>2.6798826536489351E-3</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -17723,11 +17721,11 @@
       </c>
       <c r="D110" s="141">
         <f>_xll.qlIndexFixing(C$1,$B110,TRUE,$D$1)</f>
-        <v>3.0108623270217534E-3</v>
+        <v>3.0060203977165479E-3</v>
       </c>
       <c r="E110" s="141">
         <f>_xll.qlIndexFixing(C$2,$B110,TRUE,$D$1)</f>
-        <v>2.7027600429718746E-3</v>
+        <v>2.6976031088099539E-3</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -17745,11 +17743,11 @@
       </c>
       <c r="D111" s="141">
         <f>_xll.qlIndexFixing(C$1,$B111,TRUE,$D$1)</f>
-        <v>3.0553730370976996E-3</v>
+        <v>3.0506916888994201E-3</v>
       </c>
       <c r="E111" s="141">
         <f>_xll.qlIndexFixing(C$2,$B111,TRUE,$D$1)</f>
-        <v>2.7207995240119409E-3</v>
+        <v>2.7155890839059005E-3</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -17767,11 +17765,11 @@
       </c>
       <c r="D112" s="141">
         <f>_xll.qlIndexFixing(C$1,$B112,TRUE,$D$1)</f>
-        <v>3.0658056061159955E-3</v>
+        <v>3.0611408705078294E-3</v>
       </c>
       <c r="E112" s="141">
         <f>_xll.qlIndexFixing(C$2,$B112,TRUE,$D$1)</f>
-        <v>2.7390967861207205E-3</v>
+        <v>2.7338405790178211E-3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -17789,11 +17787,11 @@
       </c>
       <c r="D113" s="141">
         <f>_xll.qlIndexFixing(C$1,$B113,TRUE,$D$1)</f>
-        <v>3.0763215144410131E-3</v>
+        <v>3.0716759376544249E-3</v>
       </c>
       <c r="E113" s="141">
         <f>_xll.qlIndexFixing(C$2,$B113,TRUE,$D$1)</f>
-        <v>2.7765717016333311E-3</v>
+        <v>2.7712496761704104E-3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -17811,11 +17809,11 @@
       </c>
       <c r="D114" s="141">
         <f>_xll.qlIndexFixing(C$1,$B114,TRUE,$D$1)</f>
-        <v>3.1426799127771115E-3</v>
+        <v>3.1382805431797471E-3</v>
       </c>
       <c r="E114" s="141">
         <f>_xll.qlIndexFixing(C$2,$B114,TRUE,$D$1)</f>
-        <v>2.81486364613448E-3</v>
+        <v>2.8095017602736139E-3</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -17833,11 +17831,11 @@
       </c>
       <c r="D115" s="141">
         <f>_xll.qlIndexFixing(C$1,$B115,TRUE,$D$1)</f>
-        <v>3.1648938891907482E-3</v>
+        <v>3.1605861998364225E-3</v>
       </c>
       <c r="E115" s="141">
         <f>_xll.qlIndexFixing(C$2,$B115,TRUE,$D$1)</f>
-        <v>2.8344498141541496E-3</v>
+        <v>2.8290808560327285E-3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -17855,11 +17853,11 @@
       </c>
       <c r="D116" s="141">
         <f>_xll.qlIndexFixing(C$1,$B116,TRUE,$D$1)</f>
-        <v>3.2092996796703492E-3</v>
+        <v>3.2052091368709825E-3</v>
       </c>
       <c r="E116" s="141">
         <f>_xll.qlIndexFixing(C$2,$B116,TRUE,$D$1)</f>
-        <v>2.8542937635667176E-3</v>
+        <v>2.8489254719699098E-3</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -17877,11 +17875,11 @@
       </c>
       <c r="D117" s="141">
         <f>_xll.qlIndexFixing(C$1,$B117,TRUE,$D$1)</f>
-        <v>3.2203684313214173E-3</v>
+        <v>3.2163178971515716E-3</v>
       </c>
       <c r="E117" s="141">
         <f>_xll.qlIndexFixing(C$2,$B117,TRUE,$D$1)</f>
-        <v>2.8743954942911376E-3</v>
+        <v>2.8690356082472501E-3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -17899,11 +17897,11 @@
       </c>
       <c r="D118" s="141">
         <f>_xll.qlIndexFixing(C$1,$B118,TRUE,$D$1)</f>
-        <v>3.2315034003742439E-3</v>
+        <v>3.2274951823216182E-3</v>
       </c>
       <c r="E118" s="141">
         <f>_xll.qlIndexFixing(C$2,$B118,TRUE,$D$1)</f>
-        <v>2.9154815143476549E-3</v>
+        <v>2.9101641508559135E-3</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -17921,11 +17919,11 @@
       </c>
       <c r="D119" s="141">
         <f>_xll.qlIndexFixing(C$1,$B119,TRUE,$D$1)</f>
-        <v>3.2975903521197249E-3</v>
+        <v>3.2939116465479485E-3</v>
       </c>
       <c r="E119" s="141">
         <f>_xll.qlIndexFixing(C$2,$B119,TRUE,$D$1)</f>
-        <v>2.9573802319282638E-3</v>
+        <v>2.9521313571634344E-3</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -17943,11 +17941,11 @@
       </c>
       <c r="D120" s="141">
         <f>_xll.qlIndexFixing(C$1,$B120,TRUE,$D$1)</f>
-        <v>3.3193978918430725E-3</v>
+        <v>3.3158342318538188E-3</v>
       </c>
       <c r="E120" s="141">
         <f>_xll.qlIndexFixing(C$2,$B120,TRUE,$D$1)</f>
-        <v>2.9787708701844995E-3</v>
+        <v>2.9735690955468019E-3</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -17965,11 +17963,11 @@
       </c>
       <c r="D121" s="141">
         <f>_xll.qlIndexFixing(C$1,$B121,TRUE,$D$1)</f>
-        <v>3.3613196103598358E-3</v>
+        <v>3.3579965095437651E-3</v>
       </c>
       <c r="E121" s="141">
         <f>_xll.qlIndexFixing(C$2,$B121,TRUE,$D$1)</f>
-        <v>3.000419289995726E-3</v>
+        <v>2.9952723545134674E-3</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -17987,11 +17985,11 @@
       </c>
       <c r="D122" s="141">
         <f>_xll.qlIndexFixing(C$1,$B122,TRUE,$D$1)</f>
-        <v>3.3725700217433069E-3</v>
+        <v>3.3693039901205174E-3</v>
       </c>
       <c r="E122" s="141">
         <f>_xll.qlIndexFixing(C$2,$B122,TRUE,$D$1)</f>
-        <v>3.0223254915240361E-3</v>
+        <v>3.0172411340634309E-3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -18009,11 +18007,11 @@
       </c>
       <c r="D123" s="141">
         <f>_xll.qlIndexFixing(C$1,$B123,TRUE,$D$1)</f>
-        <v>3.3838402130361282E-3</v>
+        <v>3.380632910733066E-3</v>
       </c>
       <c r="E123" s="141">
         <f>_xll.qlIndexFixing(C$2,$B123,TRUE,$D$1)</f>
-        <v>3.0670229378241638E-3</v>
+        <v>3.0620894500684357E-3</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -18031,11 +18029,11 @@
       </c>
       <c r="D124" s="141">
         <f>_xll.qlIndexFixing(C$1,$B124,TRUE,$D$1)</f>
-        <v>3.4463381308645936E-3</v>
+        <v>3.4434974125288711E-3</v>
       </c>
       <c r="E124" s="141">
         <f>_xll.qlIndexFixing(C$2,$B124,TRUE,$D$1)</f>
-        <v>3.1125281153754347E-3</v>
+        <v>3.1077714594740513E-3</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -18053,11 +18051,11 @@
       </c>
       <c r="D125" s="141">
         <f>_xll.qlIndexFixing(C$1,$B125,TRUE,$D$1)</f>
-        <v>3.4666333554562866E-3</v>
+        <v>3.4639156364439068E-3</v>
       </c>
       <c r="E125" s="141">
         <f>_xll.qlIndexFixing(C$2,$B125,TRUE,$D$1)</f>
-        <v>3.1357232258943935E-3</v>
+        <v>3.1310678427509675E-3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -18075,11 +18073,11 @@
       </c>
       <c r="D126" s="141">
         <f>_xll.qlIndexFixing(C$1,$B126,TRUE,$D$1)</f>
-        <v>3.5041607410879133E-3</v>
+        <v>3.5016803758267183E-3</v>
       </c>
       <c r="E126" s="141">
         <f>_xll.qlIndexFixing(C$2,$B126,TRUE,$D$1)</f>
-        <v>3.1591761184546208E-3</v>
+        <v>3.1546297470974594E-3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -18097,11 +18095,11 @@
       </c>
       <c r="D127" s="141">
         <f>_xll.qlIndexFixing(C$1,$B127,TRUE,$D$1)</f>
-        <v>3.5149110880178941E-3</v>
+        <v>3.5124953501069339E-3</v>
       </c>
       <c r="E127" s="141">
         <f>_xll.qlIndexFixing(C$2,$B127,TRUE,$D$1)</f>
-        <v>3.1828867930561167E-3</v>
+        <v>3.178457172270388E-3</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -18119,11 +18117,11 @@
       </c>
       <c r="D128" s="141">
         <f>_xll.qlIndexFixing(C$1,$B128,TRUE,$D$1)</f>
-        <v>3.5255908051541117E-3</v>
+        <v>3.5232400944647827E-3</v>
       </c>
       <c r="E128" s="141">
         <f>_xll.qlIndexFixing(C$2,$B128,TRUE,$D$1)</f>
-        <v>3.2311960192588089E-3</v>
+        <v>3.2270256225708231E-3</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -18141,11 +18139,11 @@
       </c>
       <c r="D129" s="141">
         <f>_xll.qlIndexFixing(C$1,$B129,TRUE,$D$1)</f>
-        <v>3.5732812675082588E-3</v>
+        <v>3.5712345529560117E-3</v>
       </c>
       <c r="E129" s="141">
         <f>_xll.qlIndexFixing(C$2,$B129,TRUE,$D$1)</f>
-        <v>3.2801907417123743E-3</v>
+        <v>3.2763038885175177E-3</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -18163,11 +18161,11 @@
       </c>
       <c r="D130" s="141">
         <f>_xll.qlIndexFixing(C$1,$B130,TRUE,$D$1)</f>
-        <v>3.5911827087857784E-3</v>
+        <v>3.5892525906036088E-3</v>
       </c>
       <c r="E130" s="141">
         <f>_xll.qlIndexFixing(C$2,$B130,TRUE,$D$1)</f>
-        <v>3.3044909031954006E-3</v>
+        <v>3.3007497473858116E-3</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -18185,11 +18183,11 @@
       </c>
       <c r="D131" s="141">
         <f>_xll.qlIndexFixing(C$1,$B131,TRUE,$D$1)</f>
-        <v>3.608642406075206E-3</v>
+        <v>3.606826875017751E-3</v>
       </c>
       <c r="E131" s="141">
         <f>_xll.qlIndexFixing(C$2,$B131,TRUE,$D$1)</f>
-        <v>3.3283494229086052E-3</v>
+        <v>3.3247519555090754E-3</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -18207,11 +18205,11 @@
       </c>
       <c r="D132" s="141">
         <f>_xll.qlIndexFixing(C$1,$B132,TRUE,$D$1)</f>
-        <v>3.6399903710802872E-3</v>
+        <v>3.6383875715435485E-3</v>
       </c>
       <c r="E132" s="141">
         <f>_xll.qlIndexFixing(C$2,$B132,TRUE,$D$1)</f>
-        <v>3.3517663008519882E-3</v>
+        <v>3.3483105127252166E-3</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -18229,11 +18227,11 @@
       </c>
       <c r="D133" s="141">
         <f>_xll.qlIndexFixing(C$1,$B133,TRUE,$D$1)</f>
-        <v>3.6492544109179375E-3</v>
+        <v>3.6477114339102694E-3</v>
       </c>
       <c r="E133" s="141">
         <f>_xll.qlIndexFixing(C$2,$B133,TRUE,$D$1)</f>
-        <v>3.397159534227479E-3</v>
+        <v>3.393980348736318E-3</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -18251,11 +18249,11 @@
       </c>
       <c r="D134" s="141">
         <f>_xll.qlIndexFixing(C$1,$B134,TRUE,$D$1)</f>
-        <v>3.6893146678342132E-3</v>
+        <v>3.6880419329823706E-3</v>
       </c>
       <c r="E134" s="141">
         <f>_xll.qlIndexFixing(C$2,$B134,TRUE,$D$1)</f>
-        <v>3.4410173925769616E-3</v>
+        <v>3.4381082312218147E-3</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -18273,11 +18271,11 @@
       </c>
       <c r="D135" s="141">
         <f>_xll.qlIndexFixing(C$1,$B135,TRUE,$D$1)</f>
-        <v>3.7041238629493454E-3</v>
+        <v>3.7029536593177945E-3</v>
       </c>
       <c r="E135" s="141">
         <f>_xll.qlIndexFixing(C$2,$B135,TRUE,$D$1)</f>
-        <v>3.462226060131357E-3</v>
+        <v>3.4594485327676949E-3</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -18295,11 +18293,11 @@
       </c>
       <c r="D136" s="141">
         <f>_xll.qlIndexFixing(C$1,$B136,TRUE,$D$1)</f>
-        <v>3.7184913017789629E-3</v>
+        <v>3.7174216199791594E-3</v>
       </c>
       <c r="E136" s="141">
         <f>_xll.qlIndexFixing(C$2,$B136,TRUE,$D$1)</f>
-        <v>3.4829930854296531E-3</v>
+        <v>3.4803451830822674E-3</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -18317,11 +18315,11 @@
       </c>
       <c r="D137" s="141">
         <f>_xll.qlIndexFixing(C$1,$B137,TRUE,$D$1)</f>
-        <v>3.7436567915982016E-3</v>
+        <v>3.742771723913331E-3</v>
       </c>
       <c r="E137" s="141">
         <f>_xll.qlIndexFixing(C$2,$B137,TRUE,$D$1)</f>
-        <v>3.5033184683908036E-3</v>
+        <v>3.5007981818413469E-3</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -18339,11 +18337,11 @@
       </c>
       <c r="D138" s="141">
         <f>_xll.qlIndexFixing(C$1,$B138,TRUE,$D$1)</f>
-        <v>3.7513736345537365E-3</v>
+        <v>3.7505413497470716E-3</v>
       </c>
       <c r="E138" s="141">
         <f>_xll.qlIndexFixing(C$2,$B138,TRUE,$D$1)</f>
-        <v>3.5425314738860942E-3</v>
+        <v>3.5402596782052602E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -18361,11 +18359,11 @@
       </c>
       <c r="D139" s="141">
         <f>_xll.qlIndexFixing(C$1,$B139,TRUE,$D$1)</f>
-        <v>3.7837020985401022E-3</v>
+        <v>3.7831048845116495E-3</v>
       </c>
       <c r="E139" s="141">
         <f>_xll.qlIndexFixing(C$2,$B139,TRUE,$D$1)</f>
-        <v>3.5802035746756999E-3</v>
+        <v>3.5781736611606441E-3</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -18383,11 +18381,11 @@
       </c>
       <c r="D140" s="141">
         <f>_xll.qlIndexFixing(C$1,$B140,TRUE,$D$1)</f>
-        <v>3.7954189684754245E-3</v>
+        <v>3.7949102196043567E-3</v>
       </c>
       <c r="E140" s="141">
         <f>_xll.qlIndexFixing(C$2,$B140,TRUE,$D$1)</f>
-        <v>3.5983207446543819E-3</v>
+        <v>3.5964084016559816E-3</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -18405,11 +18403,11 @@
       </c>
       <c r="D141" s="141">
         <f>_xll.qlIndexFixing(C$1,$B141,TRUE,$D$1)</f>
-        <v>3.8066940721781517E-3</v>
+        <v>3.806271778965161E-3</v>
       </c>
       <c r="E141" s="141">
         <f>_xll.qlIndexFixing(C$2,$B141,TRUE,$D$1)</f>
-        <v>3.6159962717285943E-3</v>
+        <v>3.6141994902716412E-3</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -18427,11 +18425,11 @@
       </c>
       <c r="D142" s="141">
         <f>_xll.qlIndexFixing(C$1,$B142,TRUE,$D$1)</f>
-        <v>3.8256765485068789E-3</v>
+        <v>3.8254107491041134E-3</v>
       </c>
       <c r="E142" s="141">
         <f>_xll.qlIndexFixing(C$2,$B142,TRUE,$D$1)</f>
-        <v>3.6332301559793834E-3</v>
+        <v>3.6315469270076228E-3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -18449,11 +18447,11 @@
       </c>
       <c r="D143" s="141">
         <f>_xll.qlIndexFixing(C$1,$B143,TRUE,$D$1)</f>
-        <v>3.8318463542417981E-3</v>
+        <v>3.8316262982350836E-3</v>
       </c>
       <c r="E143" s="141">
         <f>_xll.qlIndexFixing(C$2,$B143,TRUE,$D$1)</f>
-        <v>3.666262606437654E-3</v>
+        <v>3.66479975608125E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -18471,11 +18469,11 @@
       </c>
       <c r="D144" s="141">
         <f>_xll.qlIndexFixing(C$1,$B144,TRUE,$D$1)</f>
-        <v>3.8564430559827243E-3</v>
+        <v>3.856422897995075E-3</v>
       </c>
       <c r="E144" s="141">
         <f>_xll.qlIndexFixing(C$2,$B144,TRUE,$D$1)</f>
-        <v>3.6977492632084275E-3</v>
+        <v>3.6965001532907049E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -18493,11 +18491,11 @@
       </c>
       <c r="D145" s="141">
         <f>_xll.qlIndexFixing(C$1,$B145,TRUE,$D$1)</f>
-        <v>3.8650675382137329E-3</v>
+        <v>3.8651217785668308E-3</v>
       </c>
       <c r="E145" s="141">
         <f>_xll.qlIndexFixing(C$2,$B145,TRUE,$D$1)</f>
-        <v>3.7127749322884984E-3</v>
+        <v>3.7116293294936487E-3</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -18515,11 +18513,11 @@
       </c>
       <c r="D146" s="141">
         <f>_xll.qlIndexFixing(C$1,$B146,TRUE,$D$1)</f>
-        <v>3.8732502466316174E-3</v>
+        <v>3.8733768757234963E-3</v>
       </c>
       <c r="E146" s="141">
         <f>_xll.qlIndexFixing(C$2,$B146,TRUE,$D$1)</f>
-        <v>3.7273589580588684E-3</v>
+        <v>3.7263148533306367E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -18537,11 +18535,11 @@
       </c>
       <c r="D147" s="141">
         <f>_xll.qlIndexFixing(C$1,$B147,TRUE,$D$1)</f>
-        <v>3.8860491749822743E-3</v>
+        <v>3.8863041746287422E-3</v>
       </c>
       <c r="E147" s="141">
         <f>_xll.qlIndexFixing(C$2,$B147,TRUE,$D$1)</f>
-        <v>3.7415013406005837E-3</v>
+        <v>3.7405567248827154E-3</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -18559,11 +18557,11 @@
       </c>
       <c r="D148" s="141">
         <f>_xll.qlIndexFixing(C$1,$B148,TRUE,$D$1)</f>
-        <v>3.8906721262798793E-3</v>
+        <v>3.8909658302576484E-3</v>
       </c>
       <c r="E148" s="141">
         <f>_xll.qlIndexFixing(C$2,$B148,TRUE,$D$1)</f>
-        <v>3.7683528659104852E-3</v>
+        <v>3.7676005156091676E-3</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -18581,11 +18579,11 @@
       </c>
       <c r="D149" s="141">
         <f>_xll.qlIndexFixing(C$1,$B149,TRUE,$D$1)</f>
-        <v>3.9092564702055436E-3</v>
+        <v>3.9097402124071085E-3</v>
       </c>
       <c r="E149" s="141">
         <f>_xll.qlIndexFixing(C$2,$B149,TRUE,$D$1)</f>
-        <v>3.799641296851064E-3</v>
+        <v>3.7991192625197456E-3</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -18603,11 +18601,11 @@
       </c>
       <c r="D150" s="141">
         <f>_xll.qlIndexFixing(C$1,$B150,TRUE,$D$1)</f>
-        <v>3.9215506975853404E-3</v>
+        <v>3.9221956859865469E-3</v>
       </c>
       <c r="E150" s="141">
         <f>_xll.qlIndexFixing(C$2,$B150,TRUE,$D$1)</f>
-        <v>3.8170811247262293E-3</v>
+        <v>3.8166912520787299E-3</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -18625,11 +18623,11 @@
       </c>
       <c r="D151" s="141">
         <f>_xll.qlIndexFixing(C$1,$B151,TRUE,$D$1)</f>
-        <v>3.9247743274008207E-3</v>
+        <v>3.9254516523199931E-3</v>
       </c>
       <c r="E151" s="141">
         <f>_xll.qlIndexFixing(C$2,$B151,TRUE,$D$1)</f>
-        <v>3.8281320030464361E-3</v>
+        <v>3.827827555934471E-3</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -18647,11 +18645,11 @@
       </c>
       <c r="D152" s="141">
         <f>_xll.qlIndexFixing(C$1,$B152,TRUE,$D$1)</f>
-        <v>3.9278506263076916E-3</v>
+        <v>3.9285596171328803E-3</v>
       </c>
       <c r="E152" s="141">
         <f>_xll.qlIndexFixing(C$2,$B152,TRUE,$D$1)</f>
-        <v>3.848802197814472E-3</v>
+        <v>3.8486619016775418E-3</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -18669,11 +18667,11 @@
       </c>
       <c r="D153" s="141">
         <f>_xll.qlIndexFixing(C$1,$B153,TRUE,$D$1)</f>
-        <v>3.9371574982318622E-3</v>
+        <v>3.9380143234549643E-3</v>
       </c>
       <c r="E153" s="141">
         <f>_xll.qlIndexFixing(C$2,$B153,TRUE,$D$1)</f>
-        <v>3.8679190798263097E-3</v>
+        <v>3.8679362437266107E-3</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -18691,11 +18689,11 @@
       </c>
       <c r="D154" s="141">
         <f>_xll.qlIndexFixing(C$1,$B154,TRUE,$D$1)</f>
-        <v>3.9393762163051418E-3</v>
+        <v>3.9402783001819151E-3</v>
       </c>
       <c r="E154" s="141">
         <f>_xll.qlIndexFixing(C$2,$B154,TRUE,$D$1)</f>
-        <v>3.8767617396529008E-3</v>
+        <v>3.8768542835643238E-3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -18713,11 +18711,11 @@
       </c>
       <c r="D155" s="141">
         <f>_xll.qlIndexFixing(C$1,$B155,TRUE,$D$1)</f>
-        <v>3.9401746226919165E-3</v>
+        <v>3.9411504969066868E-3</v>
       </c>
       <c r="E155" s="141">
         <f>_xll.qlIndexFixing(C$2,$B155,TRUE,$D$1)</f>
-        <v>3.8851627556835133E-3</v>
+        <v>3.8853286705498036E-3</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -18735,11 +18733,11 @@
       </c>
       <c r="D156" s="141">
         <f>_xll.qlIndexFixing(C$1,$B156,TRUE,$D$1)</f>
-        <v>3.9418517853571575E-3</v>
+        <v>3.9428529583508329E-3</v>
       </c>
       <c r="E156" s="141">
         <f>_xll.qlIndexFixing(C$2,$B156,TRUE,$D$1)</f>
-        <v>3.8931221278371009E-3</v>
+        <v>3.8933594046020037E-3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -18757,11 +18755,11 @@
       </c>
       <c r="D157" s="141">
         <f>_xll.qlIndexFixing(C$1,$B157,TRUE,$D$1)</f>
-        <v>3.9433816493356626E-3</v>
+        <v>3.9444074506398133E-3</v>
       </c>
       <c r="E157" s="141">
         <f>_xll.qlIndexFixing(C$2,$B157,TRUE,$D$1)</f>
-        <v>3.9076105591950849E-3</v>
+        <v>3.9079838708725818E-3</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -18779,11 +18777,11 @@
       </c>
       <c r="D158" s="141">
         <f>_xll.qlIndexFixing(C$1,$B158,TRUE,$D$1)</f>
-        <v>3.9434109979377416E-3</v>
+        <v>3.9445424287655505E-3</v>
       </c>
       <c r="E158" s="141">
         <f>_xll.qlIndexFixing(C$2,$B158,TRUE,$D$1)</f>
-        <v>3.9205431776001554E-3</v>
+        <v>3.9210458112348689E-3</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -18801,11 +18799,11 @@
       </c>
       <c r="D159" s="141">
         <f>_xll.qlIndexFixing(C$1,$B159,TRUE,$D$1)</f>
-        <v>3.9425372063685701E-3</v>
+        <v>3.9436998274810708E-3</v>
       </c>
       <c r="E159" s="141">
         <f>_xll.qlIndexFixing(C$2,$B159,TRUE,$D$1)</f>
-        <v>3.9262943302875719E-3</v>
+        <v>3.926858280377532E-3</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -18823,11 +18821,11 @@
       </c>
       <c r="D160" s="141">
         <f>_xll.qlIndexFixing(C$1,$B160,TRUE,$D$1)</f>
-        <v>3.9371505280980188E-3</v>
+        <v>3.9383588076853781E-3</v>
       </c>
       <c r="E160" s="141">
         <f>_xll.qlIndexFixing(C$2,$B160,TRUE,$D$1)</f>
-        <v>3.9316038388548247E-3</v>
+        <v>3.9322270964248229E-3</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -18845,11 +18843,11 @@
       </c>
       <c r="D161" s="141">
         <f>_xll.qlIndexFixing(C$1,$B161,TRUE,$D$1)</f>
-        <v>3.9372814516413362E-3</v>
+        <v>3.9385079932293537E-3</v>
       </c>
       <c r="E161" s="141">
         <f>_xll.qlIndexFixing(C$2,$B161,TRUE,$D$1)</f>
-        <v>3.9364717034640062E-3</v>
+        <v>3.9371522592956953E-3</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -18867,11 +18865,11 @@
       </c>
       <c r="D162" s="141">
         <f>_xll.qlIndexFixing(C$1,$B162,TRUE,$D$1)</f>
-        <v>3.9372651097214018E-3</v>
+        <v>3.9385092429922519E-3</v>
       </c>
       <c r="E162" s="141">
         <f>_xll.qlIndexFixing(C$2,$B162,TRUE,$D$1)</f>
-        <v>3.9447779186874143E-3</v>
+        <v>3.9455663913430996E-3</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -18889,11 +18887,11 @@
       </c>
       <c r="D163" s="141">
         <f>_xll.qlIndexFixing(C$1,$B163,TRUE,$D$1)</f>
-        <v>3.9280169348445268E-3</v>
+        <v>3.9293244921739263E-3</v>
       </c>
       <c r="E163" s="141">
         <f>_xll.qlIndexFixing(C$2,$B163,TRUE,$D$1)</f>
-        <v>3.951526721428511E-3</v>
+        <v>3.952416379825463E-3</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -18911,11 +18909,11 @@
       </c>
       <c r="D164" s="141">
         <f>_xll.qlIndexFixing(C$1,$B164,TRUE,$D$1)</f>
-        <v>3.9240506384486196E-3</v>
+        <v>3.925375317547327E-3</v>
       </c>
       <c r="E164" s="141">
         <f>_xll.qlIndexFixing(C$2,$B164,TRUE,$D$1)</f>
-        <v>3.9541863657610588E-3</v>
+        <v>3.9551232770573819E-3</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -18933,11 +18931,11 @@
       </c>
       <c r="D165" s="141">
         <f>_xll.qlIndexFixing(C$1,$B165,TRUE,$D$1)</f>
-        <v>3.9124784315552382E-3</v>
+        <v>3.9138206347750174E-3</v>
       </c>
       <c r="E165" s="141">
         <f>_xll.qlIndexFixing(C$2,$B165,TRUE,$D$1)</f>
-        <v>3.9564043659734427E-3</v>
+        <v>3.9573865211939285E-3</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -18955,11 +18953,11 @@
       </c>
       <c r="D166" s="141">
         <f>_xll.qlIndexFixing(C$1,$B166,TRUE,$D$1)</f>
-        <v>3.9110633522742785E-3</v>
+        <v>3.9124167817962408E-3</v>
       </c>
       <c r="E166" s="141">
         <f>_xll.qlIndexFixing(C$2,$B166,TRUE,$D$1)</f>
-        <v>3.9581807221467091E-3</v>
+        <v>3.9592061119919641E-3</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -18977,11 +18975,11 @@
       </c>
       <c r="D167" s="141">
         <f>_xll.qlIndexFixing(C$1,$B167,TRUE,$D$1)</f>
-        <v>3.9095010411958498E-3</v>
+        <v>3.9108650268623061E-3</v>
       </c>
       <c r="E167" s="141">
         <f>_xll.qlIndexFixing(C$2,$B167,TRUE,$D$1)</f>
-        <v>3.9603042564621367E-3</v>
+        <v>3.9614094429896163E-3</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -18999,11 +18997,11 @@
       </c>
       <c r="D168" s="141">
         <f>_xll.qlIndexFixing(C$1,$B168,TRUE,$D$1)</f>
-        <v>3.8909753938312017E-3</v>
+        <v>3.8923605979734521E-3</v>
       </c>
       <c r="E168" s="141">
         <f>_xll.qlIndexFixing(C$2,$B168,TRUE,$D$1)</f>
-        <v>3.9608697055570907E-3</v>
+        <v>3.962047943744107E-3</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -19021,11 +19019,11 @@
       </c>
       <c r="D169" s="141">
         <f>_xll.qlIndexFixing(C$1,$B169,TRUE,$D$1)</f>
-        <v>3.8839166144779844E-3</v>
+        <v>3.885304871879386E-3</v>
       </c>
       <c r="E169" s="141">
         <f>_xll.qlIndexFixing(C$2,$B169,TRUE,$D$1)</f>
-        <v>3.9604378411295382E-3</v>
+        <v>3.9616492686600502E-3</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -19043,11 +19041,11 @@
       </c>
       <c r="D170" s="141">
         <f>_xll.qlIndexFixing(C$1,$B170,TRUE,$D$1)</f>
-        <v>3.866158477876087E-3</v>
+        <v>3.8675361228653186E-3</v>
       </c>
       <c r="E170" s="141">
         <f>_xll.qlIndexFixing(C$2,$B170,TRUE,$D$1)</f>
-        <v>3.9595643326628682E-3</v>
+        <v>3.9608069403995749E-3</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -19065,11 +19063,11 @@
       </c>
       <c r="D171" s="141">
         <f>_xll.qlIndexFixing(C$1,$B171,TRUE,$D$1)</f>
-        <v>3.8785837675573147E-3</v>
+        <v>3.8799830875731137E-3</v>
       </c>
       <c r="E171" s="141">
         <f>_xll.qlIndexFixing(C$2,$B171,TRUE,$D$1)</f>
-        <v>3.9582491799949882E-3</v>
+        <v>3.9595209589626812E-3</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -19087,11 +19085,11 @@
       </c>
       <c r="D172" s="141">
         <f>_xll.qlIndexFixing(C$1,$B172,TRUE,$D$1)</f>
-        <v>3.8600895968423574E-3</v>
+        <v>3.8614749553725438E-3</v>
       </c>
       <c r="E172" s="141">
         <f>_xll.qlIndexFixing(C$2,$B172,TRUE,$D$1)</f>
-        <v>3.9541895642255156E-3</v>
+        <v>3.9555130173022741E-3</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -19109,11 +19107,11 @@
       </c>
       <c r="D173" s="141">
         <f>_xll.qlIndexFixing(C$1,$B173,TRUE,$D$1)</f>
-        <v>3.8323130929807103E-3</v>
+        <v>3.8336775687470991E-3</v>
       </c>
       <c r="E173" s="141">
         <f>_xll.qlIndexFixing(C$2,$B173,TRUE,$D$1)</f>
-        <v>3.9485721284460151E-3</v>
+        <v>3.9499405012888289E-3</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -19131,11 +19129,11 @@
       </c>
       <c r="D174" s="141">
         <f>_xll.qlIndexFixing(C$1,$B174,TRUE,$D$1)</f>
-        <v>3.8222248398972658E-3</v>
+        <v>3.8235785475593614E-3</v>
       </c>
       <c r="E174" s="141">
         <f>_xll.qlIndexFixing(C$2,$B174,TRUE,$D$1)</f>
-        <v>3.945048755420455E-3</v>
+        <v>3.946436254050889E-3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -19153,11 +19151,11 @@
       </c>
       <c r="D175" s="141">
         <f>_xll.qlIndexFixing(C$1,$B175,TRUE,$D$1)</f>
-        <v>3.7988634385173257E-3</v>
+        <v>3.8001806822185458E-3</v>
       </c>
       <c r="E175" s="141">
         <f>_xll.qlIndexFixing(C$2,$B175,TRUE,$D$1)</f>
-        <v>3.941083738274731E-3</v>
+        <v>3.9424883535554844E-3</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -19175,11 +19173,11 @@
       </c>
       <c r="D176" s="141">
         <f>_xll.qlIndexFixing(C$1,$B176,TRUE,$D$1)</f>
-        <v>3.7943780843913144E-3</v>
+        <v>3.7956925689313845E-3</v>
       </c>
       <c r="E176" s="141">
         <f>_xll.qlIndexFixing(C$2,$B176,TRUE,$D$1)</f>
-        <v>3.9366770770898896E-3</v>
+        <v>3.9380967999647076E-3</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -19197,11 +19195,11 @@
       </c>
       <c r="D177" s="141">
         <f>_xll.qlIndexFixing(C$1,$B177,TRUE,$D$1)</f>
-        <v>3.7897469203040579E-3</v>
+        <v>3.7910579811752873E-3</v>
       </c>
       <c r="E177" s="141">
         <f>_xll.qlIndexFixing(C$2,$B177,TRUE,$D$1)</f>
-        <v>3.9264338452734329E-3</v>
+        <v>3.9278771174148614E-3</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -19219,11 +19217,11 @@
       </c>
       <c r="D178" s="141">
         <f>_xll.qlIndexFixing(C$1,$B178,TRUE,$D$1)</f>
-        <v>3.754366872219922E-3</v>
+        <v>3.7556214106123035E-3</v>
       </c>
       <c r="E178" s="141">
         <f>_xll.qlIndexFixing(C$2,$B178,TRUE,$D$1)</f>
-        <v>3.9146339923645801E-3</v>
+        <v>3.9160940547289247E-3</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -19241,11 +19239,11 @@
       </c>
       <c r="D179" s="141">
         <f>_xll.qlIndexFixing(C$1,$B179,TRUE,$D$1)</f>
-        <v>3.7420214076170966E-3</v>
+        <v>3.743254385711845E-3</v>
       </c>
       <c r="E179" s="141">
         <f>_xll.qlIndexFixing(C$2,$B179,TRUE,$D$1)</f>
-        <v>3.9080191111462437E-3</v>
+        <v>3.9094842358233794E-3</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -19263,11 +19261,11 @@
       </c>
       <c r="D180" s="141">
         <f>_xll.qlIndexFixing(C$1,$B180,TRUE,$D$1)</f>
-        <v>3.7154163526550398E-3</v>
+        <v>3.7165962701971285E-3</v>
       </c>
       <c r="E180" s="141">
         <f>_xll.qlIndexFixing(C$2,$B180,TRUE,$D$1)</f>
-        <v>3.9009625862129749E-3</v>
+        <v>3.9024307637414157E-3</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -19285,11 +19283,11 @@
       </c>
       <c r="D181" s="141">
         <f>_xll.qlIndexFixing(C$1,$B181,TRUE,$D$1)</f>
-        <v>3.709578386484752E-3</v>
+        <v>3.7107492684605031E-3</v>
       </c>
       <c r="E181" s="141">
         <f>_xll.qlIndexFixing(C$2,$B181,TRUE,$D$1)</f>
-        <v>3.8934644172405886E-3</v>
+        <v>3.8949336388882649E-3</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -19307,11 +19305,11 @@
       </c>
       <c r="D182" s="141">
         <f>_xll.qlIndexFixing(C$1,$B182,TRUE,$D$1)</f>
-        <v>3.7036070725686926E-3</v>
+        <v>3.7047683033845343E-3</v>
       </c>
       <c r="E182" s="141">
         <f>_xll.qlIndexFixing(C$2,$B182,TRUE,$D$1)</f>
-        <v>3.8770371143833273E-3</v>
+        <v>3.8785017581858634E-3</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -19329,11 +19327,11 @@
       </c>
       <c r="D183" s="141">
         <f>_xll.qlIndexFixing(C$1,$B183,TRUE,$D$1)</f>
-        <v>3.6635434285843763E-3</v>
+        <v>3.6646239505647607E-3</v>
       </c>
       <c r="E183" s="141">
         <f>_xll.qlIndexFixing(C$2,$B183,TRUE,$D$1)</f>
-        <v>3.8590553031481178E-3</v>
+        <v>3.8605086099807728E-3</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -19351,11 +19349,11 @@
       </c>
       <c r="D184" s="141">
         <f>_xll.qlIndexFixing(C$1,$B184,TRUE,$D$1)</f>
-        <v>3.6499151674020528E-3</v>
+        <v>3.6509671589817789E-3</v>
       </c>
       <c r="E184" s="141">
         <f>_xll.qlIndexFixing(C$2,$B184,TRUE,$D$1)</f>
-        <v>3.8493489151147919E-3</v>
+        <v>3.8507932205422701E-3</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -19373,11 +19371,11 @@
       </c>
       <c r="D185" s="141">
         <f>_xll.qlIndexFixing(C$1,$B185,TRUE,$D$1)</f>
-        <v>3.62222179495805E-3</v>
+        <v>3.623212583191527E-3</v>
       </c>
       <c r="E185" s="141">
         <f>_xll.qlIndexFixing(C$2,$B185,TRUE,$D$1)</f>
-        <v>3.8392008834475799E-3</v>
+        <v>3.8406341784136266E-3</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -19395,11 +19393,11 @@
       </c>
       <c r="D186" s="141">
         <f>_xll.qlIndexFixing(C$1,$B186,TRUE,$D$1)</f>
-        <v>3.6154031703349021E-3</v>
+        <v>3.6163801057570097E-3</v>
       </c>
       <c r="E186" s="141">
         <f>_xll.qlIndexFixing(C$2,$B186,TRUE,$D$1)</f>
-        <v>3.8286112081464818E-3</v>
+        <v>3.8300314834327498E-3</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -19417,11 +19415,11 @@
       </c>
       <c r="D187" s="141">
         <f>_xll.qlIndexFixing(C$1,$B187,TRUE,$D$1)</f>
-        <v>3.6084876410199277E-3</v>
+        <v>3.6094502510147608E-3</v>
       </c>
       <c r="E187" s="141">
         <f>_xll.qlIndexFixing(C$2,$B187,TRUE,$D$1)</f>
-        <v>3.8059993978952402E-3</v>
+        <v>3.8073869660633832E-3</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -19439,11 +19437,11 @@
       </c>
       <c r="D188" s="141">
         <f>_xll.qlIndexFixing(C$1,$B188,TRUE,$D$1)</f>
-        <v>3.5666635907155037E-3</v>
+        <v>3.5675327715094735E-3</v>
       </c>
       <c r="E188" s="141">
         <f>_xll.qlIndexFixing(C$2,$B188,TRUE,$D$1)</f>
-        <v>3.7818360708463672E-3</v>
+        <v>3.7831841770130659E-3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -19461,11 +19459,11 @@
       </c>
       <c r="D189" s="141">
         <f>_xll.qlIndexFixing(C$1,$B189,TRUE,$D$1)</f>
-        <v>3.5527269211665935E-3</v>
+        <v>3.553564423408631E-3</v>
       </c>
       <c r="E189" s="141">
         <f>_xll.qlIndexFixing(C$2,$B189,TRUE,$D$1)</f>
-        <v>3.7690381777000237E-3</v>
+        <v>3.7703632189056702E-3</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -19483,11 +19481,11 @@
       </c>
       <c r="D190" s="141">
         <f>_xll.qlIndexFixing(C$1,$B190,TRUE,$D$1)</f>
-        <v>3.525687278423176E-3</v>
+        <v>3.526462267247032E-3</v>
       </c>
       <c r="E190" s="141">
         <f>_xll.qlIndexFixing(C$2,$B190,TRUE,$D$1)</f>
-        <v>3.7557986411629329E-3</v>
+        <v>3.7570986082702262E-3</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -19505,11 +19503,11 @@
       </c>
       <c r="D191" s="141">
         <f>_xll.qlIndexFixing(C$1,$B191,TRUE,$D$1)</f>
-        <v>3.5184600938773999E-3</v>
+        <v>3.5192186567898145E-3</v>
       </c>
       <c r="E191" s="141">
         <f>_xll.qlIndexFixing(C$2,$B191,TRUE,$D$1)</f>
-        <v>3.7421174612350949E-3</v>
+        <v>3.7433903452688266E-3</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -19527,11 +19525,11 @@
       </c>
       <c r="D192" s="141">
         <f>_xll.qlIndexFixing(C$1,$B192,TRUE,$D$1)</f>
-        <v>3.5047704115488687E-3</v>
+        <v>3.5054972956279767E-3</v>
       </c>
       <c r="E192" s="141">
         <f>_xll.qlIndexFixing(C$2,$B192,TRUE,$D$1)</f>
-        <v>3.7133207337658462E-3</v>
+        <v>3.7145327791661877E-3</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -19549,11 +19547,11 @@
       </c>
       <c r="D193" s="141">
         <f>_xll.qlIndexFixing(C$1,$B193,TRUE,$D$1)</f>
-        <v>3.4705479831383694E-3</v>
+        <v>3.4711952510847431E-3</v>
       </c>
       <c r="E193" s="141">
         <f>_xll.qlIndexFixing(C$2,$B193,TRUE,$D$1)</f>
-        <v>3.6829763090751033E-3</v>
+        <v>3.6841207696036715E-3</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -19571,11 +19569,11 @@
       </c>
       <c r="D194" s="141">
         <f>_xll.qlIndexFixing(C$1,$B194,TRUE,$D$1)</f>
-        <v>3.4634320917139583E-3</v>
+        <v>3.4640627693465209E-3</v>
       </c>
       <c r="E194" s="141">
         <f>_xll.qlIndexFixing(C$2,$B194,TRUE,$D$1)</f>
-        <v>3.6671896218209987E-3</v>
+        <v>3.6682973567137012E-3</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -19593,11 +19591,11 @@
       </c>
       <c r="D195" s="141">
         <f>_xll.qlIndexFixing(C$1,$B195,TRUE,$D$1)</f>
-        <v>3.4502455185080327E-3</v>
+        <v>3.4508453826174921E-3</v>
       </c>
       <c r="E195" s="141">
         <f>_xll.qlIndexFixing(C$2,$B195,TRUE,$D$1)</f>
-        <v>3.6514748353422277E-3</v>
+        <v>3.6525458496239338E-3</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -19615,11 +19613,11 @@
       </c>
       <c r="D196" s="141">
         <f>_xll.qlIndexFixing(C$1,$B196,TRUE,$D$1)</f>
-        <v>3.4253309148954414E-3</v>
+        <v>3.4258724953330558E-3</v>
       </c>
       <c r="E196" s="141">
         <f>_xll.qlIndexFixing(C$2,$B196,TRUE,$D$1)</f>
-        <v>3.6359346582126584E-3</v>
+        <v>3.6369693600324382E-3</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -19637,11 +19635,11 @@
       </c>
       <c r="D197" s="141">
         <f>_xll.qlIndexFixing(C$1,$B197,TRUE,$D$1)</f>
-        <v>3.4185031924593274E-3</v>
+        <v>3.4190288508273796E-3</v>
       </c>
       <c r="E197" s="141">
         <f>_xll.qlIndexFixing(C$2,$B197,TRUE,$D$1)</f>
-        <v>3.6054719492306657E-3</v>
+        <v>3.6064354050750298E-3</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -19659,11 +19657,11 @@
       </c>
       <c r="D198" s="141">
         <f>_xll.qlIndexFixing(C$1,$B198,TRUE,$D$1)</f>
-        <v>3.386932700453686E-3</v>
+        <v>3.3873846197618094E-3</v>
       </c>
       <c r="E198" s="141">
         <f>_xll.qlIndexFixing(C$2,$B198,TRUE,$D$1)</f>
-        <v>3.5755200432674439E-3</v>
+        <v>3.5764135750282477E-3</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -19681,11 +19679,11 @@
       </c>
       <c r="D199" s="141">
         <f>_xll.qlIndexFixing(C$1,$B199,TRUE,$D$1)</f>
-        <v>3.3747941426184314E-3</v>
+        <v>3.375217697516697E-3</v>
       </c>
       <c r="E199" s="141">
         <f>_xll.qlIndexFixing(C$2,$B199,TRUE,$D$1)</f>
-        <v>3.5608529128028366E-3</v>
+        <v>3.5617121721176481E-3</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -19703,11 +19701,11 @@
       </c>
       <c r="D200" s="141">
         <f>_xll.qlIndexFixing(C$1,$B200,TRUE,$D$1)</f>
-        <v>3.3628302521426052E-3</v>
+        <v>3.3632258508016952E-3</v>
       </c>
       <c r="E200" s="141">
         <f>_xll.qlIndexFixing(C$2,$B200,TRUE,$D$1)</f>
-        <v>3.5463603916874309E-3</v>
+        <v>3.5471857864621814E-3</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -19725,11 +19723,11 @@
       </c>
       <c r="D201" s="141">
         <f>_xll.qlIndexFixing(C$1,$B201,TRUE,$D$1)</f>
-        <v>3.3403594216501256E-3</v>
+        <v>3.340702447245103E-3</v>
       </c>
       <c r="E201" s="141">
         <f>_xll.qlIndexFixing(C$2,$B201,TRUE,$D$1)</f>
-        <v>3.5320424797591343E-3</v>
+        <v>3.5328344180618476E-3</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -19747,11 +19745,11 @@
       </c>
       <c r="D202" s="141">
         <f>_xll.qlIndexFixing(C$1,$B202,TRUE,$D$1)</f>
-        <v>3.3341438332562356E-3</v>
+        <v>3.3344723673803703E-3</v>
       </c>
       <c r="E202" s="141">
         <f>_xll.qlIndexFixing(C$2,$B202,TRUE,$D$1)</f>
-        <v>3.504022324812099E-3</v>
+        <v>3.5047487241753514E-3</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -19769,11 +19767,11 @@
       </c>
       <c r="D203" s="141">
         <f>_xll.qlIndexFixing(C$1,$B203,TRUE,$D$1)</f>
-        <v>3.3056307923166051E-3</v>
+        <v>3.3058927323589655E-3</v>
       </c>
       <c r="E203" s="141">
         <f>_xll.qlIndexFixing(C$2,$B203,TRUE,$D$1)</f>
-        <v>3.4765169242412242E-3</v>
+        <v>3.477179116849749E-3</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -19791,11 +19789,11 @@
       </c>
       <c r="D204" s="141">
         <f>_xll.qlIndexFixing(C$1,$B204,TRUE,$D$1)</f>
-        <v>3.2947148954208067E-3</v>
+        <v>3.2949513282318765E-3</v>
       </c>
       <c r="E204" s="141">
         <f>_xll.qlIndexFixing(C$2,$B204,TRUE,$D$1)</f>
-        <v>3.4630720583295194E-3</v>
+        <v>3.4637028344008947E-3</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -19813,11 +19811,11 @@
       </c>
       <c r="D205" s="141">
         <f>_xll.qlIndexFixing(C$1,$B205,TRUE,$D$1)</f>
-        <v>3.2839736624291627E-3</v>
+        <v>3.284184996174222E-3</v>
       </c>
       <c r="E205" s="141">
         <f>_xll.qlIndexFixing(C$2,$B205,TRUE,$D$1)</f>
-        <v>3.4498018015238774E-3</v>
+        <v>3.4504015692071732E-3</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -19835,11 +19833,11 @@
       </c>
       <c r="D206" s="141">
         <f>_xll.qlIndexFixing(C$1,$B206,TRUE,$D$1)</f>
-        <v>3.2639467487141985E-3</v>
+        <v>3.2641112203235165E-3</v>
       </c>
       <c r="E206" s="141">
         <f>_xll.qlIndexFixing(C$2,$B206,TRUE,$D$1)</f>
-        <v>3.4367061538242982E-3</v>
+        <v>3.4372753211064921E-3</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -19857,11 +19855,11 @@
       </c>
       <c r="D207" s="141">
         <f>_xll.qlIndexFixing(C$1,$B207,TRUE,$D$1)</f>
-        <v>3.2583431853146798E-3</v>
+        <v>3.2584945957176408E-3</v>
       </c>
       <c r="E207" s="141">
         <f>_xll.qlIndexFixing(C$2,$B207,TRUE,$D$1)</f>
-        <v>3.4111287669824635E-3</v>
+        <v>3.4116381029825065E-3</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -19879,11 +19877,11 @@
       </c>
       <c r="D208" s="141">
         <f>_xll.qlIndexFixing(C$1,$B208,TRUE,$D$1)</f>
-        <v>3.2328874401644043E-3</v>
+        <v>3.2329794009073138E-3</v>
       </c>
       <c r="E208" s="141">
         <f>_xll.qlIndexFixing(C$2,$B208,TRUE,$D$1)</f>
-        <v>3.3860696537624246E-3</v>
+        <v>3.3865204995531251E-3</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -19901,11 +19899,11 @@
       </c>
       <c r="D209" s="141">
         <f>_xll.qlIndexFixing(C$1,$B209,TRUE,$D$1)</f>
-        <v>3.2231941811720066E-3</v>
+        <v>3.2232634917649383E-3</v>
       </c>
       <c r="E209" s="141">
         <f>_xll.qlIndexFixing(C$2,$B209,TRUE,$D$1)</f>
-        <v>3.373847051431067E-3</v>
+        <v>3.3742693367555532E-3</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -19923,11 +19921,11 @@
       </c>
       <c r="D210" s="141">
         <f>_xll.qlIndexFixing(C$1,$B210,TRUE,$D$1)</f>
-        <v>3.2136755830067072E-3</v>
+        <v>3.2137226515960293E-3</v>
       </c>
       <c r="E210" s="141">
         <f>_xll.qlIndexFixing(C$2,$B210,TRUE,$D$1)</f>
-        <v>3.3617990580436796E-3</v>
+        <v>3.3621931909699754E-3</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -19945,11 +19943,11 @@
       </c>
       <c r="D211" s="141">
         <f>_xll.qlIndexFixing(C$1,$B211,TRUE,$D$1)</f>
-        <v>3.1960927241353118E-3</v>
+        <v>3.1960986418156159E-3</v>
       </c>
       <c r="E211" s="141">
         <f>_xll.qlIndexFixing(C$2,$B211,TRUE,$D$1)</f>
-        <v>3.3499256736813088E-3</v>
+        <v>3.3502920622774379E-3</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -19967,11 +19965,11 @@
       </c>
       <c r="D212" s="141">
         <f>_xll.qlIndexFixing(C$1,$B212,TRUE,$D$1)</f>
-        <v>3.1911010833865225E-3</v>
+        <v>3.1910953698224206E-3</v>
       </c>
       <c r="E212" s="141">
         <f>_xll.qlIndexFixing(C$2,$B212,TRUE,$D$1)</f>
-        <v>3.3267912561555741E-3</v>
+        <v>3.3271035217482168E-3</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -19989,11 +19987,11 @@
       </c>
       <c r="D213" s="141">
         <f>_xll.qlIndexFixing(C$1,$B213,TRUE,$D$1)</f>
-        <v>3.1687024905251437E-3</v>
+        <v>3.1686444712244097E-3</v>
       </c>
       <c r="E213" s="141">
         <f>_xll.qlIndexFixing(C$2,$B213,TRUE,$D$1)</f>
-        <v>3.3041782255904817E-3</v>
+        <v>3.304437716816766E-3</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -20011,11 +20009,11 @@
       </c>
       <c r="D214" s="141">
         <f>_xll.qlIndexFixing(C$1,$B214,TRUE,$D$1)</f>
-        <v>3.1565195804586946E-3</v>
+        <v>3.1564330609813772E-3</v>
       </c>
       <c r="E214" s="141">
         <f>_xll.qlIndexFixing(C$2,$B214,TRUE,$D$1)</f>
-        <v>3.2877798278352355E-3</v>
+        <v>3.2880009685692935E-3</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -20033,11 +20031,11 @@
       </c>
       <c r="D215" s="141">
         <f>_xll.qlIndexFixing(C$1,$B215,TRUE,$D$1)</f>
-        <v>3.1367971952222726E-3</v>
+        <v>3.1366645583083899E-3</v>
       </c>
       <c r="E215" s="141">
         <f>_xll.qlIndexFixing(C$2,$B215,TRUE,$D$1)</f>
-        <v>3.2717010330896024E-3</v>
+        <v>3.2718846354151676E-3</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -20055,11 +20053,11 @@
       </c>
       <c r="D216" s="141">
         <f>_xll.qlIndexFixing(C$1,$B216,TRUE,$D$1)</f>
-        <v>3.1324173808904144E-3</v>
+        <v>3.1322745424179309E-3</v>
       </c>
       <c r="E216" s="141">
         <f>_xll.qlIndexFixing(C$2,$B216,TRUE,$D$1)</f>
-        <v>3.2510097745822959E-3</v>
+        <v>3.2511449626423015E-3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -20077,11 +20075,11 @@
       </c>
       <c r="D217" s="141">
         <f>_xll.qlIndexFixing(C$1,$B217,TRUE,$D$1)</f>
-        <v>3.1098871085057504E-3</v>
+        <v>3.1096916242280962E-3</v>
       </c>
       <c r="E217" s="141">
         <f>_xll.qlIndexFixing(C$2,$B217,TRUE,$D$1)</f>
-        <v>3.2308426338090168E-3</v>
+        <v>3.2309307628863859E-3</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -20099,11 +20097,11 @@
       </c>
       <c r="D218" s="141">
         <f>_xll.qlIndexFixing(C$1,$B218,TRUE,$D$1)</f>
-        <v>3.1027263332865868E-3</v>
+        <v>3.102514116661776E-3</v>
       </c>
       <c r="E218" s="141">
         <f>_xll.qlIndexFixing(C$2,$B218,TRUE,$D$1)</f>
-        <v>3.2210645560448725E-3</v>
+        <v>3.221129836797898E-3</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -20121,11 +20119,11 @@
       </c>
       <c r="D219" s="141">
         <f>_xll.qlIndexFixing(C$1,$B219,TRUE,$D$1)</f>
-        <v>3.0898863905735579E-3</v>
+        <v>3.0896441060940419E-3</v>
       </c>
       <c r="E219" s="141">
         <f>_xll.qlIndexFixing(C$2,$B219,TRUE,$D$1)</f>
-        <v>3.2114610870626059E-3</v>
+        <v>3.2115039275593116E-3</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -20143,11 +20141,11 @@
       </c>
       <c r="D220" s="141">
         <f>_xll.qlIndexFixing(C$1,$B220,TRUE,$D$1)</f>
-        <v>3.0860600285374448E-3</v>
+        <v>3.0858088357487573E-3</v>
       </c>
       <c r="E220" s="141">
         <f>_xll.qlIndexFixing(C$2,$B220,TRUE,$D$1)</f>
-        <v>3.2020322267811707E-3</v>
+        <v>3.2020530350085341E-3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -20165,11 +20163,11 @@
       </c>
       <c r="D221" s="141">
         <f>_xll.qlIndexFixing(C$1,$B221,TRUE,$D$1)</f>
-        <v>3.0822919498908795E-3</v>
+        <v>3.0820319849778426E-3</v>
       </c>
       <c r="E221" s="141">
         <f>_xll.qlIndexFixing(C$2,$B221,TRUE,$D$1)</f>
-        <v>3.1837843062154651E-3</v>
+        <v>3.1837624095635659E-3</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -20187,11 +20185,11 @@
       </c>
       <c r="D222" s="141">
         <f>_xll.qlIndexFixing(C$1,$B222,TRUE,$D$1)</f>
-        <v>3.063429473610684E-3</v>
+        <v>3.0631254335026837E-3</v>
       </c>
       <c r="E222" s="141">
         <f>_xll.qlIndexFixing(C$2,$B222,TRUE,$D$1)</f>
-        <v>3.1660628733121143E-3</v>
+        <v>3.1659996325750228E-3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -20209,11 +20207,11 @@
       </c>
       <c r="D223" s="141">
         <f>_xll.qlIndexFixing(C$1,$B223,TRUE,$D$1)</f>
-        <v>3.0574912928864463E-3</v>
+        <v>3.0571733772813145E-3</v>
       </c>
       <c r="E223" s="141">
         <f>_xll.qlIndexFixing(C$2,$B223,TRUE,$D$1)</f>
-        <v>3.1575070567779751E-3</v>
+        <v>3.1574238237874752E-3</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -20231,11 +20229,11 @@
       </c>
       <c r="D224" s="141">
         <f>_xll.qlIndexFixing(C$1,$B224,TRUE,$D$1)</f>
-        <v>3.0470958104367846E-3</v>
+        <v>3.0467535390206594E-3</v>
       </c>
       <c r="E224" s="141">
         <f>_xll.qlIndexFixing(C$2,$B224,TRUE,$D$1)</f>
-        <v>3.1491258489446672E-3</v>
+        <v>3.1490230316877366E-3</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -20256,7 +20254,7 @@
       </c>
       <c r="E225" s="141">
         <f>_xll.qlIndexFixing(C$2,$B225,TRUE,$D$1)</f>
-        <v>2.9705014020742215E-3</v>
+        <v>2.9699811959849054E-3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
